--- a/ConTensorFlow_V2/training_percentages_v2.xlsx
+++ b/ConTensorFlow_V2/training_percentages_v2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>weight</t>
   </si>
@@ -33,16 +33,10 @@
     <t>yellow_percent</t>
   </si>
   <si>
-    <t>exportable</t>
-  </si>
-  <si>
     <t>511.00</t>
   </si>
   <si>
     <t>453.00</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>614.00</t>
@@ -103,9 +97,6 @@
   </si>
   <si>
     <t>405.00</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -527,11 +518,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A855" workbookViewId="0">
-      <selection activeCell="A869" sqref="A869"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -546,13 +542,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>87.691121455293143</v>
@@ -563,14 +557,12 @@
       <c r="D2">
         <v>2.0881286232401406</v>
       </c>
-      <c r="E2" s="12">
-        <v>0</v>
-      </c>
+      <c r="E2" s="12"/>
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>5.3282445858488447</v>
@@ -581,14 +573,12 @@
       <c r="D3">
         <v>93.166862474788289</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>30.041190165528182</v>
@@ -599,14 +589,12 @@
       <c r="D4">
         <v>34.385857190370203</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E4" s="12"/>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>48.174188882879491</v>
@@ -617,14 +605,12 @@
       <c r="D5">
         <v>13.233104638514314</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E5" s="12"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>77.9481206542102</v>
@@ -635,14 +621,12 @@
       <c r="D6">
         <v>7.189716747472338</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E6" s="12"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>43.075751153375968</v>
@@ -653,14 +637,12 @@
       <c r="D7">
         <v>20.677834909050699</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E7" s="12"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>68.570096983954372</v>
@@ -671,14 +653,12 @@
       <c r="D8">
         <v>2.8643926111690599</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E8" s="12"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>32.325546431460708</v>
@@ -689,14 +669,12 @@
       <c r="D9">
         <v>59.48782565740018</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E9" s="12"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -707,14 +685,12 @@
       <c r="D10">
         <v>99</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E10" s="12"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1.6889663620088571</v>
@@ -725,14 +701,12 @@
       <c r="D11">
         <v>94.209146015892458</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E11" s="12"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>23.027339969874703</v>
@@ -743,14 +717,12 @@
       <c r="D12">
         <v>39.24871883335998</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -761,14 +733,12 @@
       <c r="D13">
         <v>30.254154179929543</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E13" s="12"/>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>47.014314545102373</v>
@@ -779,14 +749,12 @@
       <c r="D14">
         <v>16.043412247652252</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E14" s="12"/>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>8.6267869773024405E-2</v>
@@ -797,14 +765,12 @@
       <c r="D15">
         <v>19.970743939816106</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E15" s="12"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -815,14 +781,12 @@
       <c r="D16">
         <v>3.7167101160353728</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E16" s="12"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -833,14 +797,12 @@
       <c r="D17">
         <v>24.303479815327076</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E17" s="12"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>5.4929075909549532</v>
@@ -851,14 +813,12 @@
       <c r="D18">
         <v>52.698082972283224</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E18" s="12"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -869,14 +829,12 @@
       <c r="D19">
         <v>90.895401916828888</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E19" s="12"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0.12413236648012331</v>
@@ -887,14 +845,12 @@
       <c r="D20">
         <v>33.013002865388792</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E20" s="12"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -905,14 +861,12 @@
       <c r="D21">
         <v>33.099226349577116</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E21" s="12"/>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -923,14 +877,12 @@
       <c r="D22">
         <v>0.39191032199514297</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E22" s="12"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>49.618627057406663</v>
@@ -941,14 +893,12 @@
       <c r="D23">
         <v>8.9850735374621369</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E23" s="12"/>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>75.764881340225585</v>
@@ -959,14 +909,12 @@
       <c r="D24">
         <v>9.5224649957285372</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E24" s="12"/>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>31.310833781993502</v>
@@ -977,14 +925,12 @@
       <c r="D25">
         <v>28.0907644564356</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E25" s="12"/>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>80.190975124932663</v>
@@ -995,14 +941,12 @@
       <c r="D26">
         <v>7.7845275471090556</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E26" s="12"/>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27">
         <v>76.427425417092081</v>
@@ -1013,9 +957,7 @@
       <c r="D27">
         <v>8.408037787925366</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E27" s="12"/>
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,9 +973,7 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="12">
-        <v>1</v>
-      </c>
+      <c r="E28" s="12"/>
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1049,9 +989,7 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E29" s="12"/>
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1067,9 +1005,7 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E30" s="12"/>
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1085,9 +1021,7 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E31" s="12"/>
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1103,9 +1037,7 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E32" s="12"/>
       <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,9 +1053,7 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E33" s="12"/>
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1139,9 +1069,7 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E34" s="12"/>
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1157,9 +1085,7 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E35" s="12"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1175,9 +1101,7 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E36" s="12"/>
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1193,9 +1117,7 @@
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" s="13">
-        <v>0</v>
-      </c>
+      <c r="E37" s="13"/>
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1211,9 +1133,7 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" s="13">
-        <v>0</v>
-      </c>
+      <c r="E38" s="13"/>
       <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1229,9 +1149,7 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E39" s="12"/>
       <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1247,9 +1165,7 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E40" s="12"/>
       <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,9 +1181,7 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E41" s="12"/>
       <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1283,9 +1197,7 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E42" s="12"/>
       <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1301,9 +1213,7 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E43" s="12"/>
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1319,9 +1229,7 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E44" s="12"/>
       <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1337,9 +1245,7 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E45" s="12"/>
       <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1355,9 +1261,7 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" s="12">
-        <v>0</v>
-      </c>
+      <c r="E46" s="12"/>
       <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1373,9 +1277,7 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" s="13">
-        <v>0</v>
-      </c>
+      <c r="E47" s="13"/>
       <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1391,9 +1293,7 @@
       <c r="D48" s="7">
         <v>0</v>
       </c>
-      <c r="E48" s="14">
-        <v>0</v>
-      </c>
+      <c r="E48" s="14"/>
       <c r="F48" s="11"/>
       <c r="G48" s="7"/>
     </row>
@@ -1410,9 +1310,7 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="12">
-        <v>0</v>
-      </c>
+      <c r="E49" s="12"/>
       <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1428,9 +1326,7 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" s="13">
-        <v>0</v>
-      </c>
+      <c r="E50" s="13"/>
       <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1446,9 +1342,7 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" s="13">
-        <v>0</v>
-      </c>
+      <c r="E51" s="13"/>
       <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1464,9 +1358,7 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="13">
-        <v>0</v>
-      </c>
+      <c r="E52" s="13"/>
       <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1482,9 +1374,7 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" s="13">
-        <v>0</v>
-      </c>
+      <c r="E53" s="13"/>
       <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1500,9 +1390,7 @@
       <c r="D54" s="4">
         <v>28.114679219999999</v>
       </c>
-      <c r="E54" s="15">
-        <v>0</v>
-      </c>
+      <c r="E54" s="15"/>
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1518,9 +1406,7 @@
       <c r="D55" s="4">
         <v>43.726982890000002</v>
       </c>
-      <c r="E55" s="15">
-        <v>0</v>
-      </c>
+      <c r="E55" s="15"/>
       <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1536,9 +1422,7 @@
       <c r="D56" s="4">
         <v>37.417068620000002</v>
       </c>
-      <c r="E56" s="15">
-        <v>0</v>
-      </c>
+      <c r="E56" s="15"/>
       <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1554,9 +1438,7 @@
       <c r="D57" s="4">
         <v>19.427913579999998</v>
       </c>
-      <c r="E57" s="15">
-        <v>0</v>
-      </c>
+      <c r="E57" s="15"/>
       <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1572,9 +1454,7 @@
       <c r="D58" s="4">
         <v>31.947695370000002</v>
       </c>
-      <c r="E58" s="15">
-        <v>0</v>
-      </c>
+      <c r="E58" s="15"/>
       <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1590,9 +1470,7 @@
       <c r="D59" s="4">
         <v>37.038646679999999</v>
       </c>
-      <c r="E59" s="15">
-        <v>0</v>
-      </c>
+      <c r="E59" s="15"/>
       <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1608,9 +1486,7 @@
       <c r="D60" s="4">
         <v>45.250526219999998</v>
       </c>
-      <c r="E60" s="15">
-        <v>0</v>
-      </c>
+      <c r="E60" s="15"/>
       <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1626,9 +1502,7 @@
       <c r="D61" s="4">
         <v>36.653494139999999</v>
       </c>
-      <c r="E61" s="15">
-        <v>0</v>
-      </c>
+      <c r="E61" s="15"/>
       <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1644,9 +1518,7 @@
       <c r="D62" s="4">
         <v>25.64242848</v>
       </c>
-      <c r="E62" s="15">
-        <v>0</v>
-      </c>
+      <c r="E62" s="15"/>
       <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1662,9 +1534,7 @@
       <c r="D63" s="4">
         <v>32.642243489999998</v>
       </c>
-      <c r="E63" s="15">
-        <v>0</v>
-      </c>
+      <c r="E63" s="15"/>
       <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1680,9 +1550,7 @@
       <c r="D64" s="4">
         <v>38.93257294</v>
       </c>
-      <c r="E64" s="15">
-        <v>0</v>
-      </c>
+      <c r="E64" s="15"/>
       <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1698,9 +1566,7 @@
       <c r="D65" s="4">
         <v>0.32586869000000002</v>
       </c>
-      <c r="E65" s="15">
-        <v>1</v>
-      </c>
+      <c r="E65" s="15"/>
       <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1716,9 +1582,7 @@
       <c r="D66" s="4">
         <v>47.944894990000002</v>
       </c>
-      <c r="E66" s="15">
-        <v>0</v>
-      </c>
+      <c r="E66" s="15"/>
       <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1734,9 +1598,7 @@
       <c r="D67" s="4">
         <v>15.2815046</v>
       </c>
-      <c r="E67" s="15">
-        <v>0</v>
-      </c>
+      <c r="E67" s="15"/>
       <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1752,9 +1614,7 @@
       <c r="D68" s="4">
         <v>28.842861039999999</v>
       </c>
-      <c r="E68" s="15">
-        <v>0</v>
-      </c>
+      <c r="E68" s="15"/>
       <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1770,9 +1630,7 @@
       <c r="D69" s="4">
         <v>56.48007715</v>
       </c>
-      <c r="E69" s="15">
-        <v>0</v>
-      </c>
+      <c r="E69" s="15"/>
       <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1788,9 +1646,7 @@
       <c r="D70" s="4">
         <v>36.095255680000001</v>
       </c>
-      <c r="E70" s="15">
-        <v>0</v>
-      </c>
+      <c r="E70" s="15"/>
       <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1806,9 +1662,7 @@
       <c r="D71" s="4">
         <v>30.902420150000001</v>
       </c>
-      <c r="E71" s="15">
-        <v>0</v>
-      </c>
+      <c r="E71" s="15"/>
       <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1824,9 +1678,7 @@
       <c r="D72" s="4">
         <v>19.683777280000001</v>
       </c>
-      <c r="E72" s="15">
-        <v>0</v>
-      </c>
+      <c r="E72" s="15"/>
       <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1842,9 +1694,7 @@
       <c r="D73" s="4">
         <v>35.131555030000001</v>
       </c>
-      <c r="E73" s="15">
-        <v>0</v>
-      </c>
+      <c r="E73" s="15"/>
       <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1860,9 +1710,7 @@
       <c r="D74" s="4">
         <v>37.485438479999999</v>
       </c>
-      <c r="E74" s="15">
-        <v>0</v>
-      </c>
+      <c r="E74" s="15"/>
       <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1878,9 +1726,7 @@
       <c r="D75" s="4">
         <v>22.79743899</v>
       </c>
-      <c r="E75" s="15">
-        <v>0</v>
-      </c>
+      <c r="E75" s="15"/>
       <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1896,9 +1742,7 @@
       <c r="D76" s="4">
         <v>54.439777970000002</v>
       </c>
-      <c r="E76" s="15">
-        <v>0</v>
-      </c>
+      <c r="E76" s="15"/>
       <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,9 +1758,7 @@
       <c r="D77" s="4">
         <v>40.281337870000002</v>
       </c>
-      <c r="E77" s="15">
-        <v>0</v>
-      </c>
+      <c r="E77" s="15"/>
       <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -1932,9 +1774,7 @@
       <c r="D78" s="4">
         <v>39.415387539999998</v>
       </c>
-      <c r="E78" s="15">
-        <v>0</v>
-      </c>
+      <c r="E78" s="15"/>
       <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -1950,9 +1790,7 @@
       <c r="D79" s="4">
         <v>28.8797648</v>
       </c>
-      <c r="E79" s="15">
-        <v>0</v>
-      </c>
+      <c r="E79" s="15"/>
       <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -1968,9 +1806,7 @@
       <c r="D80" s="4">
         <v>18.1467429</v>
       </c>
-      <c r="E80" s="15">
-        <v>0</v>
-      </c>
+      <c r="E80" s="15"/>
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -1986,9 +1822,7 @@
       <c r="D81" s="4">
         <v>33.89228292</v>
       </c>
-      <c r="E81" s="15">
-        <v>0</v>
-      </c>
+      <c r="E81" s="15"/>
       <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,9 +1838,7 @@
       <c r="D82" s="4">
         <v>28.363829020000001</v>
       </c>
-      <c r="E82" s="15">
-        <v>0</v>
-      </c>
+      <c r="E82" s="15"/>
       <c r="F82" s="11"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2022,9 +1854,7 @@
       <c r="D83" s="4">
         <v>31.604722949999999</v>
       </c>
-      <c r="E83" s="15">
-        <v>0</v>
-      </c>
+      <c r="E83" s="15"/>
       <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2040,9 +1870,7 @@
       <c r="D84" s="4">
         <v>31.091528109999999</v>
       </c>
-      <c r="E84" s="15">
-        <v>0</v>
-      </c>
+      <c r="E84" s="15"/>
       <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2058,9 +1886,7 @@
       <c r="D85" s="4">
         <v>47.589011200000002</v>
       </c>
-      <c r="E85" s="15">
-        <v>0</v>
-      </c>
+      <c r="E85" s="15"/>
       <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2076,9 +1902,7 @@
       <c r="D86" s="4">
         <v>41.936572820000002</v>
       </c>
-      <c r="E86" s="15">
-        <v>0</v>
-      </c>
+      <c r="E86" s="15"/>
       <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2094,9 +1918,7 @@
       <c r="D87" s="4">
         <v>38.0665871</v>
       </c>
-      <c r="E87" s="15">
-        <v>0</v>
-      </c>
+      <c r="E87" s="15"/>
       <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2112,9 +1934,7 @@
       <c r="D88" s="4">
         <v>17.202631409999999</v>
       </c>
-      <c r="E88" s="15">
-        <v>0</v>
-      </c>
+      <c r="E88" s="15"/>
       <c r="F88" s="11"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2130,9 +1950,7 @@
       <c r="D89" s="4">
         <v>53.144478499999998</v>
       </c>
-      <c r="E89" s="15">
-        <v>0</v>
-      </c>
+      <c r="E89" s="15"/>
       <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2148,9 +1966,7 @@
       <c r="D90" s="4">
         <v>29.067440449999999</v>
       </c>
-      <c r="E90" s="15">
-        <v>0</v>
-      </c>
+      <c r="E90" s="15"/>
       <c r="F90" s="11"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2166,9 +1982,7 @@
       <c r="D91" s="4">
         <v>44.087455490000004</v>
       </c>
-      <c r="E91" s="15">
-        <v>0</v>
-      </c>
+      <c r="E91" s="15"/>
       <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2184,9 +1998,7 @@
       <c r="D92" s="4">
         <v>24.39740252</v>
       </c>
-      <c r="E92" s="15">
-        <v>0</v>
-      </c>
+      <c r="E92" s="15"/>
       <c r="F92" s="11"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2202,9 +2014,7 @@
       <c r="D93" s="4">
         <v>2.1808144199999999</v>
       </c>
-      <c r="E93" s="15">
-        <v>0</v>
-      </c>
+      <c r="E93" s="15"/>
       <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2220,9 +2030,7 @@
       <c r="D94" s="4">
         <v>39.769618299999998</v>
       </c>
-      <c r="E94" s="15">
-        <v>0</v>
-      </c>
+      <c r="E94" s="15"/>
       <c r="F94" s="11"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2238,9 +2046,7 @@
       <c r="D95" s="4">
         <v>32.34585439</v>
       </c>
-      <c r="E95" s="15">
-        <v>0</v>
-      </c>
+      <c r="E95" s="15"/>
       <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2256,9 +2062,7 @@
       <c r="D96" s="4">
         <v>21.772129419999999</v>
       </c>
-      <c r="E96" s="15">
-        <v>0</v>
-      </c>
+      <c r="E96" s="15"/>
       <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2274,9 +2078,7 @@
       <c r="D97" s="4">
         <v>36.400056210000002</v>
       </c>
-      <c r="E97" s="15">
-        <v>0</v>
-      </c>
+      <c r="E97" s="15"/>
       <c r="F97" s="11"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2292,9 +2094,7 @@
       <c r="D98" s="4">
         <v>24.975819019999999</v>
       </c>
-      <c r="E98" s="15">
-        <v>0</v>
-      </c>
+      <c r="E98" s="15"/>
       <c r="F98" s="11"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2310,9 +2110,7 @@
       <c r="D99" s="4">
         <v>49.163148739999997</v>
       </c>
-      <c r="E99" s="15">
-        <v>0</v>
-      </c>
+      <c r="E99" s="15"/>
       <c r="F99" s="11"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2328,9 +2126,7 @@
       <c r="D100" s="4">
         <v>27.82264778</v>
       </c>
-      <c r="E100" s="15">
-        <v>0</v>
-      </c>
+      <c r="E100" s="15"/>
       <c r="F100" s="11"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2346,9 +2142,7 @@
       <c r="D101" s="4">
         <v>25.401450959999998</v>
       </c>
-      <c r="E101" s="15">
-        <v>0</v>
-      </c>
+      <c r="E101" s="15"/>
       <c r="F101" s="11"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2364,9 +2158,7 @@
       <c r="D102" s="4">
         <v>45.600429050000002</v>
       </c>
-      <c r="E102" s="15">
-        <v>0</v>
-      </c>
+      <c r="E102" s="15"/>
       <c r="F102" s="11"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2382,9 +2174,7 @@
       <c r="D103" s="4">
         <v>23.521461049999999</v>
       </c>
-      <c r="E103" s="15">
-        <v>0</v>
-      </c>
+      <c r="E103" s="15"/>
       <c r="F103" s="11"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2400,9 +2190,7 @@
       <c r="D104" s="4">
         <v>18.72653846</v>
       </c>
-      <c r="E104" s="15">
-        <v>0</v>
-      </c>
+      <c r="E104" s="15"/>
       <c r="F104" s="11"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2418,9 +2206,7 @@
       <c r="D105" s="4">
         <v>40.044139350000002</v>
       </c>
-      <c r="E105" s="15">
-        <v>0</v>
-      </c>
+      <c r="E105" s="15"/>
       <c r="F105" s="11"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2436,9 +2222,7 @@
       <c r="D106" s="4">
         <v>45.169638499999998</v>
       </c>
-      <c r="E106" s="15">
-        <v>0</v>
-      </c>
+      <c r="E106" s="15"/>
       <c r="F106" s="11"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2454,9 +2238,7 @@
       <c r="D107" s="4">
         <v>24.619966810000001</v>
       </c>
-      <c r="E107" s="15">
-        <v>0</v>
-      </c>
+      <c r="E107" s="15"/>
       <c r="F107" s="11"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2472,9 +2254,7 @@
       <c r="D108" s="4">
         <v>27.800428570000001</v>
       </c>
-      <c r="E108" s="15">
-        <v>0</v>
-      </c>
+      <c r="E108" s="15"/>
       <c r="F108" s="11"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2490,9 +2270,7 @@
       <c r="D109" s="4">
         <v>19.199812690000002</v>
       </c>
-      <c r="E109" s="15">
-        <v>0</v>
-      </c>
+      <c r="E109" s="15"/>
       <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2508,9 +2286,7 @@
       <c r="D110" s="4">
         <v>23.162110250000001</v>
       </c>
-      <c r="E110" s="15">
-        <v>0</v>
-      </c>
+      <c r="E110" s="15"/>
       <c r="F110" s="11"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2526,9 +2302,7 @@
       <c r="D111" s="4">
         <v>52.528941199999998</v>
       </c>
-      <c r="E111" s="15">
-        <v>0</v>
-      </c>
+      <c r="E111" s="15"/>
       <c r="F111" s="11"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -2544,9 +2318,7 @@
       <c r="D112" s="4">
         <v>19.797944600000001</v>
       </c>
-      <c r="E112" s="15">
-        <v>0</v>
-      </c>
+      <c r="E112" s="15"/>
       <c r="F112" s="11"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2562,9 +2334,7 @@
       <c r="D113" s="4">
         <v>4.5416983799999997</v>
       </c>
-      <c r="E113" s="15">
-        <v>0</v>
-      </c>
+      <c r="E113" s="15"/>
       <c r="F113" s="11"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2580,9 +2350,7 @@
       <c r="D114" s="4">
         <v>36.273509750000002</v>
       </c>
-      <c r="E114" s="15">
-        <v>0</v>
-      </c>
+      <c r="E114" s="15"/>
       <c r="F114" s="11"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -2598,9 +2366,7 @@
       <c r="D115" s="4">
         <v>29.90707355</v>
       </c>
-      <c r="E115" s="15">
-        <v>0</v>
-      </c>
+      <c r="E115" s="15"/>
       <c r="F115" s="11"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2616,9 +2382,7 @@
       <c r="D116" s="4">
         <v>12.565940319999999</v>
       </c>
-      <c r="E116" s="15">
-        <v>0</v>
-      </c>
+      <c r="E116" s="15"/>
       <c r="F116" s="11"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -2634,9 +2398,7 @@
       <c r="D117" s="4">
         <v>42.703675140000001</v>
       </c>
-      <c r="E117" s="15">
-        <v>0</v>
-      </c>
+      <c r="E117" s="15"/>
       <c r="F117" s="11"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -2652,9 +2414,7 @@
       <c r="D118" s="4">
         <v>32.727548429999999</v>
       </c>
-      <c r="E118" s="15">
-        <v>0</v>
-      </c>
+      <c r="E118" s="15"/>
       <c r="F118" s="11"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -2670,9 +2430,7 @@
       <c r="D119" s="4">
         <v>49.476574450000001</v>
       </c>
-      <c r="E119" s="15">
-        <v>0</v>
-      </c>
+      <c r="E119" s="15"/>
       <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -2688,9 +2446,7 @@
       <c r="D120" s="4">
         <v>36.918124210000002</v>
       </c>
-      <c r="E120" s="15">
-        <v>0</v>
-      </c>
+      <c r="E120" s="15"/>
       <c r="F120" s="11"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -2706,9 +2462,7 @@
       <c r="D121" s="4">
         <v>31.764492950000001</v>
       </c>
-      <c r="E121" s="15">
-        <v>0</v>
-      </c>
+      <c r="E121" s="15"/>
       <c r="F121" s="11"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -2724,9 +2478,7 @@
       <c r="D122" s="4">
         <v>39.507373800000003</v>
       </c>
-      <c r="E122" s="15">
-        <v>0</v>
-      </c>
+      <c r="E122" s="15"/>
       <c r="F122" s="11"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -2742,9 +2494,7 @@
       <c r="D123" s="4">
         <v>34.205365860000001</v>
       </c>
-      <c r="E123" s="15">
-        <v>0</v>
-      </c>
+      <c r="E123" s="15"/>
       <c r="F123" s="11"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -2760,9 +2510,7 @@
       <c r="D124" s="4">
         <v>42.358276340000003</v>
       </c>
-      <c r="E124" s="15">
-        <v>0</v>
-      </c>
+      <c r="E124" s="15"/>
       <c r="F124" s="11"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -2778,9 +2526,7 @@
       <c r="D125" s="4">
         <v>14.08666622</v>
       </c>
-      <c r="E125" s="15">
-        <v>0</v>
-      </c>
+      <c r="E125" s="15"/>
       <c r="F125" s="11"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -2796,9 +2542,7 @@
       <c r="D126" s="4">
         <v>18.699727230000001</v>
       </c>
-      <c r="E126" s="15">
-        <v>0</v>
-      </c>
+      <c r="E126" s="15"/>
       <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -2814,9 +2558,7 @@
       <c r="D127" s="4">
         <v>25.64585142</v>
       </c>
-      <c r="E127" s="15">
-        <v>0</v>
-      </c>
+      <c r="E127" s="15"/>
       <c r="F127" s="11"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -2832,9 +2574,7 @@
       <c r="D128" s="4">
         <v>30.170461060000001</v>
       </c>
-      <c r="E128" s="15">
-        <v>0</v>
-      </c>
+      <c r="E128" s="15"/>
       <c r="F128" s="11"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -2850,9 +2590,7 @@
       <c r="D129" s="4">
         <v>30.99455158</v>
       </c>
-      <c r="E129" s="15">
-        <v>0</v>
-      </c>
+      <c r="E129" s="15"/>
       <c r="F129" s="11"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -2868,9 +2606,7 @@
       <c r="D130" s="4">
         <v>45.530004929999997</v>
       </c>
-      <c r="E130" s="15">
-        <v>0</v>
-      </c>
+      <c r="E130" s="15"/>
       <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -2886,9 +2622,7 @@
       <c r="D131" s="4">
         <v>13.46756398</v>
       </c>
-      <c r="E131" s="15">
-        <v>0</v>
-      </c>
+      <c r="E131" s="15"/>
       <c r="F131" s="11"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -2904,9 +2638,7 @@
       <c r="D132" s="4">
         <v>43.512602600000001</v>
       </c>
-      <c r="E132" s="15">
-        <v>0</v>
-      </c>
+      <c r="E132" s="15"/>
       <c r="F132" s="11"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -2922,9 +2654,7 @@
       <c r="D133" s="4">
         <v>33.602795929999999</v>
       </c>
-      <c r="E133" s="15">
-        <v>0</v>
-      </c>
+      <c r="E133" s="15"/>
       <c r="F133" s="11"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -2940,9 +2670,7 @@
       <c r="D134" s="4">
         <v>44.827339019999997</v>
       </c>
-      <c r="E134" s="15">
-        <v>0</v>
-      </c>
+      <c r="E134" s="15"/>
       <c r="F134" s="11"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -2958,9 +2686,7 @@
       <c r="D135" s="4">
         <v>25.81389261</v>
       </c>
-      <c r="E135" s="15">
-        <v>0</v>
-      </c>
+      <c r="E135" s="15"/>
       <c r="F135" s="11"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -2976,9 +2702,7 @@
       <c r="D136" s="4">
         <v>34.532982140000001</v>
       </c>
-      <c r="E136" s="15">
-        <v>0</v>
-      </c>
+      <c r="E136" s="15"/>
       <c r="F136" s="11"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -2994,9 +2718,7 @@
       <c r="D137" s="4">
         <v>19.333077500000002</v>
       </c>
-      <c r="E137" s="15">
-        <v>0</v>
-      </c>
+      <c r="E137" s="15"/>
       <c r="F137" s="11"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3012,9 +2734,7 @@
       <c r="D138" s="4">
         <v>45.050551929999997</v>
       </c>
-      <c r="E138" s="15">
-        <v>0</v>
-      </c>
+      <c r="E138" s="15"/>
       <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3030,9 +2750,7 @@
       <c r="D139" s="4">
         <v>32.08482034</v>
       </c>
-      <c r="E139" s="15">
-        <v>0</v>
-      </c>
+      <c r="E139" s="15"/>
       <c r="F139" s="11"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3048,9 +2766,7 @@
       <c r="D140" s="4">
         <v>0</v>
       </c>
-      <c r="E140" s="15">
-        <v>1</v>
-      </c>
+      <c r="E140" s="15"/>
       <c r="F140" s="11"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3066,9 +2782,7 @@
       <c r="D141" s="4">
         <v>40.257937910000003</v>
       </c>
-      <c r="E141" s="15">
-        <v>0</v>
-      </c>
+      <c r="E141" s="15"/>
       <c r="F141" s="11"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3084,9 +2798,7 @@
       <c r="D142" s="4">
         <v>22.596883200000001</v>
       </c>
-      <c r="E142" s="15">
-        <v>0</v>
-      </c>
+      <c r="E142" s="15"/>
       <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3102,9 +2814,7 @@
       <c r="D143" s="4">
         <v>34.427522160000002</v>
       </c>
-      <c r="E143" s="15">
-        <v>0</v>
-      </c>
+      <c r="E143" s="15"/>
       <c r="F143" s="11"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3120,9 +2830,7 @@
       <c r="D144" s="4">
         <v>28.506731940000002</v>
       </c>
-      <c r="E144" s="15">
-        <v>0</v>
-      </c>
+      <c r="E144" s="15"/>
       <c r="F144" s="11"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3138,9 +2846,7 @@
       <c r="D145" s="4">
         <v>51.076228209999996</v>
       </c>
-      <c r="E145" s="15">
-        <v>0</v>
-      </c>
+      <c r="E145" s="15"/>
       <c r="F145" s="11"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3156,9 +2862,7 @@
       <c r="D146" s="4">
         <v>38.285918240000001</v>
       </c>
-      <c r="E146" s="15">
-        <v>0</v>
-      </c>
+      <c r="E146" s="15"/>
       <c r="F146" s="11"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3174,9 +2878,7 @@
       <c r="D147" s="4">
         <v>6.5904852099999998</v>
       </c>
-      <c r="E147" s="15">
-        <v>0</v>
-      </c>
+      <c r="E147" s="15"/>
       <c r="F147" s="11"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3192,9 +2894,7 @@
       <c r="D148" s="4">
         <v>42.44645731</v>
       </c>
-      <c r="E148" s="15">
-        <v>0</v>
-      </c>
+      <c r="E148" s="15"/>
       <c r="F148" s="11"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3210,9 +2910,7 @@
       <c r="D149" s="4">
         <v>43.710153310000003</v>
       </c>
-      <c r="E149" s="15">
-        <v>0</v>
-      </c>
+      <c r="E149" s="15"/>
       <c r="F149" s="11"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3228,9 +2926,7 @@
       <c r="D150" s="4">
         <v>34.313138000000002</v>
       </c>
-      <c r="E150" s="15">
-        <v>0</v>
-      </c>
+      <c r="E150" s="15"/>
       <c r="F150" s="11"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3246,9 +2942,7 @@
       <c r="D151" s="4">
         <v>27.943055390000001</v>
       </c>
-      <c r="E151" s="15">
-        <v>0</v>
-      </c>
+      <c r="E151" s="15"/>
       <c r="F151" s="11"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -3264,9 +2958,7 @@
       <c r="D152" s="4">
         <v>29.412318989999999</v>
       </c>
-      <c r="E152" s="15">
-        <v>0</v>
-      </c>
+      <c r="E152" s="15"/>
       <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3282,9 +2974,7 @@
       <c r="D153" s="4">
         <v>0</v>
       </c>
-      <c r="E153" s="15">
-        <v>1</v>
-      </c>
+      <c r="E153" s="15"/>
       <c r="F153" s="11"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3300,9 +2990,7 @@
       <c r="D154" s="4">
         <v>0</v>
       </c>
-      <c r="E154" s="15">
-        <v>1</v>
-      </c>
+      <c r="E154" s="15"/>
       <c r="F154" s="11"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -3318,9 +3006,7 @@
       <c r="D155" s="4">
         <v>0</v>
       </c>
-      <c r="E155" s="15">
-        <v>1</v>
-      </c>
+      <c r="E155" s="15"/>
       <c r="F155" s="11"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3336,9 +3022,7 @@
       <c r="D156" s="4">
         <v>0</v>
       </c>
-      <c r="E156" s="15">
-        <v>1</v>
-      </c>
+      <c r="E156" s="15"/>
       <c r="F156" s="11"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -3354,9 +3038,7 @@
       <c r="D157" s="4">
         <v>0</v>
       </c>
-      <c r="E157" s="15">
-        <v>1</v>
-      </c>
+      <c r="E157" s="15"/>
       <c r="F157" s="11"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3372,9 +3054,7 @@
       <c r="D158" s="4">
         <v>0</v>
       </c>
-      <c r="E158" s="15">
-        <v>1</v>
-      </c>
+      <c r="E158" s="15"/>
       <c r="F158" s="11"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -3390,9 +3070,7 @@
       <c r="D159" s="4">
         <v>0</v>
       </c>
-      <c r="E159" s="15">
-        <v>0</v>
-      </c>
+      <c r="E159" s="15"/>
       <c r="F159" s="11"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -3408,9 +3086,7 @@
       <c r="D160" s="4">
         <v>0</v>
       </c>
-      <c r="E160" s="15">
-        <v>1</v>
-      </c>
+      <c r="E160" s="15"/>
       <c r="F160" s="11"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -3426,9 +3102,7 @@
       <c r="D161" s="4">
         <v>0</v>
       </c>
-      <c r="E161" s="15">
-        <v>1</v>
-      </c>
+      <c r="E161" s="15"/>
       <c r="F161" s="11"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -3444,9 +3118,7 @@
       <c r="D162" s="4">
         <v>0</v>
       </c>
-      <c r="E162" s="15">
-        <v>0</v>
-      </c>
+      <c r="E162" s="15"/>
       <c r="F162" s="11"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -3462,9 +3134,7 @@
       <c r="D163" s="4">
         <v>0</v>
       </c>
-      <c r="E163" s="15">
-        <v>0</v>
-      </c>
+      <c r="E163" s="15"/>
       <c r="F163" s="11"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -3480,9 +3150,7 @@
       <c r="D164" s="4">
         <v>0</v>
       </c>
-      <c r="E164" s="15">
-        <v>1</v>
-      </c>
+      <c r="E164" s="15"/>
       <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -3498,9 +3166,7 @@
       <c r="D165" s="4">
         <v>0</v>
       </c>
-      <c r="E165" s="15">
-        <v>1</v>
-      </c>
+      <c r="E165" s="15"/>
       <c r="F165" s="11"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -3516,9 +3182,7 @@
       <c r="D166" s="4">
         <v>0</v>
       </c>
-      <c r="E166" s="15">
-        <v>1</v>
-      </c>
+      <c r="E166" s="15"/>
       <c r="F166" s="11"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -3534,9 +3198,7 @@
       <c r="D167" s="4">
         <v>0</v>
       </c>
-      <c r="E167" s="15">
-        <v>0</v>
-      </c>
+      <c r="E167" s="15"/>
       <c r="F167" s="11"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -3552,9 +3214,7 @@
       <c r="D168" s="4">
         <v>0</v>
       </c>
-      <c r="E168" s="15">
-        <v>1</v>
-      </c>
+      <c r="E168" s="15"/>
       <c r="F168" s="11"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -3570,9 +3230,7 @@
       <c r="D169" s="4">
         <v>0</v>
       </c>
-      <c r="E169" s="15">
-        <v>1</v>
-      </c>
+      <c r="E169" s="15"/>
       <c r="F169" s="11"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -3588,9 +3246,7 @@
       <c r="D170" s="4">
         <v>0</v>
       </c>
-      <c r="E170" s="15">
-        <v>0</v>
-      </c>
+      <c r="E170" s="15"/>
       <c r="F170" s="11"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -3606,9 +3262,7 @@
       <c r="D171" s="4">
         <v>0</v>
       </c>
-      <c r="E171" s="15">
-        <v>0</v>
-      </c>
+      <c r="E171" s="15"/>
       <c r="F171" s="11"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -3624,9 +3278,7 @@
       <c r="D172" s="4">
         <v>0</v>
       </c>
-      <c r="E172" s="15">
-        <v>0</v>
-      </c>
+      <c r="E172" s="15"/>
       <c r="F172" s="11"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -3642,9 +3294,7 @@
       <c r="D173" s="4">
         <v>0</v>
       </c>
-      <c r="E173" s="15">
-        <v>0</v>
-      </c>
+      <c r="E173" s="15"/>
       <c r="F173" s="11"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -3660,9 +3310,7 @@
       <c r="D174" s="4">
         <v>0</v>
       </c>
-      <c r="E174" s="15">
-        <v>1</v>
-      </c>
+      <c r="E174" s="15"/>
       <c r="F174" s="11"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -3678,9 +3326,7 @@
       <c r="D175" s="4">
         <v>0</v>
       </c>
-      <c r="E175" s="15">
-        <v>0</v>
-      </c>
+      <c r="E175" s="15"/>
       <c r="F175" s="11"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -3696,9 +3342,7 @@
       <c r="D176" s="4">
         <v>0</v>
       </c>
-      <c r="E176" s="15">
-        <v>1</v>
-      </c>
+      <c r="E176" s="15"/>
       <c r="F176" s="11"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -3714,9 +3358,7 @@
       <c r="D177" s="4">
         <v>0</v>
       </c>
-      <c r="E177" s="15">
-        <v>1</v>
-      </c>
+      <c r="E177" s="15"/>
       <c r="F177" s="11"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -3732,9 +3374,7 @@
       <c r="D178" s="4">
         <v>0</v>
       </c>
-      <c r="E178" s="15">
-        <v>1</v>
-      </c>
+      <c r="E178" s="15"/>
       <c r="F178" s="11"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -3750,9 +3390,7 @@
       <c r="D179" s="4">
         <v>0</v>
       </c>
-      <c r="E179" s="15">
-        <v>1</v>
-      </c>
+      <c r="E179" s="15"/>
       <c r="F179" s="11"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -3768,9 +3406,7 @@
       <c r="D180" s="4">
         <v>0</v>
       </c>
-      <c r="E180" s="15">
-        <v>0</v>
-      </c>
+      <c r="E180" s="15"/>
       <c r="F180" s="11"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -3786,9 +3422,7 @@
       <c r="D181" s="4">
         <v>0</v>
       </c>
-      <c r="E181" s="15">
-        <v>1</v>
-      </c>
+      <c r="E181" s="15"/>
       <c r="F181" s="11"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -3804,9 +3438,7 @@
       <c r="D182" s="4">
         <v>0</v>
       </c>
-      <c r="E182" s="15">
-        <v>0</v>
-      </c>
+      <c r="E182" s="15"/>
       <c r="F182" s="11"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -3822,9 +3454,7 @@
       <c r="D183" s="4">
         <v>0</v>
       </c>
-      <c r="E183" s="15">
-        <v>0</v>
-      </c>
+      <c r="E183" s="15"/>
       <c r="F183" s="11"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -3840,9 +3470,7 @@
       <c r="D184" s="4">
         <v>0</v>
       </c>
-      <c r="E184" s="15">
-        <v>0</v>
-      </c>
+      <c r="E184" s="15"/>
       <c r="F184" s="11"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -3858,9 +3486,7 @@
       <c r="D185" s="4">
         <v>0</v>
       </c>
-      <c r="E185" s="15">
-        <v>1</v>
-      </c>
+      <c r="E185" s="15"/>
       <c r="F185" s="11"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -3876,9 +3502,7 @@
       <c r="D186" s="4">
         <v>0</v>
       </c>
-      <c r="E186" s="15">
-        <v>0</v>
-      </c>
+      <c r="E186" s="15"/>
       <c r="F186" s="11"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -3894,9 +3518,7 @@
       <c r="D187" s="4">
         <v>0</v>
       </c>
-      <c r="E187" s="15">
-        <v>1</v>
-      </c>
+      <c r="E187" s="15"/>
       <c r="F187" s="11"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -3912,9 +3534,7 @@
       <c r="D188" s="4">
         <v>0</v>
       </c>
-      <c r="E188" s="15">
-        <v>1</v>
-      </c>
+      <c r="E188" s="15"/>
       <c r="F188" s="11"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -3930,9 +3550,7 @@
       <c r="D189" s="4">
         <v>0</v>
       </c>
-      <c r="E189" s="15">
-        <v>1</v>
-      </c>
+      <c r="E189" s="15"/>
       <c r="F189" s="11"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -3948,9 +3566,7 @@
       <c r="D190" s="21">
         <v>0</v>
       </c>
-      <c r="E190" s="16">
-        <v>0</v>
-      </c>
+      <c r="E190" s="16"/>
       <c r="F190" s="22"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -3966,9 +3582,7 @@
       <c r="D191" s="4">
         <v>0</v>
       </c>
-      <c r="E191" s="15">
-        <v>0</v>
-      </c>
+      <c r="E191" s="15"/>
       <c r="F191" s="11"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -3984,9 +3598,7 @@
       <c r="D192" s="4">
         <v>0</v>
       </c>
-      <c r="E192" s="15">
-        <v>1</v>
-      </c>
+      <c r="E192" s="15"/>
       <c r="F192" s="11"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4002,9 +3614,7 @@
       <c r="D193" s="4">
         <v>0</v>
       </c>
-      <c r="E193" s="15">
-        <v>1</v>
-      </c>
+      <c r="E193" s="15"/>
       <c r="F193" s="11"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -4020,9 +3630,7 @@
       <c r="D194" s="4">
         <v>0</v>
       </c>
-      <c r="E194" s="15">
-        <v>1</v>
-      </c>
+      <c r="E194" s="15"/>
       <c r="F194" s="11"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -4038,9 +3646,7 @@
       <c r="D195" s="4">
         <v>0</v>
       </c>
-      <c r="E195" s="15">
-        <v>0</v>
-      </c>
+      <c r="E195" s="15"/>
       <c r="F195" s="11"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -4056,9 +3662,7 @@
       <c r="D196" s="4">
         <v>0</v>
       </c>
-      <c r="E196" s="15">
-        <v>1</v>
-      </c>
+      <c r="E196" s="15"/>
       <c r="F196" s="11"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -4074,9 +3678,7 @@
       <c r="D197" s="4">
         <v>0</v>
       </c>
-      <c r="E197" s="15">
-        <v>1</v>
-      </c>
+      <c r="E197" s="15"/>
       <c r="F197" s="11"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4092,9 +3694,7 @@
       <c r="D198" s="4">
         <v>0</v>
       </c>
-      <c r="E198" s="15">
-        <v>0</v>
-      </c>
+      <c r="E198" s="15"/>
       <c r="F198" s="11"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4110,9 +3710,7 @@
       <c r="D199" s="4">
         <v>0</v>
       </c>
-      <c r="E199" s="15">
-        <v>1</v>
-      </c>
+      <c r="E199" s="15"/>
       <c r="F199" s="11"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -4128,9 +3726,7 @@
       <c r="D200" s="4">
         <v>0</v>
       </c>
-      <c r="E200" s="15">
-        <v>1</v>
-      </c>
+      <c r="E200" s="15"/>
       <c r="F200" s="11"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -4146,9 +3742,7 @@
       <c r="D201" s="4">
         <v>0</v>
       </c>
-      <c r="E201" s="15">
-        <v>1</v>
-      </c>
+      <c r="E201" s="15"/>
       <c r="F201" s="11"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -4164,9 +3758,7 @@
       <c r="D202" s="4">
         <v>0</v>
       </c>
-      <c r="E202" s="15">
-        <v>1</v>
-      </c>
+      <c r="E202" s="15"/>
       <c r="F202" s="11"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -4182,9 +3774,7 @@
       <c r="D203" s="4">
         <v>0</v>
       </c>
-      <c r="E203" s="15">
-        <v>0</v>
-      </c>
+      <c r="E203" s="15"/>
       <c r="F203" s="11"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -4200,9 +3790,7 @@
       <c r="D204" s="4">
         <v>0</v>
       </c>
-      <c r="E204" s="15">
-        <v>1</v>
-      </c>
+      <c r="E204" s="15"/>
       <c r="F204" s="11"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -4218,9 +3806,7 @@
       <c r="D205" s="4">
         <v>0</v>
       </c>
-      <c r="E205" s="15">
-        <v>1</v>
-      </c>
+      <c r="E205" s="15"/>
       <c r="F205" s="11"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -4236,9 +3822,7 @@
       <c r="D206" s="4">
         <v>0</v>
       </c>
-      <c r="E206" s="15">
-        <v>0</v>
-      </c>
+      <c r="E206" s="15"/>
       <c r="F206" s="11"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -4254,9 +3838,7 @@
       <c r="D207" s="4">
         <v>0</v>
       </c>
-      <c r="E207" s="15">
-        <v>1</v>
-      </c>
+      <c r="E207" s="15"/>
       <c r="F207" s="11"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -4272,9 +3854,7 @@
       <c r="D208" s="4">
         <v>0</v>
       </c>
-      <c r="E208" s="15">
-        <v>0</v>
-      </c>
+      <c r="E208" s="15"/>
       <c r="F208" s="11"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -4290,9 +3870,7 @@
       <c r="D209" s="4">
         <v>0</v>
       </c>
-      <c r="E209" s="15">
-        <v>1</v>
-      </c>
+      <c r="E209" s="15"/>
       <c r="F209" s="11"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -4308,9 +3886,7 @@
       <c r="D210" s="4">
         <v>0</v>
       </c>
-      <c r="E210" s="15">
-        <v>1</v>
-      </c>
+      <c r="E210" s="15"/>
       <c r="F210" s="11"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -4326,9 +3902,7 @@
       <c r="D211" s="4">
         <v>0</v>
       </c>
-      <c r="E211" s="15">
-        <v>0</v>
-      </c>
+      <c r="E211" s="15"/>
       <c r="F211" s="11"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -4344,9 +3918,7 @@
       <c r="D212" s="4">
         <v>0</v>
       </c>
-      <c r="E212" s="15">
-        <v>1</v>
-      </c>
+      <c r="E212" s="15"/>
       <c r="F212" s="11"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -4362,9 +3934,7 @@
       <c r="D213" s="4">
         <v>0</v>
       </c>
-      <c r="E213" s="15">
-        <v>1</v>
-      </c>
+      <c r="E213" s="15"/>
       <c r="F213" s="11"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -4380,9 +3950,7 @@
       <c r="D214" s="4">
         <v>0</v>
       </c>
-      <c r="E214" s="15">
-        <v>1</v>
-      </c>
+      <c r="E214" s="15"/>
       <c r="F214" s="11"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -4398,9 +3966,7 @@
       <c r="D215" s="4">
         <v>0</v>
       </c>
-      <c r="E215" s="15">
-        <v>1</v>
-      </c>
+      <c r="E215" s="15"/>
       <c r="F215" s="11"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -4416,9 +3982,7 @@
       <c r="D216" s="4">
         <v>0</v>
       </c>
-      <c r="E216" s="15">
-        <v>0</v>
-      </c>
+      <c r="E216" s="15"/>
       <c r="F216" s="11"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -4434,9 +3998,7 @@
       <c r="D217" s="4">
         <v>0</v>
       </c>
-      <c r="E217" s="15">
-        <v>0</v>
-      </c>
+      <c r="E217" s="15"/>
       <c r="F217" s="11"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -4452,9 +4014,7 @@
       <c r="D218" s="4">
         <v>0</v>
       </c>
-      <c r="E218" s="15">
-        <v>0</v>
-      </c>
+      <c r="E218" s="15"/>
       <c r="F218" s="11"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -4470,9 +4030,7 @@
       <c r="D219" s="4">
         <v>0</v>
       </c>
-      <c r="E219" s="15">
-        <v>1</v>
-      </c>
+      <c r="E219" s="15"/>
       <c r="F219" s="11"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -4488,9 +4046,7 @@
       <c r="D220" s="4">
         <v>0</v>
       </c>
-      <c r="E220" s="15">
-        <v>1</v>
-      </c>
+      <c r="E220" s="15"/>
       <c r="F220" s="11"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -4506,9 +4062,7 @@
       <c r="D221" s="4">
         <v>0</v>
       </c>
-      <c r="E221" s="15">
-        <v>1</v>
-      </c>
+      <c r="E221" s="15"/>
       <c r="F221" s="11"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -4524,9 +4078,7 @@
       <c r="D222" s="4">
         <v>0</v>
       </c>
-      <c r="E222" s="15">
-        <v>1</v>
-      </c>
+      <c r="E222" s="15"/>
       <c r="F222" s="11"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -4542,9 +4094,7 @@
       <c r="D223" s="4">
         <v>0</v>
       </c>
-      <c r="E223" s="15">
-        <v>1</v>
-      </c>
+      <c r="E223" s="15"/>
       <c r="F223" s="11"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -4560,9 +4110,7 @@
       <c r="D224" s="4">
         <v>0</v>
       </c>
-      <c r="E224" s="15">
-        <v>0</v>
-      </c>
+      <c r="E224" s="15"/>
       <c r="F224" s="11"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -4578,9 +4126,7 @@
       <c r="D225" s="4">
         <v>0</v>
       </c>
-      <c r="E225" s="15">
-        <v>0</v>
-      </c>
+      <c r="E225" s="15"/>
       <c r="F225" s="11"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -4596,9 +4142,7 @@
       <c r="D226" s="4">
         <v>0</v>
       </c>
-      <c r="E226" s="15">
-        <v>0</v>
-      </c>
+      <c r="E226" s="15"/>
       <c r="F226" s="11"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -4614,9 +4158,7 @@
       <c r="D227" s="4">
         <v>0</v>
       </c>
-      <c r="E227" s="15">
-        <v>0</v>
-      </c>
+      <c r="E227" s="15"/>
       <c r="F227" s="11"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -4632,9 +4174,7 @@
       <c r="D228" s="4">
         <v>0</v>
       </c>
-      <c r="E228" s="15">
-        <v>0</v>
-      </c>
+      <c r="E228" s="15"/>
       <c r="F228" s="11"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -4650,9 +4190,7 @@
       <c r="D229" s="4">
         <v>0</v>
       </c>
-      <c r="E229" s="15">
-        <v>1</v>
-      </c>
+      <c r="E229" s="15"/>
       <c r="F229" s="11"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -4668,9 +4206,7 @@
       <c r="D230" s="4">
         <v>0</v>
       </c>
-      <c r="E230" s="15">
-        <v>1</v>
-      </c>
+      <c r="E230" s="15"/>
       <c r="F230" s="11"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -4686,9 +4222,7 @@
       <c r="D231" s="4">
         <v>0</v>
       </c>
-      <c r="E231" s="15">
-        <v>1</v>
-      </c>
+      <c r="E231" s="15"/>
       <c r="F231" s="11"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -4704,9 +4238,7 @@
       <c r="D232" s="4">
         <v>0</v>
       </c>
-      <c r="E232" s="15">
-        <v>0</v>
-      </c>
+      <c r="E232" s="15"/>
       <c r="F232" s="11"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -4722,9 +4254,7 @@
       <c r="D233" s="4">
         <v>0</v>
       </c>
-      <c r="E233" s="15">
-        <v>1</v>
-      </c>
+      <c r="E233" s="15"/>
       <c r="F233" s="11"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -4740,9 +4270,7 @@
       <c r="D234" s="4">
         <v>0</v>
       </c>
-      <c r="E234" s="15">
-        <v>0</v>
-      </c>
+      <c r="E234" s="15"/>
       <c r="F234" s="11"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -4758,9 +4286,7 @@
       <c r="D235" s="4">
         <v>0</v>
       </c>
-      <c r="E235" s="15">
-        <v>1</v>
-      </c>
+      <c r="E235" s="15"/>
       <c r="F235" s="11"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -4776,9 +4302,7 @@
       <c r="D236" s="4">
         <v>0</v>
       </c>
-      <c r="E236" s="15">
-        <v>0</v>
-      </c>
+      <c r="E236" s="15"/>
       <c r="F236" s="11"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -4794,9 +4318,7 @@
       <c r="D237" s="4">
         <v>0</v>
       </c>
-      <c r="E237" s="15">
-        <v>0</v>
-      </c>
+      <c r="E237" s="15"/>
       <c r="F237" s="11"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -4812,9 +4334,7 @@
       <c r="D238" s="4">
         <v>0</v>
       </c>
-      <c r="E238" s="15">
-        <v>1</v>
-      </c>
+      <c r="E238" s="15"/>
       <c r="F238" s="11"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -4830,9 +4350,7 @@
       <c r="D239" s="4">
         <v>0</v>
       </c>
-      <c r="E239" s="15">
-        <v>1</v>
-      </c>
+      <c r="E239" s="15"/>
       <c r="F239" s="11"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -4848,9 +4366,7 @@
       <c r="D240" s="4">
         <v>0</v>
       </c>
-      <c r="E240" s="15">
-        <v>1</v>
-      </c>
+      <c r="E240" s="15"/>
       <c r="F240" s="11"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -4866,9 +4382,7 @@
       <c r="D241" s="4">
         <v>0</v>
       </c>
-      <c r="E241" s="15">
-        <v>1</v>
-      </c>
+      <c r="E241" s="15"/>
       <c r="F241" s="11"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -4884,9 +4398,7 @@
       <c r="D242" s="4">
         <v>0</v>
       </c>
-      <c r="E242" s="15">
-        <v>0</v>
-      </c>
+      <c r="E242" s="15"/>
       <c r="F242" s="11"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -4902,9 +4414,7 @@
       <c r="D243" s="4">
         <v>0</v>
       </c>
-      <c r="E243" s="15">
-        <v>1</v>
-      </c>
+      <c r="E243" s="15"/>
       <c r="F243" s="11"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -4920,9 +4430,7 @@
       <c r="D244" s="4">
         <v>0</v>
       </c>
-      <c r="E244" s="15">
-        <v>1</v>
-      </c>
+      <c r="E244" s="15"/>
       <c r="F244" s="11"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -4938,9 +4446,7 @@
       <c r="D245" s="4">
         <v>0</v>
       </c>
-      <c r="E245" s="15">
-        <v>1</v>
-      </c>
+      <c r="E245" s="15"/>
       <c r="F245" s="11"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -4956,9 +4462,7 @@
       <c r="D246" s="4">
         <v>0</v>
       </c>
-      <c r="E246" s="15">
-        <v>0</v>
-      </c>
+      <c r="E246" s="15"/>
       <c r="F246" s="11"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -4974,9 +4478,7 @@
       <c r="D247" s="4">
         <v>0</v>
       </c>
-      <c r="E247" s="15">
-        <v>0</v>
-      </c>
+      <c r="E247" s="15"/>
       <c r="F247" s="11"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -4992,9 +4494,7 @@
       <c r="D248" s="4">
         <v>0</v>
       </c>
-      <c r="E248" s="15">
-        <v>1</v>
-      </c>
+      <c r="E248" s="15"/>
       <c r="F248" s="11"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -5010,9 +4510,7 @@
       <c r="D249" s="4">
         <v>0</v>
       </c>
-      <c r="E249" s="15">
-        <v>1</v>
-      </c>
+      <c r="E249" s="15"/>
       <c r="F249" s="11"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -5028,9 +4526,7 @@
       <c r="D250" s="4">
         <v>0</v>
       </c>
-      <c r="E250" s="15">
-        <v>0</v>
-      </c>
+      <c r="E250" s="15"/>
       <c r="F250" s="11"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -5046,9 +4542,7 @@
       <c r="D251" s="4">
         <v>0</v>
       </c>
-      <c r="E251" s="15">
-        <v>1</v>
-      </c>
+      <c r="E251" s="15"/>
       <c r="F251" s="11"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -5064,9 +4558,7 @@
       <c r="D252" s="4">
         <v>0</v>
       </c>
-      <c r="E252" s="15">
-        <v>1</v>
-      </c>
+      <c r="E252" s="15"/>
       <c r="F252" s="11"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -5082,9 +4574,7 @@
       <c r="D253" s="4">
         <v>0</v>
       </c>
-      <c r="E253" s="15">
-        <v>0</v>
-      </c>
+      <c r="E253" s="15"/>
       <c r="F253" s="11"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -5100,9 +4590,7 @@
       <c r="D254" s="4">
         <v>0</v>
       </c>
-      <c r="E254" s="15">
-        <v>1</v>
-      </c>
+      <c r="E254" s="15"/>
       <c r="F254" s="11"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -5118,9 +4606,7 @@
       <c r="D255" s="4">
         <v>0</v>
       </c>
-      <c r="E255" s="15">
-        <v>1</v>
-      </c>
+      <c r="E255" s="15"/>
       <c r="F255" s="11"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -5136,9 +4622,7 @@
       <c r="D256" s="4">
         <v>0</v>
       </c>
-      <c r="E256" s="15">
-        <v>1</v>
-      </c>
+      <c r="E256" s="15"/>
       <c r="F256" s="11"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -5154,9 +4638,7 @@
       <c r="D257" s="4">
         <v>0</v>
       </c>
-      <c r="E257" s="15">
-        <v>1</v>
-      </c>
+      <c r="E257" s="15"/>
       <c r="F257" s="11"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -5172,9 +4654,7 @@
       <c r="D258" s="4">
         <v>0</v>
       </c>
-      <c r="E258" s="15">
-        <v>1</v>
-      </c>
+      <c r="E258" s="15"/>
       <c r="F258" s="11"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -5190,9 +4670,7 @@
       <c r="D259" s="4">
         <v>0</v>
       </c>
-      <c r="E259" s="15">
-        <v>1</v>
-      </c>
+      <c r="E259" s="15"/>
       <c r="F259" s="11"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -5208,9 +4686,7 @@
       <c r="D260" s="4">
         <v>0</v>
       </c>
-      <c r="E260" s="15">
-        <v>1</v>
-      </c>
+      <c r="E260" s="15"/>
       <c r="F260" s="11"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -5226,9 +4702,7 @@
       <c r="D261" s="4">
         <v>0</v>
       </c>
-      <c r="E261" s="15">
-        <v>1</v>
-      </c>
+      <c r="E261" s="15"/>
       <c r="F261" s="11"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -5244,9 +4718,7 @@
       <c r="D262" s="4">
         <v>0</v>
       </c>
-      <c r="E262" s="15">
-        <v>1</v>
-      </c>
+      <c r="E262" s="15"/>
       <c r="F262" s="11"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -5262,9 +4734,7 @@
       <c r="D263" s="4">
         <v>0</v>
       </c>
-      <c r="E263" s="15">
-        <v>1</v>
-      </c>
+      <c r="E263" s="15"/>
       <c r="F263" s="11"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -5280,9 +4750,7 @@
       <c r="D264" s="4">
         <v>0</v>
       </c>
-      <c r="E264" s="15">
-        <v>0</v>
-      </c>
+      <c r="E264" s="15"/>
       <c r="F264" s="11"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -5298,9 +4766,7 @@
       <c r="D265" s="4">
         <v>0</v>
       </c>
-      <c r="E265" s="15">
-        <v>0</v>
-      </c>
+      <c r="E265" s="15"/>
       <c r="F265" s="11"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -5316,9 +4782,7 @@
       <c r="D266" s="4">
         <v>0</v>
       </c>
-      <c r="E266" s="15">
-        <v>1</v>
-      </c>
+      <c r="E266" s="15"/>
       <c r="F266" s="11"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -5334,9 +4798,7 @@
       <c r="D267" s="4">
         <v>0</v>
       </c>
-      <c r="E267" s="15">
-        <v>1</v>
-      </c>
+      <c r="E267" s="15"/>
       <c r="F267" s="11"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -5352,9 +4814,7 @@
       <c r="D268" s="4">
         <v>0</v>
       </c>
-      <c r="E268" s="15">
-        <v>1</v>
-      </c>
+      <c r="E268" s="15"/>
       <c r="F268" s="11"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -5370,9 +4830,7 @@
       <c r="D269" s="4">
         <v>0</v>
       </c>
-      <c r="E269" s="15">
-        <v>1</v>
-      </c>
+      <c r="E269" s="15"/>
       <c r="F269" s="11"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -5388,9 +4846,7 @@
       <c r="D270" s="4">
         <v>0</v>
       </c>
-      <c r="E270" s="15">
-        <v>1</v>
-      </c>
+      <c r="E270" s="15"/>
       <c r="F270" s="11"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -5406,9 +4862,7 @@
       <c r="D271" s="4">
         <v>0</v>
       </c>
-      <c r="E271" s="15">
-        <v>1</v>
-      </c>
+      <c r="E271" s="15"/>
       <c r="F271" s="11"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -5424,9 +4878,7 @@
       <c r="D272" s="4">
         <v>0</v>
       </c>
-      <c r="E272" s="15">
-        <v>1</v>
-      </c>
+      <c r="E272" s="15"/>
       <c r="F272" s="11"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -5442,9 +4894,7 @@
       <c r="D273" s="4">
         <v>0</v>
       </c>
-      <c r="E273" s="15">
-        <v>1</v>
-      </c>
+      <c r="E273" s="15"/>
       <c r="F273" s="11"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -5460,9 +4910,7 @@
       <c r="D274" s="4">
         <v>0</v>
       </c>
-      <c r="E274" s="15">
-        <v>0</v>
-      </c>
+      <c r="E274" s="15"/>
       <c r="F274" s="11"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -5478,9 +4926,7 @@
       <c r="D275" s="4">
         <v>0</v>
       </c>
-      <c r="E275" s="15">
-        <v>1</v>
-      </c>
+      <c r="E275" s="15"/>
       <c r="F275" s="11"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -5496,9 +4942,7 @@
       <c r="D276" s="4">
         <v>0</v>
       </c>
-      <c r="E276" s="15">
-        <v>1</v>
-      </c>
+      <c r="E276" s="15"/>
       <c r="F276" s="11"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -5514,9 +4958,7 @@
       <c r="D277" s="4">
         <v>0</v>
       </c>
-      <c r="E277" s="15">
-        <v>1</v>
-      </c>
+      <c r="E277" s="15"/>
       <c r="F277" s="11"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -5532,9 +4974,7 @@
       <c r="D278" s="4">
         <v>0</v>
       </c>
-      <c r="E278" s="15">
-        <v>1</v>
-      </c>
+      <c r="E278" s="15"/>
       <c r="F278" s="11"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -5550,9 +4990,7 @@
       <c r="D279" s="4">
         <v>0</v>
       </c>
-      <c r="E279" s="15">
-        <v>1</v>
-      </c>
+      <c r="E279" s="15"/>
       <c r="F279" s="11"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -5568,9 +5006,7 @@
       <c r="D280" s="4">
         <v>0</v>
       </c>
-      <c r="E280" s="15">
-        <v>1</v>
-      </c>
+      <c r="E280" s="15"/>
       <c r="F280" s="11"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -5586,9 +5022,7 @@
       <c r="D281" s="4">
         <v>0</v>
       </c>
-      <c r="E281" s="15">
-        <v>0</v>
-      </c>
+      <c r="E281" s="15"/>
       <c r="F281" s="11"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -5604,9 +5038,7 @@
       <c r="D282" s="4">
         <v>0</v>
       </c>
-      <c r="E282" s="15">
-        <v>1</v>
-      </c>
+      <c r="E282" s="15"/>
       <c r="F282" s="11"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -5622,9 +5054,7 @@
       <c r="D283" s="4">
         <v>0</v>
       </c>
-      <c r="E283" s="15">
-        <v>0</v>
-      </c>
+      <c r="E283" s="15"/>
       <c r="F283" s="11"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -5640,9 +5070,7 @@
       <c r="D284" s="4">
         <v>0</v>
       </c>
-      <c r="E284" s="15">
-        <v>0</v>
-      </c>
+      <c r="E284" s="15"/>
       <c r="F284" s="11"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -5658,9 +5086,7 @@
       <c r="D285" s="4">
         <v>0</v>
       </c>
-      <c r="E285" s="15">
-        <v>1</v>
-      </c>
+      <c r="E285" s="15"/>
       <c r="F285" s="11"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -5676,9 +5102,7 @@
       <c r="D286" s="4">
         <v>0</v>
       </c>
-      <c r="E286" s="15">
-        <v>1</v>
-      </c>
+      <c r="E286" s="15"/>
       <c r="F286" s="11"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -5694,9 +5118,7 @@
       <c r="D287" s="4">
         <v>0</v>
       </c>
-      <c r="E287" s="15">
-        <v>1</v>
-      </c>
+      <c r="E287" s="15"/>
       <c r="F287" s="11"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -5712,9 +5134,7 @@
       <c r="D288" s="4">
         <v>0</v>
       </c>
-      <c r="E288" s="15">
-        <v>1</v>
-      </c>
+      <c r="E288" s="15"/>
       <c r="F288" s="11"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -5730,9 +5150,7 @@
       <c r="D289" s="4">
         <v>0</v>
       </c>
-      <c r="E289" s="15">
-        <v>1</v>
-      </c>
+      <c r="E289" s="15"/>
       <c r="F289" s="11"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -5748,9 +5166,7 @@
       <c r="D290" s="4">
         <v>0</v>
       </c>
-      <c r="E290" s="15">
-        <v>0</v>
-      </c>
+      <c r="E290" s="15"/>
       <c r="F290" s="11"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -5766,9 +5182,7 @@
       <c r="D291" s="4">
         <v>0</v>
       </c>
-      <c r="E291" s="15">
-        <v>0</v>
-      </c>
+      <c r="E291" s="15"/>
       <c r="F291" s="11"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -5784,9 +5198,7 @@
       <c r="D292" s="4">
         <v>0</v>
       </c>
-      <c r="E292" s="15">
-        <v>1</v>
-      </c>
+      <c r="E292" s="15"/>
       <c r="F292" s="11"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -5802,9 +5214,7 @@
       <c r="D293" s="4">
         <v>0</v>
       </c>
-      <c r="E293" s="15">
-        <v>1</v>
-      </c>
+      <c r="E293" s="15"/>
       <c r="F293" s="11"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -5820,9 +5230,7 @@
       <c r="D294" s="4">
         <v>0</v>
       </c>
-      <c r="E294" s="15">
-        <v>0</v>
-      </c>
+      <c r="E294" s="15"/>
       <c r="F294" s="11"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -5838,9 +5246,7 @@
       <c r="D295" s="4">
         <v>0</v>
       </c>
-      <c r="E295" s="15">
-        <v>0</v>
-      </c>
+      <c r="E295" s="15"/>
       <c r="F295" s="11"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -5856,9 +5262,7 @@
       <c r="D296" s="4">
         <v>0</v>
       </c>
-      <c r="E296" s="15">
-        <v>1</v>
-      </c>
+      <c r="E296" s="15"/>
       <c r="F296" s="11"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -5874,9 +5278,7 @@
       <c r="D297" s="4">
         <v>0</v>
       </c>
-      <c r="E297" s="15">
-        <v>1</v>
-      </c>
+      <c r="E297" s="15"/>
       <c r="F297" s="11"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -5892,9 +5294,7 @@
       <c r="D298" s="4">
         <v>0</v>
       </c>
-      <c r="E298" s="15">
-        <v>1</v>
-      </c>
+      <c r="E298" s="15"/>
       <c r="F298" s="11"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -5910,9 +5310,7 @@
       <c r="D299" s="4">
         <v>0</v>
       </c>
-      <c r="E299" s="15">
-        <v>1</v>
-      </c>
+      <c r="E299" s="15"/>
       <c r="F299" s="11"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -5928,9 +5326,7 @@
       <c r="D300" s="4">
         <v>0</v>
       </c>
-      <c r="E300" s="15">
-        <v>1</v>
-      </c>
+      <c r="E300" s="15"/>
       <c r="F300" s="11"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -5946,9 +5342,7 @@
       <c r="D301" s="4">
         <v>0</v>
       </c>
-      <c r="E301" s="15">
-        <v>0</v>
-      </c>
+      <c r="E301" s="15"/>
       <c r="F301" s="11"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -5964,9 +5358,7 @@
       <c r="D302" s="2">
         <v>0</v>
       </c>
-      <c r="E302" s="15">
-        <v>1</v>
-      </c>
+      <c r="E302" s="15"/>
       <c r="F302" s="11"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -5982,9 +5374,7 @@
       <c r="D303" s="5">
         <v>0</v>
       </c>
-      <c r="E303" s="15">
-        <v>0</v>
-      </c>
+      <c r="E303" s="15"/>
       <c r="F303" s="11"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -6000,9 +5390,7 @@
       <c r="D304" s="5">
         <v>0</v>
       </c>
-      <c r="E304" s="15">
-        <v>0</v>
-      </c>
+      <c r="E304" s="15"/>
       <c r="F304" s="11"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -6018,9 +5406,7 @@
       <c r="D305" s="5">
         <v>0</v>
       </c>
-      <c r="E305" s="15">
-        <v>0</v>
-      </c>
+      <c r="E305" s="15"/>
       <c r="F305" s="11"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -6036,9 +5422,7 @@
       <c r="D306" s="2">
         <v>0</v>
       </c>
-      <c r="E306" s="15">
-        <v>1</v>
-      </c>
+      <c r="E306" s="15"/>
       <c r="F306" s="11"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -6054,9 +5438,7 @@
       <c r="D307" s="2">
         <v>0</v>
       </c>
-      <c r="E307" s="15">
-        <v>1</v>
-      </c>
+      <c r="E307" s="15"/>
       <c r="F307" s="11"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -6072,9 +5454,7 @@
       <c r="D308" s="5">
         <v>0</v>
       </c>
-      <c r="E308" s="15">
-        <v>0</v>
-      </c>
+      <c r="E308" s="15"/>
       <c r="F308" s="11"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -6090,9 +5470,7 @@
       <c r="D309" s="2">
         <v>0</v>
       </c>
-      <c r="E309" s="15">
-        <v>1</v>
-      </c>
+      <c r="E309" s="15"/>
       <c r="F309" s="11"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -6108,9 +5486,7 @@
       <c r="D310" s="2">
         <v>0</v>
       </c>
-      <c r="E310" s="15">
-        <v>1</v>
-      </c>
+      <c r="E310" s="15"/>
       <c r="F310" s="11"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -6126,9 +5502,7 @@
       <c r="D311" s="2">
         <v>0</v>
       </c>
-      <c r="E311" s="15">
-        <v>1</v>
-      </c>
+      <c r="E311" s="15"/>
       <c r="F311" s="11"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -6144,9 +5518,7 @@
       <c r="D312" s="2">
         <v>0</v>
       </c>
-      <c r="E312" s="15">
-        <v>1</v>
-      </c>
+      <c r="E312" s="15"/>
       <c r="F312" s="11"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -6162,9 +5534,7 @@
       <c r="D313" s="2">
         <v>0</v>
       </c>
-      <c r="E313" s="15">
-        <v>1</v>
-      </c>
+      <c r="E313" s="15"/>
       <c r="F313" s="11"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -6180,9 +5550,7 @@
       <c r="D314" s="2">
         <v>0</v>
       </c>
-      <c r="E314" s="15">
-        <v>1</v>
-      </c>
+      <c r="E314" s="15"/>
       <c r="F314" s="11"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -6198,9 +5566,7 @@
       <c r="D315" s="2">
         <v>0</v>
       </c>
-      <c r="E315" s="15">
-        <v>1</v>
-      </c>
+      <c r="E315" s="15"/>
       <c r="F315" s="11"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -6216,9 +5582,7 @@
       <c r="D316" s="2">
         <v>0</v>
       </c>
-      <c r="E316" s="15">
-        <v>1</v>
-      </c>
+      <c r="E316" s="15"/>
       <c r="F316" s="11"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -6234,9 +5598,7 @@
       <c r="D317" s="2">
         <v>0</v>
       </c>
-      <c r="E317" s="15">
-        <v>1</v>
-      </c>
+      <c r="E317" s="15"/>
       <c r="F317" s="11"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -6252,9 +5614,7 @@
       <c r="D318" s="2">
         <v>0</v>
       </c>
-      <c r="E318" s="15">
-        <v>1</v>
-      </c>
+      <c r="E318" s="15"/>
       <c r="F318" s="11"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -6270,9 +5630,7 @@
       <c r="D319" s="5">
         <v>0</v>
       </c>
-      <c r="E319" s="15">
-        <v>0</v>
-      </c>
+      <c r="E319" s="15"/>
       <c r="F319" s="11"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -6288,9 +5646,7 @@
       <c r="D320" s="2">
         <v>0</v>
       </c>
-      <c r="E320" s="15">
-        <v>1</v>
-      </c>
+      <c r="E320" s="15"/>
       <c r="F320" s="11"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -6306,9 +5662,7 @@
       <c r="D321" s="5">
         <v>0</v>
       </c>
-      <c r="E321" s="15">
-        <v>0</v>
-      </c>
+      <c r="E321" s="15"/>
       <c r="F321" s="11"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -6324,9 +5678,7 @@
       <c r="D322" s="2">
         <v>0</v>
       </c>
-      <c r="E322" s="15">
-        <v>1</v>
-      </c>
+      <c r="E322" s="15"/>
       <c r="F322" s="11"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -6342,9 +5694,7 @@
       <c r="D323" s="2">
         <v>0</v>
       </c>
-      <c r="E323" s="15">
-        <v>1</v>
-      </c>
+      <c r="E323" s="15"/>
       <c r="F323" s="11"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -6360,9 +5710,7 @@
       <c r="D324" s="5">
         <v>0</v>
       </c>
-      <c r="E324" s="15">
-        <v>0</v>
-      </c>
+      <c r="E324" s="15"/>
       <c r="F324" s="11"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -6378,9 +5726,7 @@
       <c r="D325" s="5">
         <v>0</v>
       </c>
-      <c r="E325" s="15">
-        <v>0</v>
-      </c>
+      <c r="E325" s="15"/>
       <c r="F325" s="11"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -6396,9 +5742,7 @@
       <c r="D326" s="2">
         <v>0</v>
       </c>
-      <c r="E326" s="15">
-        <v>0</v>
-      </c>
+      <c r="E326" s="15"/>
       <c r="F326" s="11"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -6414,9 +5758,7 @@
       <c r="D327" s="5">
         <v>0</v>
       </c>
-      <c r="E327" s="15">
-        <v>0</v>
-      </c>
+      <c r="E327" s="15"/>
       <c r="F327" s="11"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -6432,9 +5774,7 @@
       <c r="D328" s="2">
         <v>0</v>
       </c>
-      <c r="E328" s="15">
-        <v>1</v>
-      </c>
+      <c r="E328" s="15"/>
       <c r="F328" s="11"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -6450,9 +5790,7 @@
       <c r="D329" s="2">
         <v>0</v>
       </c>
-      <c r="E329" s="15">
-        <v>1</v>
-      </c>
+      <c r="E329" s="15"/>
       <c r="F329" s="11"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -6468,9 +5806,7 @@
       <c r="D330" s="2">
         <v>0</v>
       </c>
-      <c r="E330" s="15">
-        <v>1</v>
-      </c>
+      <c r="E330" s="15"/>
       <c r="F330" s="11"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -6486,9 +5822,7 @@
       <c r="D331" s="2">
         <v>0</v>
       </c>
-      <c r="E331" s="15">
-        <v>1</v>
-      </c>
+      <c r="E331" s="15"/>
       <c r="F331" s="11"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -6504,9 +5838,7 @@
       <c r="D332" s="5">
         <v>0</v>
       </c>
-      <c r="E332" s="15">
-        <v>0</v>
-      </c>
+      <c r="E332" s="15"/>
       <c r="F332" s="11"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -6522,9 +5854,7 @@
       <c r="D333" s="2">
         <v>0</v>
       </c>
-      <c r="E333" s="15">
-        <v>1</v>
-      </c>
+      <c r="E333" s="15"/>
       <c r="F333" s="11"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -6540,9 +5870,7 @@
       <c r="D334" s="5">
         <v>0</v>
       </c>
-      <c r="E334" s="15">
-        <v>0</v>
-      </c>
+      <c r="E334" s="15"/>
       <c r="F334" s="11"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -6558,9 +5886,7 @@
       <c r="D335" s="2">
         <v>0</v>
       </c>
-      <c r="E335" s="15">
-        <v>1</v>
-      </c>
+      <c r="E335" s="15"/>
       <c r="F335" s="11"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -6576,9 +5902,7 @@
       <c r="D336" s="5">
         <v>0</v>
       </c>
-      <c r="E336" s="15">
-        <v>0</v>
-      </c>
+      <c r="E336" s="15"/>
       <c r="F336" s="11"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -6594,9 +5918,7 @@
       <c r="D337" s="2">
         <v>0</v>
       </c>
-      <c r="E337" s="15">
-        <v>1</v>
-      </c>
+      <c r="E337" s="15"/>
       <c r="F337" s="11"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -6612,9 +5934,7 @@
       <c r="D338" s="2">
         <v>0</v>
       </c>
-      <c r="E338" s="15">
-        <v>1</v>
-      </c>
+      <c r="E338" s="15"/>
       <c r="F338" s="11"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -6630,9 +5950,7 @@
       <c r="D339" s="2">
         <v>0</v>
       </c>
-      <c r="E339" s="15">
-        <v>1</v>
-      </c>
+      <c r="E339" s="15"/>
       <c r="F339" s="11"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -6648,9 +5966,7 @@
       <c r="D340" s="2">
         <v>0</v>
       </c>
-      <c r="E340" s="15">
-        <v>1</v>
-      </c>
+      <c r="E340" s="15"/>
       <c r="F340" s="11"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -6666,9 +5982,7 @@
       <c r="D341" s="2">
         <v>0</v>
       </c>
-      <c r="E341" s="15">
-        <v>1</v>
-      </c>
+      <c r="E341" s="15"/>
       <c r="F341" s="11"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -6684,9 +5998,7 @@
       <c r="D342" s="2">
         <v>0</v>
       </c>
-      <c r="E342" s="15">
-        <v>1</v>
-      </c>
+      <c r="E342" s="15"/>
       <c r="F342" s="11"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -6702,9 +6014,7 @@
       <c r="D343" s="5">
         <v>0</v>
       </c>
-      <c r="E343" s="15">
-        <v>0</v>
-      </c>
+      <c r="E343" s="15"/>
       <c r="F343" s="11"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -6720,9 +6030,7 @@
       <c r="D344" s="5">
         <v>0</v>
       </c>
-      <c r="E344" s="15">
-        <v>0</v>
-      </c>
+      <c r="E344" s="15"/>
       <c r="F344" s="11"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -6738,9 +6046,7 @@
       <c r="D345" s="2">
         <v>0</v>
       </c>
-      <c r="E345" s="15">
-        <v>1</v>
-      </c>
+      <c r="E345" s="15"/>
       <c r="F345" s="11"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -6756,9 +6062,7 @@
       <c r="D346" s="2">
         <v>0</v>
       </c>
-      <c r="E346" s="15">
-        <v>1</v>
-      </c>
+      <c r="E346" s="15"/>
       <c r="F346" s="11"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -6774,9 +6078,7 @@
       <c r="D347" s="2">
         <v>0</v>
       </c>
-      <c r="E347" s="15">
-        <v>1</v>
-      </c>
+      <c r="E347" s="15"/>
       <c r="F347" s="11"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -6792,9 +6094,7 @@
       <c r="D348" s="2">
         <v>0</v>
       </c>
-      <c r="E348" s="15">
-        <v>1</v>
-      </c>
+      <c r="E348" s="15"/>
       <c r="F348" s="11"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -6810,9 +6110,7 @@
       <c r="D349" s="2">
         <v>0</v>
       </c>
-      <c r="E349" s="15">
-        <v>1</v>
-      </c>
+      <c r="E349" s="15"/>
       <c r="F349" s="11"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -6828,9 +6126,7 @@
       <c r="D350" s="2">
         <v>0</v>
       </c>
-      <c r="E350" s="15">
-        <v>1</v>
-      </c>
+      <c r="E350" s="15"/>
       <c r="F350" s="11"/>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -6846,9 +6142,7 @@
       <c r="D351" s="2">
         <v>0</v>
       </c>
-      <c r="E351" s="15">
-        <v>1</v>
-      </c>
+      <c r="E351" s="15"/>
       <c r="F351" s="11"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -6864,9 +6158,7 @@
       <c r="D352" s="2">
         <v>0</v>
       </c>
-      <c r="E352" s="15">
-        <v>1</v>
-      </c>
+      <c r="E352" s="15"/>
       <c r="F352" s="11"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -6882,9 +6174,7 @@
       <c r="D353" s="2">
         <v>0</v>
       </c>
-      <c r="E353" s="15">
-        <v>1</v>
-      </c>
+      <c r="E353" s="15"/>
       <c r="F353" s="11"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -6900,9 +6190,7 @@
       <c r="D354" s="2">
         <v>0</v>
       </c>
-      <c r="E354" s="15">
-        <v>1</v>
-      </c>
+      <c r="E354" s="15"/>
       <c r="F354" s="11"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -6918,9 +6206,7 @@
       <c r="D355" s="2">
         <v>0</v>
       </c>
-      <c r="E355" s="15">
-        <v>1</v>
-      </c>
+      <c r="E355" s="15"/>
       <c r="F355" s="11"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -6936,9 +6222,7 @@
       <c r="D356" s="2">
         <v>0</v>
       </c>
-      <c r="E356" s="15">
-        <v>1</v>
-      </c>
+      <c r="E356" s="15"/>
       <c r="F356" s="11"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -6954,9 +6238,7 @@
       <c r="D357" s="5">
         <v>0</v>
       </c>
-      <c r="E357" s="15">
-        <v>0</v>
-      </c>
+      <c r="E357" s="15"/>
       <c r="F357" s="11"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -6972,9 +6254,7 @@
       <c r="D358" s="2">
         <v>0</v>
       </c>
-      <c r="E358" s="15">
-        <v>1</v>
-      </c>
+      <c r="E358" s="15"/>
       <c r="F358" s="11"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -6990,9 +6270,7 @@
       <c r="D359" s="2">
         <v>0</v>
       </c>
-      <c r="E359" s="15">
-        <v>1</v>
-      </c>
+      <c r="E359" s="15"/>
       <c r="F359" s="11"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -7008,9 +6286,7 @@
       <c r="D360" s="2">
         <v>0</v>
       </c>
-      <c r="E360" s="15">
-        <v>1</v>
-      </c>
+      <c r="E360" s="15"/>
       <c r="F360" s="11"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -7026,9 +6302,7 @@
       <c r="D361" s="2">
         <v>0</v>
       </c>
-      <c r="E361" s="15">
-        <v>1</v>
-      </c>
+      <c r="E361" s="15"/>
       <c r="F361" s="11"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -7044,9 +6318,7 @@
       <c r="D362" s="2">
         <v>0</v>
       </c>
-      <c r="E362" s="15">
-        <v>1</v>
-      </c>
+      <c r="E362" s="15"/>
       <c r="F362" s="11"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -7062,9 +6334,7 @@
       <c r="D363" s="2">
         <v>0</v>
       </c>
-      <c r="E363" s="15">
-        <v>1</v>
-      </c>
+      <c r="E363" s="15"/>
       <c r="F363" s="11"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -7080,9 +6350,7 @@
       <c r="D364" s="2">
         <v>0</v>
       </c>
-      <c r="E364" s="15">
-        <v>1</v>
-      </c>
+      <c r="E364" s="15"/>
       <c r="F364" s="11"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -7098,9 +6366,7 @@
       <c r="D365" s="5">
         <v>0</v>
       </c>
-      <c r="E365" s="15">
-        <v>0</v>
-      </c>
+      <c r="E365" s="15"/>
       <c r="F365" s="11"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -7116,9 +6382,7 @@
       <c r="D366" s="6">
         <v>0</v>
       </c>
-      <c r="E366" s="16">
-        <v>1</v>
-      </c>
+      <c r="E366" s="16"/>
       <c r="F366" s="11"/>
       <c r="G366" s="7"/>
     </row>
@@ -7135,9 +6399,7 @@
       <c r="D367" s="2">
         <v>0</v>
       </c>
-      <c r="E367" s="15">
-        <v>1</v>
-      </c>
+      <c r="E367" s="15"/>
       <c r="F367" s="11"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -7153,9 +6415,7 @@
       <c r="D368" s="2">
         <v>0</v>
       </c>
-      <c r="E368" s="15">
-        <v>1</v>
-      </c>
+      <c r="E368" s="15"/>
       <c r="F368" s="11"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -7171,9 +6431,7 @@
       <c r="D369" s="2">
         <v>0</v>
       </c>
-      <c r="E369" s="15">
-        <v>1</v>
-      </c>
+      <c r="E369" s="15"/>
       <c r="F369" s="11"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -7189,9 +6447,7 @@
       <c r="D370" s="2">
         <v>0</v>
       </c>
-      <c r="E370" s="15">
-        <v>1</v>
-      </c>
+      <c r="E370" s="15"/>
       <c r="F370" s="11"/>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -7207,9 +6463,7 @@
       <c r="D371" s="23">
         <v>0</v>
       </c>
-      <c r="E371" s="16">
-        <v>0</v>
-      </c>
+      <c r="E371" s="16"/>
       <c r="F371" s="22"/>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -7225,9 +6479,7 @@
       <c r="D372" s="2">
         <v>0</v>
       </c>
-      <c r="E372" s="15">
-        <v>1</v>
-      </c>
+      <c r="E372" s="15"/>
       <c r="F372" s="11"/>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -7243,9 +6495,7 @@
       <c r="D373" s="2">
         <v>0</v>
       </c>
-      <c r="E373" s="15">
-        <v>1</v>
-      </c>
+      <c r="E373" s="15"/>
       <c r="F373" s="11"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -7261,9 +6511,7 @@
       <c r="D374" s="5">
         <v>0</v>
       </c>
-      <c r="E374" s="15">
-        <v>0</v>
-      </c>
+      <c r="E374" s="15"/>
       <c r="F374" s="11"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -7279,9 +6527,7 @@
       <c r="D375" s="2">
         <v>0</v>
       </c>
-      <c r="E375" s="15">
-        <v>1</v>
-      </c>
+      <c r="E375" s="15"/>
       <c r="F375" s="11"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -7297,9 +6543,7 @@
       <c r="D376" s="2">
         <v>0</v>
       </c>
-      <c r="E376" s="15">
-        <v>1</v>
-      </c>
+      <c r="E376" s="15"/>
       <c r="F376" s="11"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -7315,9 +6559,7 @@
       <c r="D377" s="2">
         <v>0</v>
       </c>
-      <c r="E377" s="15">
-        <v>1</v>
-      </c>
+      <c r="E377" s="15"/>
       <c r="F377" s="11"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -7333,9 +6575,7 @@
       <c r="D378" s="2">
         <v>0</v>
       </c>
-      <c r="E378" s="15">
-        <v>1</v>
-      </c>
+      <c r="E378" s="15"/>
       <c r="F378" s="11"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -7351,9 +6591,7 @@
       <c r="D379" s="2">
         <v>0</v>
       </c>
-      <c r="E379" s="15">
-        <v>1</v>
-      </c>
+      <c r="E379" s="15"/>
       <c r="F379" s="11"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -7369,9 +6607,7 @@
       <c r="D380" s="2">
         <v>0</v>
       </c>
-      <c r="E380" s="15">
-        <v>1</v>
-      </c>
+      <c r="E380" s="15"/>
       <c r="F380" s="11"/>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -7387,9 +6623,7 @@
       <c r="D381" s="2">
         <v>0</v>
       </c>
-      <c r="E381" s="15">
-        <v>0</v>
-      </c>
+      <c r="E381" s="15"/>
       <c r="F381" s="11"/>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -7405,9 +6639,7 @@
       <c r="D382" s="2">
         <v>0</v>
       </c>
-      <c r="E382" s="15">
-        <v>1</v>
-      </c>
+      <c r="E382" s="15"/>
       <c r="F382" s="11"/>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -7423,9 +6655,7 @@
       <c r="D383" s="2">
         <v>0</v>
       </c>
-      <c r="E383" s="15">
-        <v>1</v>
-      </c>
+      <c r="E383" s="15"/>
       <c r="F383" s="11"/>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -7441,9 +6671,7 @@
       <c r="D384" s="2">
         <v>0</v>
       </c>
-      <c r="E384" s="15">
-        <v>1</v>
-      </c>
+      <c r="E384" s="15"/>
       <c r="F384" s="11"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -7459,9 +6687,7 @@
       <c r="D385" s="5">
         <v>0</v>
       </c>
-      <c r="E385" s="15">
-        <v>0</v>
-      </c>
+      <c r="E385" s="15"/>
       <c r="F385" s="11"/>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -7477,9 +6703,7 @@
       <c r="D386" s="2">
         <v>0</v>
       </c>
-      <c r="E386" s="15">
-        <v>1</v>
-      </c>
+      <c r="E386" s="15"/>
       <c r="F386" s="11"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -7495,9 +6719,7 @@
       <c r="D387" s="2">
         <v>0</v>
       </c>
-      <c r="E387" s="15">
-        <v>1</v>
-      </c>
+      <c r="E387" s="15"/>
       <c r="F387" s="11"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -7513,9 +6735,7 @@
       <c r="D388" s="5">
         <v>0</v>
       </c>
-      <c r="E388" s="15">
-        <v>0</v>
-      </c>
+      <c r="E388" s="15"/>
       <c r="F388" s="11"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -7531,9 +6751,7 @@
       <c r="D389" s="2">
         <v>0</v>
       </c>
-      <c r="E389" s="15">
-        <v>1</v>
-      </c>
+      <c r="E389" s="15"/>
       <c r="F389" s="11"/>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -7549,9 +6767,7 @@
       <c r="D390" s="5">
         <v>0</v>
       </c>
-      <c r="E390" s="15">
-        <v>0</v>
-      </c>
+      <c r="E390" s="15"/>
       <c r="F390" s="11"/>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -7567,9 +6783,7 @@
       <c r="D391" s="2">
         <v>0</v>
       </c>
-      <c r="E391" s="15">
-        <v>1</v>
-      </c>
+      <c r="E391" s="15"/>
       <c r="F391" s="11"/>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -7585,9 +6799,7 @@
       <c r="D392" s="2">
         <v>0</v>
       </c>
-      <c r="E392" s="15">
-        <v>1</v>
-      </c>
+      <c r="E392" s="15"/>
       <c r="F392" s="11"/>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -7603,9 +6815,7 @@
       <c r="D393" s="2">
         <v>0</v>
       </c>
-      <c r="E393" s="15">
-        <v>1</v>
-      </c>
+      <c r="E393" s="15"/>
       <c r="F393" s="11"/>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -7621,9 +6831,7 @@
       <c r="D394" s="5">
         <v>0</v>
       </c>
-      <c r="E394" s="15">
-        <v>0</v>
-      </c>
+      <c r="E394" s="15"/>
       <c r="F394" s="11"/>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -7639,9 +6847,7 @@
       <c r="D395" s="5">
         <v>0</v>
       </c>
-      <c r="E395" s="15">
-        <v>0</v>
-      </c>
+      <c r="E395" s="15"/>
       <c r="F395" s="11"/>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -7657,9 +6863,7 @@
       <c r="D396" s="5">
         <v>0</v>
       </c>
-      <c r="E396" s="15">
-        <v>0</v>
-      </c>
+      <c r="E396" s="15"/>
       <c r="F396" s="11"/>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -7675,9 +6879,7 @@
       <c r="D397" s="2">
         <v>0</v>
       </c>
-      <c r="E397" s="15">
-        <v>1</v>
-      </c>
+      <c r="E397" s="15"/>
       <c r="F397" s="11"/>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -7693,9 +6895,7 @@
       <c r="D398" s="2">
         <v>0</v>
       </c>
-      <c r="E398" s="15">
-        <v>1</v>
-      </c>
+      <c r="E398" s="15"/>
       <c r="F398" s="11"/>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -7711,9 +6911,7 @@
       <c r="D399" s="5">
         <v>0</v>
       </c>
-      <c r="E399" s="15">
-        <v>0</v>
-      </c>
+      <c r="E399" s="15"/>
       <c r="F399" s="11"/>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -7729,9 +6927,7 @@
       <c r="D400" s="2">
         <v>0</v>
       </c>
-      <c r="E400" s="15">
-        <v>1</v>
-      </c>
+      <c r="E400" s="15"/>
       <c r="F400" s="11"/>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -7747,9 +6943,7 @@
       <c r="D401" s="2">
         <v>0</v>
       </c>
-      <c r="E401" s="15">
-        <v>1</v>
-      </c>
+      <c r="E401" s="15"/>
       <c r="F401" s="11"/>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -7765,9 +6959,7 @@
       <c r="D402" s="2">
         <v>0</v>
       </c>
-      <c r="E402" s="15">
-        <v>1</v>
-      </c>
+      <c r="E402" s="15"/>
       <c r="F402" s="11"/>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -7783,9 +6975,7 @@
       <c r="D403" s="2">
         <v>0</v>
       </c>
-      <c r="E403" s="15">
-        <v>1</v>
-      </c>
+      <c r="E403" s="15"/>
       <c r="F403" s="11"/>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -7801,9 +6991,7 @@
       <c r="D404" s="5">
         <v>0</v>
       </c>
-      <c r="E404" s="15">
-        <v>0</v>
-      </c>
+      <c r="E404" s="15"/>
       <c r="F404" s="11"/>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -7819,9 +7007,7 @@
       <c r="D405" s="2">
         <v>0</v>
       </c>
-      <c r="E405" s="15">
-        <v>1</v>
-      </c>
+      <c r="E405" s="15"/>
       <c r="F405" s="11"/>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -7837,9 +7023,7 @@
       <c r="D406" s="2">
         <v>0</v>
       </c>
-      <c r="E406" s="15">
-        <v>1</v>
-      </c>
+      <c r="E406" s="15"/>
       <c r="F406" s="11"/>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -7855,9 +7039,7 @@
       <c r="D407" s="2">
         <v>0</v>
       </c>
-      <c r="E407" s="15">
-        <v>1</v>
-      </c>
+      <c r="E407" s="15"/>
       <c r="F407" s="11"/>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -7873,9 +7055,7 @@
       <c r="D408" s="2">
         <v>0</v>
       </c>
-      <c r="E408" s="15">
-        <v>1</v>
-      </c>
+      <c r="E408" s="15"/>
       <c r="F408" s="11"/>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -7891,9 +7071,7 @@
       <c r="D409" s="2">
         <v>0</v>
       </c>
-      <c r="E409" s="15">
-        <v>1</v>
-      </c>
+      <c r="E409" s="15"/>
       <c r="F409" s="11"/>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -7909,9 +7087,7 @@
       <c r="D410" s="2">
         <v>0</v>
       </c>
-      <c r="E410" s="15">
-        <v>1</v>
-      </c>
+      <c r="E410" s="15"/>
       <c r="F410" s="11"/>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -7927,9 +7103,7 @@
       <c r="D411" s="2">
         <v>0</v>
       </c>
-      <c r="E411" s="15">
-        <v>1</v>
-      </c>
+      <c r="E411" s="15"/>
       <c r="F411" s="11"/>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -7945,9 +7119,7 @@
       <c r="D412" s="2">
         <v>0</v>
       </c>
-      <c r="E412" s="15">
-        <v>1</v>
-      </c>
+      <c r="E412" s="15"/>
       <c r="F412" s="11"/>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
@@ -7963,9 +7135,7 @@
       <c r="D413" s="2">
         <v>0</v>
       </c>
-      <c r="E413" s="15">
-        <v>1</v>
-      </c>
+      <c r="E413" s="15"/>
       <c r="F413" s="11"/>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -7981,9 +7151,7 @@
       <c r="D414" s="2">
         <v>0</v>
       </c>
-      <c r="E414" s="15">
-        <v>1</v>
-      </c>
+      <c r="E414" s="15"/>
       <c r="F414" s="11"/>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -7999,9 +7167,7 @@
       <c r="D415" s="5">
         <v>0</v>
       </c>
-      <c r="E415" s="15">
-        <v>0</v>
-      </c>
+      <c r="E415" s="15"/>
       <c r="F415" s="11"/>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
@@ -8017,9 +7183,7 @@
       <c r="D416" s="2">
         <v>0</v>
       </c>
-      <c r="E416" s="15">
-        <v>1</v>
-      </c>
+      <c r="E416" s="15"/>
       <c r="F416" s="11"/>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -8035,9 +7199,7 @@
       <c r="D417" s="2">
         <v>0</v>
       </c>
-      <c r="E417" s="15">
-        <v>1</v>
-      </c>
+      <c r="E417" s="15"/>
       <c r="F417" s="11"/>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -8053,9 +7215,7 @@
       <c r="D418" s="5">
         <v>0</v>
       </c>
-      <c r="E418" s="17">
-        <v>0</v>
-      </c>
+      <c r="E418" s="17"/>
       <c r="F418" s="11"/>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -8071,9 +7231,7 @@
       <c r="D419" s="2">
         <v>0</v>
       </c>
-      <c r="E419" s="15">
-        <v>1</v>
-      </c>
+      <c r="E419" s="15"/>
       <c r="F419" s="11"/>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -8089,9 +7247,7 @@
       <c r="D420" s="2">
         <v>0</v>
       </c>
-      <c r="E420" s="15">
-        <v>1</v>
-      </c>
+      <c r="E420" s="15"/>
       <c r="F420" s="11"/>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -8107,9 +7263,7 @@
       <c r="D421" s="23">
         <v>0</v>
       </c>
-      <c r="E421" s="24">
-        <v>0</v>
-      </c>
+      <c r="E421" s="24"/>
       <c r="F421" s="22"/>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -8125,9 +7279,7 @@
       <c r="D422" s="2">
         <v>0</v>
       </c>
-      <c r="E422" s="15">
-        <v>1</v>
-      </c>
+      <c r="E422" s="15"/>
       <c r="F422" s="11"/>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -8143,9 +7295,7 @@
       <c r="D423" s="2">
         <v>0</v>
       </c>
-      <c r="E423" s="15">
-        <v>1</v>
-      </c>
+      <c r="E423" s="15"/>
       <c r="F423" s="11"/>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -8161,9 +7311,7 @@
       <c r="D424" s="2">
         <v>0</v>
       </c>
-      <c r="E424" s="15">
-        <v>1</v>
-      </c>
+      <c r="E424" s="15"/>
       <c r="F424" s="11"/>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -8179,9 +7327,7 @@
       <c r="D425" s="2">
         <v>0</v>
       </c>
-      <c r="E425" s="15">
-        <v>1</v>
-      </c>
+      <c r="E425" s="15"/>
       <c r="F425" s="11"/>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -8197,9 +7343,7 @@
       <c r="D426" s="2">
         <v>0</v>
       </c>
-      <c r="E426" s="15">
-        <v>0</v>
-      </c>
+      <c r="E426" s="15"/>
       <c r="F426" s="11"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -8215,9 +7359,7 @@
       <c r="D427" s="2">
         <v>0</v>
       </c>
-      <c r="E427" s="15">
-        <v>0</v>
-      </c>
+      <c r="E427" s="15"/>
       <c r="F427" s="11"/>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -8233,9 +7375,7 @@
       <c r="D428" s="2">
         <v>0</v>
       </c>
-      <c r="E428" s="15">
-        <v>0</v>
-      </c>
+      <c r="E428" s="15"/>
       <c r="F428" s="11"/>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
@@ -8251,9 +7391,7 @@
       <c r="D429" s="2">
         <v>0</v>
       </c>
-      <c r="E429" s="15">
-        <v>1</v>
-      </c>
+      <c r="E429" s="15"/>
       <c r="F429" s="11"/>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -8269,9 +7407,7 @@
       <c r="D430" s="2">
         <v>0</v>
       </c>
-      <c r="E430" s="15">
-        <v>0</v>
-      </c>
+      <c r="E430" s="15"/>
       <c r="F430" s="11"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -8287,9 +7423,7 @@
       <c r="D431" s="2">
         <v>0</v>
       </c>
-      <c r="E431" s="15">
-        <v>0</v>
-      </c>
+      <c r="E431" s="15"/>
       <c r="F431" s="11"/>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -8305,9 +7439,7 @@
       <c r="D432" s="2">
         <v>0</v>
       </c>
-      <c r="E432" s="15">
-        <v>1</v>
-      </c>
+      <c r="E432" s="15"/>
       <c r="F432" s="11"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
@@ -8323,9 +7455,7 @@
       <c r="D433" s="2">
         <v>0</v>
       </c>
-      <c r="E433" s="15">
-        <v>1</v>
-      </c>
+      <c r="E433" s="15"/>
       <c r="F433" s="11"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
@@ -8341,9 +7471,7 @@
       <c r="D434" s="6">
         <v>0</v>
       </c>
-      <c r="E434" s="16">
-        <v>1</v>
-      </c>
+      <c r="E434" s="16"/>
       <c r="F434" s="11"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
@@ -8359,9 +7487,7 @@
       <c r="D435" s="2">
         <v>0</v>
       </c>
-      <c r="E435" s="15">
-        <v>0</v>
-      </c>
+      <c r="E435" s="15"/>
       <c r="F435" s="11"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
@@ -8377,9 +7503,7 @@
       <c r="D436" s="2">
         <v>0</v>
       </c>
-      <c r="E436" s="15">
-        <v>0</v>
-      </c>
+      <c r="E436" s="15"/>
       <c r="F436" s="11"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
@@ -8395,9 +7519,7 @@
       <c r="D437" s="2">
         <v>0</v>
       </c>
-      <c r="E437" s="15">
-        <v>1</v>
-      </c>
+      <c r="E437" s="15"/>
       <c r="F437" s="11"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
@@ -8413,9 +7535,7 @@
       <c r="D438" s="2">
         <v>0</v>
       </c>
-      <c r="E438" s="15">
-        <v>0</v>
-      </c>
+      <c r="E438" s="15"/>
       <c r="F438" s="11"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
@@ -8431,9 +7551,7 @@
       <c r="D439" s="2">
         <v>0</v>
       </c>
-      <c r="E439" s="15">
-        <v>0</v>
-      </c>
+      <c r="E439" s="15"/>
       <c r="F439" s="11"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
@@ -8449,9 +7567,7 @@
       <c r="D440" s="2">
         <v>0</v>
       </c>
-      <c r="E440" s="15">
-        <v>1</v>
-      </c>
+      <c r="E440" s="15"/>
       <c r="F440" s="11"/>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
@@ -8467,9 +7583,7 @@
       <c r="D441" s="2">
         <v>0</v>
       </c>
-      <c r="E441" s="15">
-        <v>1</v>
-      </c>
+      <c r="E441" s="15"/>
       <c r="F441" s="11"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
@@ -8485,9 +7599,7 @@
       <c r="D442" s="8">
         <v>0</v>
       </c>
-      <c r="E442" s="18">
-        <v>1</v>
-      </c>
+      <c r="E442" s="18"/>
       <c r="F442" s="11"/>
       <c r="G442" s="9"/>
     </row>
@@ -8504,9 +7616,7 @@
       <c r="D443" s="2">
         <v>0</v>
       </c>
-      <c r="E443" s="15">
-        <v>1</v>
-      </c>
+      <c r="E443" s="15"/>
       <c r="F443" s="11"/>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
@@ -8522,9 +7632,7 @@
       <c r="D444" s="2">
         <v>0</v>
       </c>
-      <c r="E444" s="15">
-        <v>1</v>
-      </c>
+      <c r="E444" s="15"/>
       <c r="F444" s="11"/>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
@@ -8540,9 +7648,7 @@
       <c r="D445" s="2">
         <v>0</v>
       </c>
-      <c r="E445" s="15">
-        <v>1</v>
-      </c>
+      <c r="E445" s="15"/>
       <c r="F445" s="11"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
@@ -8558,9 +7664,7 @@
       <c r="D446" s="2">
         <v>0</v>
       </c>
-      <c r="E446" s="15">
-        <v>0</v>
-      </c>
+      <c r="E446" s="15"/>
       <c r="F446" s="11"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
@@ -8576,9 +7680,7 @@
       <c r="D447" s="5">
         <v>0</v>
       </c>
-      <c r="E447" s="15">
-        <v>0</v>
-      </c>
+      <c r="E447" s="15"/>
       <c r="F447" s="11"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
@@ -8594,9 +7696,7 @@
       <c r="D448" s="2">
         <v>0</v>
       </c>
-      <c r="E448" s="15">
-        <v>0</v>
-      </c>
+      <c r="E448" s="15"/>
       <c r="F448" s="11"/>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -8612,9 +7712,7 @@
       <c r="D449" s="2">
         <v>0</v>
       </c>
-      <c r="E449" s="15">
-        <v>1</v>
-      </c>
+      <c r="E449" s="15"/>
       <c r="F449" s="11"/>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -8630,9 +7728,7 @@
       <c r="D450" s="5">
         <v>0</v>
       </c>
-      <c r="E450" s="15">
-        <v>0</v>
-      </c>
+      <c r="E450" s="15"/>
       <c r="F450" s="11"/>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -8648,9 +7744,7 @@
       <c r="D451" s="5">
         <v>0</v>
       </c>
-      <c r="E451" s="15">
-        <v>0</v>
-      </c>
+      <c r="E451" s="15"/>
       <c r="F451" s="11"/>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -8666,9 +7760,7 @@
       <c r="D452" s="5">
         <v>0</v>
       </c>
-      <c r="E452" s="15">
-        <v>0</v>
-      </c>
+      <c r="E452" s="15"/>
       <c r="F452" s="11"/>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -8684,9 +7776,7 @@
       <c r="D453" s="2">
         <v>0</v>
       </c>
-      <c r="E453" s="15">
-        <v>0</v>
-      </c>
+      <c r="E453" s="15"/>
       <c r="F453" s="11"/>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -8702,9 +7792,7 @@
       <c r="D454" s="2">
         <v>0</v>
       </c>
-      <c r="E454" s="15">
-        <v>0</v>
-      </c>
+      <c r="E454" s="15"/>
       <c r="F454" s="11"/>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -8720,9 +7808,7 @@
       <c r="D455" s="5">
         <v>0</v>
       </c>
-      <c r="E455" s="15">
-        <v>0</v>
-      </c>
+      <c r="E455" s="15"/>
       <c r="F455" s="11"/>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -8738,9 +7824,7 @@
       <c r="D456" s="2">
         <v>0</v>
       </c>
-      <c r="E456" s="15">
-        <v>0</v>
-      </c>
+      <c r="E456" s="15"/>
       <c r="F456" s="11"/>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -8756,9 +7840,7 @@
       <c r="D457" s="2">
         <v>0</v>
       </c>
-      <c r="E457" s="15">
-        <v>1</v>
-      </c>
+      <c r="E457" s="15"/>
       <c r="F457" s="11"/>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -8774,9 +7856,7 @@
       <c r="D458" s="5">
         <v>0</v>
       </c>
-      <c r="E458" s="15">
-        <v>0</v>
-      </c>
+      <c r="E458" s="15"/>
       <c r="F458" s="11"/>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -8792,9 +7872,7 @@
       <c r="D459" s="5">
         <v>0</v>
       </c>
-      <c r="E459" s="15">
-        <v>0</v>
-      </c>
+      <c r="E459" s="15"/>
       <c r="F459" s="11"/>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -8810,9 +7888,7 @@
       <c r="D460" s="5">
         <v>0</v>
       </c>
-      <c r="E460" s="15">
-        <v>1</v>
-      </c>
+      <c r="E460" s="15"/>
       <c r="F460" s="11"/>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -8828,9 +7904,7 @@
       <c r="D461" s="5">
         <v>0</v>
       </c>
-      <c r="E461" s="15">
-        <v>0</v>
-      </c>
+      <c r="E461" s="15"/>
       <c r="F461" s="11"/>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -8846,9 +7920,7 @@
       <c r="D462" s="5">
         <v>0</v>
       </c>
-      <c r="E462" s="15">
-        <v>0</v>
-      </c>
+      <c r="E462" s="15"/>
       <c r="F462" s="11"/>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -8864,9 +7936,7 @@
       <c r="D463" s="5">
         <v>0</v>
       </c>
-      <c r="E463" s="15">
-        <v>0</v>
-      </c>
+      <c r="E463" s="15"/>
       <c r="F463" s="11"/>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -8882,9 +7952,7 @@
       <c r="D464" s="2">
         <v>0</v>
       </c>
-      <c r="E464" s="15">
-        <v>0</v>
-      </c>
+      <c r="E464" s="15"/>
       <c r="F464" s="11"/>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -8900,9 +7968,7 @@
       <c r="D465" s="2">
         <v>0</v>
       </c>
-      <c r="E465" s="15">
-        <v>0</v>
-      </c>
+      <c r="E465" s="15"/>
       <c r="F465" s="11"/>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -8918,9 +7984,7 @@
       <c r="D466" s="2">
         <v>0</v>
       </c>
-      <c r="E466" s="15">
-        <v>0</v>
-      </c>
+      <c r="E466" s="15"/>
       <c r="F466" s="11"/>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -8936,9 +8000,7 @@
       <c r="D467" s="23">
         <v>0</v>
       </c>
-      <c r="E467" s="16">
-        <v>0</v>
-      </c>
+      <c r="E467" s="16"/>
       <c r="F467" s="22"/>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -8954,9 +8016,7 @@
       <c r="D468" s="2">
         <v>0</v>
       </c>
-      <c r="E468" s="15">
-        <v>1</v>
-      </c>
+      <c r="E468" s="15"/>
       <c r="F468" s="11"/>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -8972,9 +8032,7 @@
       <c r="D469" s="2">
         <v>0</v>
       </c>
-      <c r="E469" s="15">
-        <v>0</v>
-      </c>
+      <c r="E469" s="15"/>
       <c r="F469" s="11"/>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -8990,9 +8048,7 @@
       <c r="D470" s="2">
         <v>0</v>
       </c>
-      <c r="E470" s="15">
-        <v>1</v>
-      </c>
+      <c r="E470" s="15"/>
       <c r="F470" s="11"/>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -9008,9 +8064,7 @@
       <c r="D471" s="2">
         <v>0</v>
       </c>
-      <c r="E471" s="15">
-        <v>0</v>
-      </c>
+      <c r="E471" s="15"/>
       <c r="F471" s="11"/>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -9026,9 +8080,7 @@
       <c r="D472" s="2">
         <v>0</v>
       </c>
-      <c r="E472" s="15">
-        <v>0</v>
-      </c>
+      <c r="E472" s="15"/>
       <c r="F472" s="11"/>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -9044,9 +8096,7 @@
       <c r="D473" s="2">
         <v>0</v>
       </c>
-      <c r="E473" s="15">
-        <v>0</v>
-      </c>
+      <c r="E473" s="15"/>
       <c r="F473" s="11"/>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -9062,9 +8112,7 @@
       <c r="D474" s="2">
         <v>0</v>
       </c>
-      <c r="E474" s="15">
-        <v>1</v>
-      </c>
+      <c r="E474" s="15"/>
       <c r="F474" s="11"/>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -9080,9 +8128,7 @@
       <c r="D475" s="5">
         <v>0</v>
       </c>
-      <c r="E475" s="15">
-        <v>0</v>
-      </c>
+      <c r="E475" s="15"/>
       <c r="F475" s="11"/>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -9098,9 +8144,7 @@
       <c r="D476" s="2">
         <v>0</v>
       </c>
-      <c r="E476" s="15">
-        <v>0</v>
-      </c>
+      <c r="E476" s="15"/>
       <c r="F476" s="11"/>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -9116,9 +8160,7 @@
       <c r="D477" s="2">
         <v>0</v>
       </c>
-      <c r="E477" s="15">
-        <v>1</v>
-      </c>
+      <c r="E477" s="15"/>
       <c r="F477" s="11"/>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -9134,9 +8176,7 @@
       <c r="D478" s="5">
         <v>0</v>
       </c>
-      <c r="E478" s="15">
-        <v>1</v>
-      </c>
+      <c r="E478" s="15"/>
       <c r="F478" s="11"/>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -9152,9 +8192,7 @@
       <c r="D479" s="2">
         <v>0</v>
       </c>
-      <c r="E479" s="15">
-        <v>1</v>
-      </c>
+      <c r="E479" s="15"/>
       <c r="F479" s="11"/>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
@@ -9170,9 +8208,7 @@
       <c r="D480" s="2">
         <v>0</v>
       </c>
-      <c r="E480" s="15">
-        <v>0</v>
-      </c>
+      <c r="E480" s="15"/>
       <c r="F480" s="11"/>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
@@ -9188,9 +8224,7 @@
       <c r="D481" s="2">
         <v>0</v>
       </c>
-      <c r="E481" s="15">
-        <v>1</v>
-      </c>
+      <c r="E481" s="15"/>
       <c r="F481" s="11"/>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
@@ -9206,9 +8240,7 @@
       <c r="D482" s="2">
         <v>0</v>
       </c>
-      <c r="E482" s="15">
-        <v>1</v>
-      </c>
+      <c r="E482" s="15"/>
       <c r="F482" s="11"/>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -9224,9 +8256,7 @@
       <c r="D483" s="2">
         <v>0</v>
       </c>
-      <c r="E483" s="15">
-        <v>0</v>
-      </c>
+      <c r="E483" s="15"/>
       <c r="F483" s="11"/>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
@@ -9242,9 +8272,7 @@
       <c r="D484" s="2">
         <v>0</v>
       </c>
-      <c r="E484" s="15">
-        <v>1</v>
-      </c>
+      <c r="E484" s="15"/>
       <c r="F484" s="11"/>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
@@ -9260,9 +8288,7 @@
       <c r="D485" s="2">
         <v>0</v>
       </c>
-      <c r="E485" s="15">
-        <v>0</v>
-      </c>
+      <c r="E485" s="15"/>
       <c r="F485" s="11"/>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -9278,9 +8304,7 @@
       <c r="D486" s="5">
         <v>0</v>
       </c>
-      <c r="E486" s="15">
-        <v>1</v>
-      </c>
+      <c r="E486" s="15"/>
       <c r="F486" s="11"/>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -9296,9 +8320,7 @@
       <c r="D487" s="2">
         <v>0</v>
       </c>
-      <c r="E487" s="15">
-        <v>0</v>
-      </c>
+      <c r="E487" s="15"/>
       <c r="F487" s="11"/>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
@@ -9314,9 +8336,7 @@
       <c r="D488" s="5">
         <v>0</v>
       </c>
-      <c r="E488" s="15">
-        <v>1</v>
-      </c>
+      <c r="E488" s="15"/>
       <c r="F488" s="11"/>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -9332,9 +8352,7 @@
       <c r="D489" s="2">
         <v>0</v>
       </c>
-      <c r="E489" s="15">
-        <v>1</v>
-      </c>
+      <c r="E489" s="15"/>
       <c r="F489" s="11"/>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -9350,9 +8368,7 @@
       <c r="D490" s="2">
         <v>0</v>
       </c>
-      <c r="E490" s="15">
-        <v>0</v>
-      </c>
+      <c r="E490" s="15"/>
       <c r="F490" s="11"/>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -9368,9 +8384,7 @@
       <c r="D491" s="2">
         <v>0</v>
       </c>
-      <c r="E491" s="15">
-        <v>1</v>
-      </c>
+      <c r="E491" s="15"/>
       <c r="F491" s="11"/>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -9386,9 +8400,7 @@
       <c r="D492" s="5">
         <v>0</v>
       </c>
-      <c r="E492" s="15">
-        <v>0</v>
-      </c>
+      <c r="E492" s="15"/>
       <c r="F492" s="11"/>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -9404,9 +8416,7 @@
       <c r="D493" s="6">
         <v>0</v>
       </c>
-      <c r="E493" s="16">
-        <v>1</v>
-      </c>
+      <c r="E493" s="16"/>
       <c r="F493" s="11"/>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -9422,9 +8432,7 @@
       <c r="D494" s="2">
         <v>0</v>
       </c>
-      <c r="E494" s="15">
-        <v>1</v>
-      </c>
+      <c r="E494" s="15"/>
       <c r="F494" s="11"/>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -9440,9 +8448,7 @@
       <c r="D495" s="5">
         <v>0</v>
       </c>
-      <c r="E495" s="15">
-        <v>0</v>
-      </c>
+      <c r="E495" s="15"/>
       <c r="F495" s="11"/>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
@@ -9458,9 +8464,7 @@
       <c r="D496" s="5">
         <v>0</v>
       </c>
-      <c r="E496" s="15">
-        <v>1</v>
-      </c>
+      <c r="E496" s="15"/>
       <c r="F496" s="11"/>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
@@ -9476,9 +8480,7 @@
       <c r="D497" s="5">
         <v>0</v>
       </c>
-      <c r="E497" s="15">
-        <v>0</v>
-      </c>
+      <c r="E497" s="15"/>
       <c r="F497" s="11"/>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
@@ -9494,9 +8496,7 @@
       <c r="D498" s="2">
         <v>0</v>
       </c>
-      <c r="E498" s="15">
-        <v>1</v>
-      </c>
+      <c r="E498" s="15"/>
       <c r="F498" s="11"/>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -9512,9 +8512,7 @@
       <c r="D499" s="5">
         <v>0</v>
       </c>
-      <c r="E499" s="15">
-        <v>1</v>
-      </c>
+      <c r="E499" s="15"/>
       <c r="F499" s="11"/>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -9530,9 +8528,7 @@
       <c r="D500" s="5">
         <v>0</v>
       </c>
-      <c r="E500" s="15">
-        <v>0</v>
-      </c>
+      <c r="E500" s="15"/>
       <c r="F500" s="11"/>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -9548,9 +8544,7 @@
       <c r="D501" s="2">
         <v>0</v>
       </c>
-      <c r="E501" s="15">
-        <v>1</v>
-      </c>
+      <c r="E501" s="15"/>
       <c r="F501" s="11"/>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -9566,9 +8560,7 @@
       <c r="D502" s="5">
         <v>0</v>
       </c>
-      <c r="E502" s="15">
-        <v>0</v>
-      </c>
+      <c r="E502" s="15"/>
       <c r="F502" s="11"/>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
@@ -9584,9 +8576,7 @@
       <c r="D503" s="2">
         <v>0</v>
       </c>
-      <c r="E503" s="15">
-        <v>1</v>
-      </c>
+      <c r="E503" s="15"/>
       <c r="F503" s="11"/>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
@@ -9602,9 +8592,7 @@
       <c r="D504" s="5">
         <v>0</v>
       </c>
-      <c r="E504" s="15">
-        <v>0</v>
-      </c>
+      <c r="E504" s="15"/>
       <c r="F504" s="11"/>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
@@ -9620,9 +8608,7 @@
       <c r="D505" s="2">
         <v>0</v>
       </c>
-      <c r="E505" s="15">
-        <v>1</v>
-      </c>
+      <c r="E505" s="15"/>
       <c r="F505" s="11"/>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
@@ -9638,9 +8624,7 @@
       <c r="D506" s="5">
         <v>0</v>
       </c>
-      <c r="E506" s="15">
-        <v>0</v>
-      </c>
+      <c r="E506" s="15"/>
       <c r="F506" s="11"/>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -9656,9 +8640,7 @@
       <c r="D507" s="5">
         <v>0</v>
       </c>
-      <c r="E507" s="15">
-        <v>1</v>
-      </c>
+      <c r="E507" s="15"/>
       <c r="F507" s="11"/>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -9674,9 +8656,7 @@
       <c r="D508" s="2">
         <v>0</v>
       </c>
-      <c r="E508" s="15">
-        <v>1</v>
-      </c>
+      <c r="E508" s="15"/>
       <c r="F508" s="11"/>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
@@ -9692,9 +8672,7 @@
       <c r="D509" s="5">
         <v>0</v>
       </c>
-      <c r="E509" s="15">
-        <v>0</v>
-      </c>
+      <c r="E509" s="15"/>
       <c r="F509" s="11"/>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
@@ -9710,9 +8688,7 @@
       <c r="D510" s="2">
         <v>0</v>
       </c>
-      <c r="E510" s="15">
-        <v>0</v>
-      </c>
+      <c r="E510" s="15"/>
       <c r="F510" s="11"/>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
@@ -9728,9 +8704,7 @@
       <c r="D511" s="5">
         <v>0</v>
       </c>
-      <c r="E511" s="15">
-        <v>0</v>
-      </c>
+      <c r="E511" s="15"/>
       <c r="F511" s="11"/>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
@@ -9746,9 +8720,7 @@
       <c r="D512" s="5">
         <v>0</v>
       </c>
-      <c r="E512" s="15">
-        <v>1</v>
-      </c>
+      <c r="E512" s="15"/>
       <c r="F512" s="11"/>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
@@ -9764,9 +8736,7 @@
       <c r="D513" s="6">
         <v>0</v>
       </c>
-      <c r="E513" s="16">
-        <v>0</v>
-      </c>
+      <c r="E513" s="16"/>
       <c r="F513" s="11"/>
       <c r="G513" s="7"/>
     </row>
@@ -9783,9 +8753,7 @@
       <c r="D514" s="5">
         <v>0</v>
       </c>
-      <c r="E514" s="15">
-        <v>0</v>
-      </c>
+      <c r="E514" s="15"/>
       <c r="F514" s="11"/>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
@@ -9801,9 +8769,7 @@
       <c r="D515" s="2">
         <v>0</v>
       </c>
-      <c r="E515" s="15">
-        <v>1</v>
-      </c>
+      <c r="E515" s="15"/>
       <c r="F515" s="11"/>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
@@ -9819,9 +8785,7 @@
       <c r="D516" s="5">
         <v>0</v>
       </c>
-      <c r="E516" s="15">
-        <v>1</v>
-      </c>
+      <c r="E516" s="15"/>
       <c r="F516" s="11"/>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
@@ -9837,9 +8801,7 @@
       <c r="D517" s="5">
         <v>0</v>
       </c>
-      <c r="E517" s="15">
-        <v>0</v>
-      </c>
+      <c r="E517" s="15"/>
       <c r="F517" s="11"/>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
@@ -9855,9 +8817,7 @@
       <c r="D518" s="5">
         <v>0</v>
       </c>
-      <c r="E518" s="15">
-        <v>1</v>
-      </c>
+      <c r="E518" s="15"/>
       <c r="F518" s="11"/>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
@@ -9873,9 +8833,7 @@
       <c r="D519" s="5">
         <v>0</v>
       </c>
-      <c r="E519" s="15">
-        <v>0</v>
-      </c>
+      <c r="E519" s="15"/>
       <c r="F519" s="11"/>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
@@ -9891,9 +8849,7 @@
       <c r="D520" s="2">
         <v>0</v>
       </c>
-      <c r="E520" s="15">
-        <v>1</v>
-      </c>
+      <c r="E520" s="15"/>
       <c r="F520" s="11"/>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
@@ -9909,9 +8865,7 @@
       <c r="D521" s="5">
         <v>0</v>
       </c>
-      <c r="E521" s="15">
-        <v>1</v>
-      </c>
+      <c r="E521" s="15"/>
       <c r="F521" s="11"/>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
@@ -9927,9 +8881,7 @@
       <c r="D522" s="2">
         <v>0</v>
       </c>
-      <c r="E522" s="15">
-        <v>0</v>
-      </c>
+      <c r="E522" s="15"/>
       <c r="F522" s="11"/>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
@@ -9945,9 +8897,7 @@
       <c r="D523" s="5">
         <v>0</v>
       </c>
-      <c r="E523" s="15">
-        <v>1</v>
-      </c>
+      <c r="E523" s="15"/>
       <c r="F523" s="11"/>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
@@ -9963,9 +8913,7 @@
       <c r="D524" s="2">
         <v>0</v>
       </c>
-      <c r="E524" s="15">
-        <v>1</v>
-      </c>
+      <c r="E524" s="15"/>
       <c r="F524" s="11"/>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
@@ -9981,9 +8929,7 @@
       <c r="D525" s="5">
         <v>0</v>
       </c>
-      <c r="E525" s="15">
-        <v>1</v>
-      </c>
+      <c r="E525" s="15"/>
       <c r="F525" s="11"/>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
@@ -9999,9 +8945,7 @@
       <c r="D526">
         <v>21.63510947</v>
       </c>
-      <c r="E526" s="15">
-        <v>0</v>
-      </c>
+      <c r="E526" s="15"/>
       <c r="F526" s="11"/>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
@@ -10017,9 +8961,7 @@
       <c r="D527">
         <v>30.081942680000001</v>
       </c>
-      <c r="E527" s="15">
-        <v>0</v>
-      </c>
+      <c r="E527" s="15"/>
       <c r="F527" s="11"/>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
@@ -10035,9 +8977,7 @@
       <c r="D528">
         <v>20.78626152</v>
       </c>
-      <c r="E528" s="15">
-        <v>0</v>
-      </c>
+      <c r="E528" s="15"/>
       <c r="F528" s="11"/>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
@@ -10053,9 +8993,7 @@
       <c r="D529">
         <v>20.159699750000001</v>
       </c>
-      <c r="E529" s="15">
-        <v>0</v>
-      </c>
+      <c r="E529" s="15"/>
       <c r="F529" s="11"/>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
@@ -10071,9 +9009,7 @@
       <c r="D530">
         <v>16.430104400000001</v>
       </c>
-      <c r="E530" s="15">
-        <v>0</v>
-      </c>
+      <c r="E530" s="15"/>
       <c r="F530" s="11"/>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
@@ -10089,9 +9025,7 @@
       <c r="D531">
         <v>15.83813557</v>
       </c>
-      <c r="E531" s="15">
-        <v>0</v>
-      </c>
+      <c r="E531" s="15"/>
       <c r="F531" s="11"/>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
@@ -10107,9 +9041,7 @@
       <c r="D532">
         <v>18.84301417</v>
       </c>
-      <c r="E532" s="15">
-        <v>0</v>
-      </c>
+      <c r="E532" s="15"/>
       <c r="F532" s="11"/>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
@@ -10125,9 +9057,7 @@
       <c r="D533">
         <v>23.387795619999999</v>
       </c>
-      <c r="E533" s="15">
-        <v>0</v>
-      </c>
+      <c r="E533" s="15"/>
       <c r="F533" s="11"/>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
@@ -10143,9 +9073,7 @@
       <c r="D534">
         <v>11.503879420000001</v>
       </c>
-      <c r="E534" s="15">
-        <v>0</v>
-      </c>
+      <c r="E534" s="15"/>
       <c r="F534" s="11"/>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
@@ -10161,9 +9089,7 @@
       <c r="D535">
         <v>15.95006289</v>
       </c>
-      <c r="E535" s="15">
-        <v>0</v>
-      </c>
+      <c r="E535" s="15"/>
       <c r="F535" s="11"/>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
@@ -10179,9 +9105,7 @@
       <c r="D536">
         <v>17.343321939999999</v>
       </c>
-      <c r="E536" s="15">
-        <v>0</v>
-      </c>
+      <c r="E536" s="15"/>
       <c r="F536" s="11"/>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
@@ -10197,9 +9121,7 @@
       <c r="D537">
         <v>21.584059709999998</v>
       </c>
-      <c r="E537" s="15">
-        <v>0</v>
-      </c>
+      <c r="E537" s="15"/>
       <c r="F537" s="11"/>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
@@ -10215,9 +9137,7 @@
       <c r="D538">
         <v>19.666666670000001</v>
       </c>
-      <c r="E538" s="15">
-        <v>0</v>
-      </c>
+      <c r="E538" s="15"/>
       <c r="F538" s="11"/>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
@@ -10233,9 +9153,7 @@
       <c r="D539">
         <v>12.56292788</v>
       </c>
-      <c r="E539" s="15">
-        <v>0</v>
-      </c>
+      <c r="E539" s="15"/>
       <c r="F539" s="11"/>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
@@ -10251,9 +9169,7 @@
       <c r="D540">
         <v>21.333643049999999</v>
       </c>
-      <c r="E540" s="15">
-        <v>0</v>
-      </c>
+      <c r="E540" s="15"/>
       <c r="F540" s="11"/>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
@@ -10269,9 +9185,7 @@
       <c r="D541">
         <v>28.272563720000001</v>
       </c>
-      <c r="E541" s="15">
-        <v>0</v>
-      </c>
+      <c r="E541" s="15"/>
       <c r="F541" s="11"/>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
@@ -10287,9 +9201,7 @@
       <c r="D542">
         <v>21.409333400000001</v>
       </c>
-      <c r="E542" s="15">
-        <v>0</v>
-      </c>
+      <c r="E542" s="15"/>
       <c r="F542" s="11"/>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
@@ -10305,9 +9217,7 @@
       <c r="D543">
         <v>25.91371384</v>
       </c>
-      <c r="E543" s="15">
-        <v>0</v>
-      </c>
+      <c r="E543" s="15"/>
       <c r="F543" s="11"/>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
@@ -10323,9 +9233,7 @@
       <c r="D544">
         <v>19.80438505</v>
       </c>
-      <c r="E544" s="15">
-        <v>0</v>
-      </c>
+      <c r="E544" s="15"/>
       <c r="F544" s="11"/>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
@@ -10341,9 +9249,7 @@
       <c r="D545">
         <v>19.666666670000001</v>
       </c>
-      <c r="E545" s="15">
-        <v>0</v>
-      </c>
+      <c r="E545" s="15"/>
       <c r="F545" s="11"/>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
@@ -10359,9 +9265,7 @@
       <c r="D546">
         <v>15.778791</v>
       </c>
-      <c r="E546" s="15">
-        <v>0</v>
-      </c>
+      <c r="E546" s="15"/>
       <c r="F546" s="11"/>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
@@ -10377,9 +9281,7 @@
       <c r="D547">
         <v>27.42422972</v>
       </c>
-      <c r="E547" s="15">
-        <v>0</v>
-      </c>
+      <c r="E547" s="15"/>
       <c r="F547" s="11"/>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
@@ -10395,9 +9297,7 @@
       <c r="D548">
         <v>22.716626720000001</v>
       </c>
-      <c r="E548" s="15">
-        <v>0</v>
-      </c>
+      <c r="E548" s="15"/>
       <c r="F548" s="11"/>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
@@ -10413,9 +9313,7 @@
       <c r="D549">
         <v>25.747732129999999</v>
       </c>
-      <c r="E549" s="15">
-        <v>0</v>
-      </c>
+      <c r="E549" s="15"/>
       <c r="F549" s="11"/>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
@@ -10431,9 +9329,7 @@
       <c r="D550">
         <v>19.339723450000001</v>
       </c>
-      <c r="E550" s="15">
-        <v>0</v>
-      </c>
+      <c r="E550" s="15"/>
       <c r="F550" s="11"/>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
@@ -10449,9 +9345,7 @@
       <c r="D551">
         <v>24.347883889999999</v>
       </c>
-      <c r="E551" s="15">
-        <v>0</v>
-      </c>
+      <c r="E551" s="15"/>
       <c r="F551" s="11"/>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
@@ -10467,9 +9361,7 @@
       <c r="D552">
         <v>15.402201420000001</v>
       </c>
-      <c r="E552" s="15">
-        <v>0</v>
-      </c>
+      <c r="E552" s="15"/>
       <c r="F552" s="11"/>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
@@ -10485,9 +9377,7 @@
       <c r="D553">
         <v>16.461672249999999</v>
       </c>
-      <c r="E553" s="15">
-        <v>0</v>
-      </c>
+      <c r="E553" s="15"/>
       <c r="F553" s="11"/>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
@@ -10503,9 +9393,7 @@
       <c r="D554">
         <v>18.7325619</v>
       </c>
-      <c r="E554" s="15">
-        <v>0</v>
-      </c>
+      <c r="E554" s="15"/>
       <c r="F554" s="11"/>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
@@ -10521,9 +9409,7 @@
       <c r="D555">
         <v>23.102737470000001</v>
       </c>
-      <c r="E555" s="15">
-        <v>0</v>
-      </c>
+      <c r="E555" s="15"/>
       <c r="F555" s="11"/>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
@@ -10539,9 +9425,7 @@
       <c r="D556">
         <v>23.899813810000001</v>
       </c>
-      <c r="E556" s="15">
-        <v>0</v>
-      </c>
+      <c r="E556" s="15"/>
       <c r="F556" s="11"/>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
@@ -10557,9 +9441,7 @@
       <c r="D557">
         <v>21.8154729</v>
       </c>
-      <c r="E557" s="15">
-        <v>0</v>
-      </c>
+      <c r="E557" s="15"/>
       <c r="F557" s="11"/>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
@@ -10575,9 +9457,7 @@
       <c r="D558">
         <v>19.2062861</v>
       </c>
-      <c r="E558" s="15">
-        <v>0</v>
-      </c>
+      <c r="E558" s="15"/>
       <c r="F558" s="11"/>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
@@ -10593,9 +9473,7 @@
       <c r="D559">
         <v>24.452092629999999</v>
       </c>
-      <c r="E559" s="15">
-        <v>0</v>
-      </c>
+      <c r="E559" s="15"/>
       <c r="F559" s="11"/>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
@@ -10611,9 +9489,7 @@
       <c r="D560">
         <v>18.912954809999999</v>
       </c>
-      <c r="E560" s="15">
-        <v>0</v>
-      </c>
+      <c r="E560" s="15"/>
       <c r="F560" s="11"/>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
@@ -10629,9 +9505,7 @@
       <c r="D561">
         <v>21.942428270000001</v>
       </c>
-      <c r="E561" s="15">
-        <v>0</v>
-      </c>
+      <c r="E561" s="15"/>
       <c r="F561" s="11"/>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
@@ -10647,9 +9521,7 @@
       <c r="D562">
         <v>23.356880140000001</v>
       </c>
-      <c r="E562" s="15">
-        <v>0</v>
-      </c>
+      <c r="E562" s="15"/>
       <c r="F562" s="11"/>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
@@ -10665,9 +9537,7 @@
       <c r="D563">
         <v>10.595411840000001</v>
       </c>
-      <c r="E563" s="15">
-        <v>0</v>
-      </c>
+      <c r="E563" s="15"/>
       <c r="F563" s="11"/>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
@@ -10683,9 +9553,7 @@
       <c r="D564">
         <v>22.01674143</v>
       </c>
-      <c r="E564" s="15">
-        <v>0</v>
-      </c>
+      <c r="E564" s="15"/>
       <c r="F564" s="11"/>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
@@ -10701,9 +9569,7 @@
       <c r="D565">
         <v>17.196484730000002</v>
       </c>
-      <c r="E565" s="15">
-        <v>0</v>
-      </c>
+      <c r="E565" s="15"/>
       <c r="F565" s="11"/>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
@@ -10719,9 +9585,7 @@
       <c r="D566">
         <v>10.29102045</v>
       </c>
-      <c r="E566" s="15">
-        <v>0</v>
-      </c>
+      <c r="E566" s="15"/>
       <c r="F566" s="11"/>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
@@ -10737,9 +9601,7 @@
       <c r="D567">
         <v>18.326022630000001</v>
       </c>
-      <c r="E567" s="15">
-        <v>0</v>
-      </c>
+      <c r="E567" s="15"/>
       <c r="F567" s="11"/>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
@@ -10755,9 +9617,7 @@
       <c r="D568">
         <v>20.428437070000001</v>
       </c>
-      <c r="E568" s="15">
-        <v>0</v>
-      </c>
+      <c r="E568" s="15"/>
       <c r="F568" s="11"/>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
@@ -10773,9 +9633,7 @@
       <c r="D569">
         <v>24.199506230000001</v>
       </c>
-      <c r="E569" s="15">
-        <v>0</v>
-      </c>
+      <c r="E569" s="15"/>
       <c r="F569" s="11"/>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
@@ -10791,9 +9649,7 @@
       <c r="D570">
         <v>12.427838530000001</v>
       </c>
-      <c r="E570" s="15">
-        <v>0</v>
-      </c>
+      <c r="E570" s="15"/>
       <c r="F570" s="11"/>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
@@ -10809,9 +9665,7 @@
       <c r="D571">
         <v>21.724931009999999</v>
       </c>
-      <c r="E571" s="15">
-        <v>0</v>
-      </c>
+      <c r="E571" s="15"/>
       <c r="F571" s="11"/>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
@@ -10827,9 +9681,7 @@
       <c r="D572">
         <v>29.731239309999999</v>
       </c>
-      <c r="E572" s="15">
-        <v>0</v>
-      </c>
+      <c r="E572" s="15"/>
       <c r="F572" s="11"/>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
@@ -10845,9 +9697,7 @@
       <c r="D573">
         <v>10.78217332</v>
       </c>
-      <c r="E573" s="15">
-        <v>0</v>
-      </c>
+      <c r="E573" s="15"/>
       <c r="F573" s="11"/>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
@@ -10863,9 +9713,7 @@
       <c r="D574">
         <v>10.60129134</v>
       </c>
-      <c r="E574" s="15">
-        <v>0</v>
-      </c>
+      <c r="E574" s="15"/>
       <c r="F574" s="11"/>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
@@ -10881,9 +9729,7 @@
       <c r="D575" s="9">
         <v>0</v>
       </c>
-      <c r="E575" s="18">
-        <v>1</v>
-      </c>
+      <c r="E575" s="18"/>
       <c r="F575" s="11"/>
       <c r="G575" s="7"/>
     </row>
@@ -10900,9 +9746,7 @@
       <c r="D576" s="9">
         <v>0</v>
       </c>
-      <c r="E576" s="18">
-        <v>1</v>
-      </c>
+      <c r="E576" s="18"/>
       <c r="F576" s="11"/>
       <c r="G576" s="7"/>
     </row>
@@ -10919,9 +9763,7 @@
       <c r="D577" s="9">
         <v>0</v>
       </c>
-      <c r="E577" s="18">
-        <v>1</v>
-      </c>
+      <c r="E577" s="18"/>
       <c r="F577" s="11"/>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
@@ -10937,9 +9779,7 @@
       <c r="D578">
         <v>5</v>
       </c>
-      <c r="E578" s="15">
-        <v>0</v>
-      </c>
+      <c r="E578" s="15"/>
       <c r="F578" s="11"/>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
@@ -10955,9 +9795,7 @@
       <c r="D579">
         <v>7</v>
       </c>
-      <c r="E579" s="15">
-        <v>0</v>
-      </c>
+      <c r="E579" s="15"/>
       <c r="F579" s="11"/>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
@@ -10973,9 +9811,7 @@
       <c r="D580">
         <v>12</v>
       </c>
-      <c r="E580" s="15">
-        <v>0</v>
-      </c>
+      <c r="E580" s="15"/>
       <c r="F580" s="11"/>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
@@ -10991,9 +9827,7 @@
       <c r="D581">
         <v>23</v>
       </c>
-      <c r="E581" s="15">
-        <v>0</v>
-      </c>
+      <c r="E581" s="15"/>
       <c r="F581" s="11"/>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
@@ -11009,9 +9843,7 @@
       <c r="D582">
         <v>28</v>
       </c>
-      <c r="E582" s="15">
-        <v>0</v>
-      </c>
+      <c r="E582" s="15"/>
       <c r="F582" s="11"/>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
@@ -11027,9 +9859,7 @@
       <c r="D583">
         <v>0</v>
       </c>
-      <c r="E583" s="15">
-        <v>0</v>
-      </c>
+      <c r="E583" s="15"/>
       <c r="F583" s="11"/>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
@@ -11045,9 +9875,7 @@
       <c r="D584">
         <v>37</v>
       </c>
-      <c r="E584" s="15">
-        <v>0</v>
-      </c>
+      <c r="E584" s="15"/>
       <c r="F584" s="11"/>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
@@ -11063,9 +9891,7 @@
       <c r="D585">
         <v>50</v>
       </c>
-      <c r="E585" s="15">
-        <v>0</v>
-      </c>
+      <c r="E585" s="15"/>
       <c r="F585" s="11"/>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
@@ -11081,9 +9907,7 @@
       <c r="D586">
         <v>39</v>
       </c>
-      <c r="E586" s="15">
-        <v>0</v>
-      </c>
+      <c r="E586" s="15"/>
       <c r="F586" s="11"/>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
@@ -11099,9 +9923,7 @@
       <c r="D587" s="7">
         <v>0</v>
       </c>
-      <c r="E587" s="16">
-        <v>0</v>
-      </c>
+      <c r="E587" s="16"/>
       <c r="F587" s="11"/>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
@@ -11117,9 +9939,7 @@
       <c r="D588">
         <v>50</v>
       </c>
-      <c r="E588" s="15">
-        <v>0</v>
-      </c>
+      <c r="E588" s="15"/>
       <c r="F588" s="11"/>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
@@ -11135,9 +9955,7 @@
       <c r="D589">
         <v>36</v>
       </c>
-      <c r="E589" s="15">
-        <v>0</v>
-      </c>
+      <c r="E589" s="15"/>
       <c r="F589" s="11"/>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
@@ -11153,9 +9971,7 @@
       <c r="D590" s="7">
         <v>0</v>
       </c>
-      <c r="E590" s="16">
-        <v>0</v>
-      </c>
+      <c r="E590" s="16"/>
       <c r="F590" s="11"/>
       <c r="G590" s="7"/>
     </row>
@@ -11172,9 +9988,7 @@
       <c r="D591">
         <v>53</v>
       </c>
-      <c r="E591" s="15">
-        <v>0</v>
-      </c>
+      <c r="E591" s="15"/>
       <c r="F591" s="11"/>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
@@ -11190,9 +10004,7 @@
       <c r="D592">
         <v>39</v>
       </c>
-      <c r="E592" s="15">
-        <v>0</v>
-      </c>
+      <c r="E592" s="15"/>
       <c r="F592" s="11"/>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
@@ -11208,9 +10020,7 @@
       <c r="D593">
         <v>48</v>
       </c>
-      <c r="E593" s="15">
-        <v>0</v>
-      </c>
+      <c r="E593" s="15"/>
       <c r="F593" s="11"/>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
@@ -11226,9 +10036,7 @@
       <c r="D594">
         <v>51</v>
       </c>
-      <c r="E594" s="15">
-        <v>0</v>
-      </c>
+      <c r="E594" s="15"/>
       <c r="F594" s="11"/>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
@@ -11244,9 +10052,7 @@
       <c r="D595">
         <v>41</v>
       </c>
-      <c r="E595" s="15">
-        <v>0</v>
-      </c>
+      <c r="E595" s="15"/>
       <c r="F595" s="11"/>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
@@ -11262,9 +10068,7 @@
       <c r="D596" s="7">
         <v>0</v>
       </c>
-      <c r="E596" s="16">
-        <v>1</v>
-      </c>
+      <c r="E596" s="16"/>
       <c r="F596" s="11"/>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
@@ -11280,9 +10084,7 @@
       <c r="D597">
         <v>1</v>
       </c>
-      <c r="E597" s="15">
-        <v>0</v>
-      </c>
+      <c r="E597" s="15"/>
       <c r="F597" s="11"/>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
@@ -11298,9 +10100,7 @@
       <c r="D598">
         <v>34</v>
       </c>
-      <c r="E598" s="15">
-        <v>0</v>
-      </c>
+      <c r="E598" s="15"/>
       <c r="F598" s="11"/>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
@@ -11316,9 +10116,7 @@
       <c r="D599">
         <v>0</v>
       </c>
-      <c r="E599" s="15">
-        <v>0</v>
-      </c>
+      <c r="E599" s="15"/>
       <c r="F599" s="11"/>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
@@ -11334,9 +10132,7 @@
       <c r="D600" s="7">
         <v>0</v>
       </c>
-      <c r="E600" s="16">
-        <v>1</v>
-      </c>
+      <c r="E600" s="16"/>
       <c r="F600" s="11"/>
       <c r="G600" s="7"/>
     </row>
@@ -11353,9 +10149,7 @@
       <c r="D601">
         <v>0</v>
       </c>
-      <c r="E601" s="15">
-        <v>0</v>
-      </c>
+      <c r="E601" s="15"/>
       <c r="F601" s="11"/>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
@@ -11371,9 +10165,7 @@
       <c r="D602">
         <v>0</v>
       </c>
-      <c r="E602" s="15">
-        <v>0</v>
-      </c>
+      <c r="E602" s="15"/>
       <c r="F602" s="11"/>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
@@ -11389,9 +10181,7 @@
       <c r="D603">
         <v>0</v>
       </c>
-      <c r="E603" s="15">
-        <v>0</v>
-      </c>
+      <c r="E603" s="15"/>
       <c r="F603" s="11"/>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
@@ -11407,9 +10197,7 @@
       <c r="D604">
         <v>0</v>
       </c>
-      <c r="E604" s="12">
-        <v>1</v>
-      </c>
+      <c r="E604" s="12"/>
       <c r="F604" s="11"/>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
@@ -11425,9 +10213,7 @@
       <c r="D605">
         <v>0</v>
       </c>
-      <c r="E605" s="12">
-        <v>1</v>
-      </c>
+      <c r="E605" s="12"/>
       <c r="F605" s="11"/>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
@@ -11443,9 +10229,7 @@
       <c r="D606">
         <v>0</v>
       </c>
-      <c r="E606" s="12">
-        <v>1</v>
-      </c>
+      <c r="E606" s="12"/>
       <c r="F606" s="11"/>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
@@ -11461,9 +10245,7 @@
       <c r="D607">
         <v>0</v>
       </c>
-      <c r="E607" s="12">
-        <v>1</v>
-      </c>
+      <c r="E607" s="12"/>
       <c r="F607" s="11"/>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
@@ -11479,9 +10261,7 @@
       <c r="D608">
         <v>0</v>
       </c>
-      <c r="E608" s="12">
-        <v>0</v>
-      </c>
+      <c r="E608" s="12"/>
       <c r="F608" s="11"/>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
@@ -11497,9 +10277,7 @@
       <c r="D609">
         <v>0</v>
       </c>
-      <c r="E609" s="12">
-        <v>0</v>
-      </c>
+      <c r="E609" s="12"/>
       <c r="F609" s="11"/>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
@@ -11515,9 +10293,7 @@
       <c r="D610">
         <v>0</v>
       </c>
-      <c r="E610" s="12">
-        <v>1</v>
-      </c>
+      <c r="E610" s="12"/>
       <c r="F610" s="11"/>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
@@ -11533,9 +10309,7 @@
       <c r="D611" s="9">
         <v>0</v>
       </c>
-      <c r="E611" s="18">
-        <v>1</v>
-      </c>
+      <c r="E611" s="18"/>
       <c r="F611" s="11"/>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
@@ -11551,9 +10325,7 @@
       <c r="D612" s="9">
         <v>0</v>
       </c>
-      <c r="E612" s="18">
-        <v>1</v>
-      </c>
+      <c r="E612" s="18"/>
       <c r="F612" s="11"/>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
@@ -11569,9 +10341,7 @@
       <c r="D613" s="9">
         <v>0</v>
       </c>
-      <c r="E613" s="18">
-        <v>1</v>
-      </c>
+      <c r="E613" s="18"/>
       <c r="F613" s="11"/>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
@@ -11587,9 +10357,7 @@
       <c r="D614">
         <v>0</v>
       </c>
-      <c r="E614" s="15">
-        <v>0</v>
-      </c>
+      <c r="E614" s="15"/>
       <c r="F614" s="11"/>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
@@ -11605,9 +10373,7 @@
       <c r="D615">
         <v>0</v>
       </c>
-      <c r="E615" s="15">
-        <v>0</v>
-      </c>
+      <c r="E615" s="15"/>
       <c r="F615" s="11"/>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
@@ -11623,9 +10389,7 @@
       <c r="D616">
         <v>12</v>
       </c>
-      <c r="E616" s="15">
-        <v>0</v>
-      </c>
+      <c r="E616" s="15"/>
       <c r="F616" s="11"/>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
@@ -11641,9 +10405,7 @@
       <c r="D617">
         <v>23</v>
       </c>
-      <c r="E617" s="15">
-        <v>0</v>
-      </c>
+      <c r="E617" s="15"/>
       <c r="F617" s="11"/>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
@@ -11659,9 +10421,7 @@
       <c r="D618">
         <v>28</v>
       </c>
-      <c r="E618" s="15">
-        <v>0</v>
-      </c>
+      <c r="E618" s="15"/>
       <c r="F618" s="11"/>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
@@ -11677,9 +10437,7 @@
       <c r="D619">
         <v>0</v>
       </c>
-      <c r="E619" s="15">
-        <v>0</v>
-      </c>
+      <c r="E619" s="15"/>
       <c r="F619" s="11"/>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
@@ -11695,9 +10453,7 @@
       <c r="D620">
         <v>37</v>
       </c>
-      <c r="E620" s="15">
-        <v>0</v>
-      </c>
+      <c r="E620" s="15"/>
       <c r="F620" s="11"/>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
@@ -11713,9 +10469,7 @@
       <c r="D621">
         <v>50</v>
       </c>
-      <c r="E621" s="15">
-        <v>0</v>
-      </c>
+      <c r="E621" s="15"/>
       <c r="F621" s="11"/>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
@@ -11731,9 +10485,7 @@
       <c r="D622">
         <v>39</v>
       </c>
-      <c r="E622" s="15">
-        <v>0</v>
-      </c>
+      <c r="E622" s="15"/>
       <c r="F622" s="11"/>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
@@ -11749,9 +10501,7 @@
       <c r="D623" s="7">
         <v>0</v>
       </c>
-      <c r="E623" s="16">
-        <v>0</v>
-      </c>
+      <c r="E623" s="16"/>
       <c r="F623" s="11"/>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
@@ -11767,9 +10517,7 @@
       <c r="D624">
         <v>50</v>
       </c>
-      <c r="E624" s="15">
-        <v>0</v>
-      </c>
+      <c r="E624" s="15"/>
       <c r="F624" s="11"/>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
@@ -11785,9 +10533,7 @@
       <c r="D625">
         <v>36</v>
       </c>
-      <c r="E625" s="15">
-        <v>0</v>
-      </c>
+      <c r="E625" s="15"/>
       <c r="F625" s="11"/>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
@@ -11803,9 +10549,7 @@
       <c r="D626" s="7">
         <v>0</v>
       </c>
-      <c r="E626" s="16">
-        <v>0</v>
-      </c>
+      <c r="E626" s="16"/>
       <c r="F626" s="11"/>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
@@ -11821,9 +10565,7 @@
       <c r="D627">
         <v>53</v>
       </c>
-      <c r="E627" s="15">
-        <v>0</v>
-      </c>
+      <c r="E627" s="15"/>
       <c r="F627" s="11"/>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
@@ -11839,9 +10581,7 @@
       <c r="D628">
         <v>39</v>
       </c>
-      <c r="E628" s="15">
-        <v>0</v>
-      </c>
+      <c r="E628" s="15"/>
       <c r="F628" s="11"/>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
@@ -11857,9 +10597,7 @@
       <c r="D629">
         <v>48</v>
       </c>
-      <c r="E629" s="15">
-        <v>0</v>
-      </c>
+      <c r="E629" s="15"/>
       <c r="F629" s="11"/>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
@@ -11875,9 +10613,7 @@
       <c r="D630">
         <v>51</v>
       </c>
-      <c r="E630" s="15">
-        <v>0</v>
-      </c>
+      <c r="E630" s="15"/>
       <c r="F630" s="11"/>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
@@ -11893,9 +10629,7 @@
       <c r="D631">
         <v>41</v>
       </c>
-      <c r="E631" s="15">
-        <v>0</v>
-      </c>
+      <c r="E631" s="15"/>
       <c r="F631" s="11"/>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
@@ -11911,9 +10645,7 @@
       <c r="D632" s="7">
         <v>0</v>
       </c>
-      <c r="E632" s="16">
-        <v>1</v>
-      </c>
+      <c r="E632" s="16"/>
       <c r="F632" s="11"/>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
@@ -11929,9 +10661,7 @@
       <c r="D633">
         <v>1</v>
       </c>
-      <c r="E633" s="15">
-        <v>0</v>
-      </c>
+      <c r="E633" s="15"/>
       <c r="F633" s="11"/>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
@@ -11947,9 +10677,7 @@
       <c r="D634">
         <v>34</v>
       </c>
-      <c r="E634" s="15">
-        <v>0</v>
-      </c>
+      <c r="E634" s="15"/>
       <c r="F634" s="11"/>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
@@ -11965,9 +10693,7 @@
       <c r="D635">
         <v>0</v>
       </c>
-      <c r="E635" s="15">
-        <v>0</v>
-      </c>
+      <c r="E635" s="15"/>
       <c r="F635" s="11"/>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
@@ -11983,9 +10709,7 @@
       <c r="D636" s="7">
         <v>0</v>
       </c>
-      <c r="E636" s="16">
-        <v>1</v>
-      </c>
+      <c r="E636" s="16"/>
       <c r="F636" s="11"/>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
@@ -12001,9 +10725,7 @@
       <c r="D637">
         <v>0</v>
       </c>
-      <c r="E637" s="15">
-        <v>0</v>
-      </c>
+      <c r="E637" s="15"/>
       <c r="F637" s="11"/>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
@@ -12019,9 +10741,7 @@
       <c r="D638">
         <v>0</v>
       </c>
-      <c r="E638" s="15">
-        <v>0</v>
-      </c>
+      <c r="E638" s="15"/>
       <c r="F638" s="11"/>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
@@ -12037,9 +10757,7 @@
       <c r="D639">
         <v>0</v>
       </c>
-      <c r="E639" s="15">
-        <v>0</v>
-      </c>
+      <c r="E639" s="15"/>
       <c r="F639" s="11"/>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
@@ -12055,9 +10773,7 @@
       <c r="D640">
         <v>0</v>
       </c>
-      <c r="E640" s="12">
-        <v>1</v>
-      </c>
+      <c r="E640" s="12"/>
       <c r="F640" s="11"/>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
@@ -12073,9 +10789,7 @@
       <c r="D641">
         <v>0</v>
       </c>
-      <c r="E641" s="12">
-        <v>1</v>
-      </c>
+      <c r="E641" s="12"/>
       <c r="F641" s="11"/>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
@@ -12091,9 +10805,7 @@
       <c r="D642">
         <v>0</v>
       </c>
-      <c r="E642" s="12">
-        <v>1</v>
-      </c>
+      <c r="E642" s="12"/>
       <c r="F642" s="11"/>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
@@ -12109,9 +10821,7 @@
       <c r="D643">
         <v>0</v>
       </c>
-      <c r="E643" s="12">
-        <v>1</v>
-      </c>
+      <c r="E643" s="12"/>
       <c r="F643" s="11"/>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
@@ -12127,9 +10837,7 @@
       <c r="D644">
         <v>0</v>
       </c>
-      <c r="E644" s="12">
-        <v>0</v>
-      </c>
+      <c r="E644" s="12"/>
       <c r="F644" s="11"/>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
@@ -12145,9 +10853,7 @@
       <c r="D645">
         <v>0</v>
       </c>
-      <c r="E645" s="12">
-        <v>0</v>
-      </c>
+      <c r="E645" s="12"/>
       <c r="F645" s="11"/>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
@@ -12163,9 +10869,7 @@
       <c r="D646">
         <v>0</v>
       </c>
-      <c r="E646" s="12">
-        <v>1</v>
-      </c>
+      <c r="E646" s="12"/>
       <c r="F646" s="11"/>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
@@ -12181,9 +10885,7 @@
       <c r="D647">
         <v>0</v>
       </c>
-      <c r="E647" s="12">
-        <v>1</v>
-      </c>
+      <c r="E647" s="12"/>
       <c r="F647" s="11"/>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
@@ -12199,9 +10901,7 @@
       <c r="D648">
         <v>0</v>
       </c>
-      <c r="E648" s="12">
-        <v>0</v>
-      </c>
+      <c r="E648" s="12"/>
       <c r="F648" s="11"/>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
@@ -12217,9 +10917,7 @@
       <c r="D649">
         <v>0</v>
       </c>
-      <c r="E649" s="12">
-        <v>1</v>
-      </c>
+      <c r="E649" s="12"/>
       <c r="F649" s="11"/>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
@@ -12235,9 +10933,7 @@
       <c r="D650">
         <v>0</v>
       </c>
-      <c r="E650" s="12">
-        <v>0</v>
-      </c>
+      <c r="E650" s="12"/>
       <c r="F650" s="11"/>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
@@ -12253,9 +10949,7 @@
       <c r="D651" s="10">
         <v>0</v>
       </c>
-      <c r="E651" s="19">
-        <v>1</v>
-      </c>
+      <c r="E651" s="19"/>
       <c r="F651" s="11"/>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
@@ -12271,9 +10965,7 @@
       <c r="D652">
         <v>0</v>
       </c>
-      <c r="E652" s="12">
-        <v>0</v>
-      </c>
+      <c r="E652" s="12"/>
       <c r="F652" s="11"/>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
@@ -12289,9 +10981,7 @@
       <c r="D653" s="10">
         <v>0</v>
       </c>
-      <c r="E653" s="19">
-        <v>1</v>
-      </c>
+      <c r="E653" s="19"/>
       <c r="F653" s="11"/>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
@@ -12307,9 +10997,7 @@
       <c r="D654">
         <v>0</v>
       </c>
-      <c r="E654" s="12">
-        <v>0</v>
-      </c>
+      <c r="E654" s="12"/>
       <c r="F654" s="11"/>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
@@ -12325,9 +11013,7 @@
       <c r="D655" s="10">
         <v>0</v>
       </c>
-      <c r="E655" s="19">
-        <v>1</v>
-      </c>
+      <c r="E655" s="19"/>
       <c r="F655" s="11"/>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
@@ -12343,9 +11029,7 @@
       <c r="D656">
         <v>0</v>
       </c>
-      <c r="E656" s="12">
-        <v>0</v>
-      </c>
+      <c r="E656" s="12"/>
       <c r="F656" s="11"/>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
@@ -12361,9 +11045,7 @@
       <c r="D657">
         <v>0</v>
       </c>
-      <c r="E657" s="19">
-        <v>0</v>
-      </c>
+      <c r="E657" s="19"/>
       <c r="F657" s="11"/>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
@@ -12379,9 +11061,7 @@
       <c r="D658" s="10">
         <v>0</v>
       </c>
-      <c r="E658" s="19">
-        <v>1</v>
-      </c>
+      <c r="E658" s="19"/>
       <c r="F658" s="11"/>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
@@ -12397,9 +11077,7 @@
       <c r="D659" s="10">
         <v>0</v>
       </c>
-      <c r="E659" s="19">
-        <v>1</v>
-      </c>
+      <c r="E659" s="19"/>
       <c r="F659" s="11"/>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
@@ -12415,9 +11093,7 @@
       <c r="D660" s="10">
         <v>0</v>
       </c>
-      <c r="E660" s="19">
-        <v>1</v>
-      </c>
+      <c r="E660" s="19"/>
       <c r="F660" s="11"/>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
@@ -12433,9 +11109,7 @@
       <c r="D661" s="10">
         <v>0</v>
       </c>
-      <c r="E661" s="19">
-        <v>1</v>
-      </c>
+      <c r="E661" s="19"/>
       <c r="F661" s="11"/>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
@@ -12451,9 +11125,7 @@
       <c r="D662">
         <v>0</v>
       </c>
-      <c r="E662" s="19">
-        <v>0</v>
-      </c>
+      <c r="E662" s="19"/>
       <c r="F662" s="11"/>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
@@ -12469,9 +11141,7 @@
       <c r="D663">
         <v>0</v>
       </c>
-      <c r="E663" s="19">
-        <v>0</v>
-      </c>
+      <c r="E663" s="19"/>
       <c r="F663" s="11"/>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
@@ -12487,9 +11157,7 @@
       <c r="D664" s="10">
         <v>0</v>
       </c>
-      <c r="E664" s="19">
-        <v>1</v>
-      </c>
+      <c r="E664" s="19"/>
       <c r="F664" s="11"/>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
@@ -12505,9 +11173,7 @@
       <c r="D665">
         <v>0</v>
       </c>
-      <c r="E665" s="19">
-        <v>0</v>
-      </c>
+      <c r="E665" s="19"/>
       <c r="F665" s="11"/>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
@@ -12523,9 +11189,7 @@
       <c r="D666">
         <v>0</v>
       </c>
-      <c r="E666" s="19">
-        <v>0</v>
-      </c>
+      <c r="E666" s="19"/>
       <c r="F666" s="11"/>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.25">
@@ -12541,9 +11205,7 @@
       <c r="D667" s="10">
         <v>0</v>
       </c>
-      <c r="E667" s="19">
-        <v>1</v>
-      </c>
+      <c r="E667" s="19"/>
       <c r="F667" s="11"/>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
@@ -12559,9 +11221,7 @@
       <c r="D668" s="10">
         <v>0</v>
       </c>
-      <c r="E668" s="19">
-        <v>1</v>
-      </c>
+      <c r="E668" s="19"/>
       <c r="F668" s="11"/>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.25">
@@ -12577,9 +11237,7 @@
       <c r="D669" s="10">
         <v>0</v>
       </c>
-      <c r="E669" s="19">
-        <v>1</v>
-      </c>
+      <c r="E669" s="19"/>
       <c r="F669" s="11"/>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
@@ -12595,9 +11253,7 @@
       <c r="D670">
         <v>0</v>
       </c>
-      <c r="E670" s="19">
-        <v>0</v>
-      </c>
+      <c r="E670" s="19"/>
       <c r="F670" s="11"/>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.25">
@@ -12613,9 +11269,7 @@
       <c r="D671" s="10">
         <v>0</v>
       </c>
-      <c r="E671" s="19">
-        <v>1</v>
-      </c>
+      <c r="E671" s="19"/>
       <c r="F671" s="11"/>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
@@ -12631,9 +11285,7 @@
       <c r="D672">
         <v>0</v>
       </c>
-      <c r="E672" s="19">
-        <v>0</v>
-      </c>
+      <c r="E672" s="19"/>
       <c r="F672" s="11"/>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
@@ -12649,9 +11301,7 @@
       <c r="D673" s="10">
         <v>0</v>
       </c>
-      <c r="E673" s="19">
-        <v>1</v>
-      </c>
+      <c r="E673" s="19"/>
       <c r="F673" s="11"/>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
@@ -12667,9 +11317,7 @@
       <c r="D674">
         <v>0</v>
       </c>
-      <c r="E674" s="19">
-        <v>0</v>
-      </c>
+      <c r="E674" s="19"/>
       <c r="F674" s="11"/>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
@@ -12685,9 +11333,7 @@
       <c r="D675">
         <v>0</v>
       </c>
-      <c r="E675" s="19">
-        <v>0</v>
-      </c>
+      <c r="E675" s="19"/>
       <c r="F675" s="11"/>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
@@ -12703,9 +11349,7 @@
       <c r="D676" s="10">
         <v>0</v>
       </c>
-      <c r="E676" s="19">
-        <v>1</v>
-      </c>
+      <c r="E676" s="19"/>
       <c r="F676" s="11"/>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
@@ -12721,9 +11365,7 @@
       <c r="D677" s="10">
         <v>0</v>
       </c>
-      <c r="E677" s="19">
-        <v>1</v>
-      </c>
+      <c r="E677" s="19"/>
       <c r="F677" s="11"/>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
@@ -12739,9 +11381,7 @@
       <c r="D678">
         <v>0</v>
       </c>
-      <c r="E678" s="19">
-        <v>0</v>
-      </c>
+      <c r="E678" s="19"/>
       <c r="F678" s="11"/>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
@@ -12757,9 +11397,7 @@
       <c r="D679" s="10">
         <v>0</v>
       </c>
-      <c r="E679" s="19">
-        <v>1</v>
-      </c>
+      <c r="E679" s="19"/>
       <c r="F679" s="11"/>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
@@ -12775,9 +11413,7 @@
       <c r="D680">
         <v>0</v>
       </c>
-      <c r="E680" s="19">
-        <v>0</v>
-      </c>
+      <c r="E680" s="19"/>
       <c r="F680" s="11"/>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
@@ -12793,9 +11429,7 @@
       <c r="D681">
         <v>0</v>
       </c>
-      <c r="E681" s="19">
-        <v>0</v>
-      </c>
+      <c r="E681" s="19"/>
       <c r="F681" s="11"/>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
@@ -12811,9 +11445,7 @@
       <c r="D682" s="10">
         <v>0</v>
       </c>
-      <c r="E682" s="19">
-        <v>1</v>
-      </c>
+      <c r="E682" s="19"/>
       <c r="F682" s="11"/>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
@@ -12829,9 +11461,7 @@
       <c r="D683">
         <v>0</v>
       </c>
-      <c r="E683" s="19">
-        <v>0</v>
-      </c>
+      <c r="E683" s="19"/>
       <c r="F683" s="11"/>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
@@ -12847,9 +11477,7 @@
       <c r="D684" s="10">
         <v>0</v>
       </c>
-      <c r="E684" s="19">
-        <v>1</v>
-      </c>
+      <c r="E684" s="19"/>
       <c r="F684" s="11"/>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.25">
@@ -12865,9 +11493,7 @@
       <c r="D685">
         <v>0</v>
       </c>
-      <c r="E685" s="19">
-        <v>0</v>
-      </c>
+      <c r="E685" s="19"/>
       <c r="F685" s="11"/>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
@@ -12883,9 +11509,7 @@
       <c r="D686">
         <v>0</v>
       </c>
-      <c r="E686" s="19">
-        <v>0</v>
-      </c>
+      <c r="E686" s="19"/>
       <c r="F686" s="11"/>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">
@@ -12901,9 +11525,7 @@
       <c r="D687">
         <v>0</v>
       </c>
-      <c r="E687" s="19">
-        <v>0</v>
-      </c>
+      <c r="E687" s="19"/>
       <c r="F687" s="11"/>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
@@ -12919,9 +11541,7 @@
       <c r="D688" s="10">
         <v>0</v>
       </c>
-      <c r="E688" s="19">
-        <v>1</v>
-      </c>
+      <c r="E688" s="19"/>
       <c r="F688" s="11"/>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
@@ -12937,9 +11557,7 @@
       <c r="D689">
         <v>0</v>
       </c>
-      <c r="E689" s="19">
-        <v>0</v>
-      </c>
+      <c r="E689" s="19"/>
       <c r="F689" s="11"/>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
@@ -12955,9 +11573,7 @@
       <c r="D690">
         <v>0</v>
       </c>
-      <c r="E690" s="19">
-        <v>0</v>
-      </c>
+      <c r="E690" s="19"/>
       <c r="F690" s="11"/>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
@@ -12973,9 +11589,7 @@
       <c r="D691">
         <v>0</v>
       </c>
-      <c r="E691" s="19">
-        <v>0</v>
-      </c>
+      <c r="E691" s="19"/>
       <c r="F691" s="11"/>
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
@@ -12991,9 +11605,7 @@
       <c r="D692" s="10">
         <v>0</v>
       </c>
-      <c r="E692" s="19">
-        <v>1</v>
-      </c>
+      <c r="E692" s="19"/>
       <c r="F692" s="11"/>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.25">
@@ -13009,9 +11621,7 @@
       <c r="D693" s="10">
         <v>0</v>
       </c>
-      <c r="E693" s="20">
-        <v>1</v>
-      </c>
+      <c r="E693" s="20"/>
       <c r="F693" s="11"/>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.25">
@@ -13027,9 +11637,7 @@
       <c r="D694" s="10">
         <v>0</v>
       </c>
-      <c r="E694" s="20">
-        <v>1</v>
-      </c>
+      <c r="E694" s="20"/>
       <c r="F694" s="11"/>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.25">
@@ -13045,9 +11653,7 @@
       <c r="D695">
         <v>0</v>
       </c>
-      <c r="E695" s="20">
-        <v>0</v>
-      </c>
+      <c r="E695" s="20"/>
       <c r="F695" s="11"/>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.25">
@@ -13063,9 +11669,7 @@
       <c r="D696">
         <v>0</v>
       </c>
-      <c r="E696" s="20">
-        <v>0</v>
-      </c>
+      <c r="E696" s="20"/>
       <c r="F696" s="11"/>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.25">
@@ -13081,9 +11685,7 @@
       <c r="D697" s="10">
         <v>0</v>
       </c>
-      <c r="E697" s="20">
-        <v>1</v>
-      </c>
+      <c r="E697" s="20"/>
       <c r="F697" s="11"/>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.25">
@@ -13099,9 +11701,7 @@
       <c r="D698">
         <v>0</v>
       </c>
-      <c r="E698" s="20">
-        <v>0</v>
-      </c>
+      <c r="E698" s="20"/>
       <c r="F698" s="11"/>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.25">
@@ -13117,9 +11717,7 @@
       <c r="D699">
         <v>0</v>
       </c>
-      <c r="E699" s="20">
-        <v>0</v>
-      </c>
+      <c r="E699" s="20"/>
       <c r="F699" s="11"/>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
@@ -13135,9 +11733,7 @@
       <c r="D700" s="10">
         <v>0</v>
       </c>
-      <c r="E700" s="20">
-        <v>1</v>
-      </c>
+      <c r="E700" s="20"/>
       <c r="F700" s="11"/>
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.25">
@@ -13153,9 +11749,7 @@
       <c r="D701" s="10">
         <v>0</v>
       </c>
-      <c r="E701" s="20">
-        <v>1</v>
-      </c>
+      <c r="E701" s="20"/>
       <c r="F701" s="11"/>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.25">
@@ -13171,9 +11765,7 @@
       <c r="D702" s="10">
         <v>0</v>
       </c>
-      <c r="E702" s="20">
-        <v>1</v>
-      </c>
+      <c r="E702" s="20"/>
       <c r="F702" s="11"/>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.25">
@@ -13189,9 +11781,7 @@
       <c r="D703" s="10">
         <v>0</v>
       </c>
-      <c r="E703" s="20">
-        <v>1</v>
-      </c>
+      <c r="E703" s="20"/>
       <c r="F703" s="11"/>
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
@@ -13207,9 +11797,7 @@
       <c r="D704">
         <v>0</v>
       </c>
-      <c r="E704" s="20">
-        <v>0</v>
-      </c>
+      <c r="E704" s="20"/>
       <c r="F704" s="11"/>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.25">
@@ -13225,9 +11813,7 @@
       <c r="D705">
         <v>0</v>
       </c>
-      <c r="E705" s="20">
-        <v>0</v>
-      </c>
+      <c r="E705" s="20"/>
       <c r="F705" s="11"/>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
@@ -13243,9 +11829,7 @@
       <c r="D706">
         <v>0</v>
       </c>
-      <c r="E706" s="20">
-        <v>0</v>
-      </c>
+      <c r="E706" s="20"/>
       <c r="F706" s="11"/>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
@@ -13261,9 +11845,7 @@
       <c r="D707">
         <v>0</v>
       </c>
-      <c r="E707" s="20">
-        <v>0</v>
-      </c>
+      <c r="E707" s="20"/>
       <c r="F707" s="11"/>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.25">
@@ -13279,9 +11861,7 @@
       <c r="D708" s="10">
         <v>0</v>
       </c>
-      <c r="E708" s="20">
-        <v>1</v>
-      </c>
+      <c r="E708" s="20"/>
       <c r="F708" s="11"/>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.25">
@@ -13297,9 +11877,7 @@
       <c r="D709">
         <v>0</v>
       </c>
-      <c r="E709" s="20">
-        <v>0</v>
-      </c>
+      <c r="E709" s="20"/>
       <c r="F709" s="11"/>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
@@ -13315,9 +11893,7 @@
       <c r="D710">
         <v>0</v>
       </c>
-      <c r="E710" s="20">
-        <v>0</v>
-      </c>
+      <c r="E710" s="20"/>
       <c r="F710" s="11"/>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.25">
@@ -13333,9 +11909,7 @@
       <c r="D711" s="10">
         <v>0</v>
       </c>
-      <c r="E711" s="20">
-        <v>1</v>
-      </c>
+      <c r="E711" s="20"/>
       <c r="F711" s="11"/>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.25">
@@ -13351,9 +11925,7 @@
       <c r="D712" s="10">
         <v>0</v>
       </c>
-      <c r="E712" s="20">
-        <v>1</v>
-      </c>
+      <c r="E712" s="20"/>
       <c r="F712" s="11"/>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.25">
@@ -13369,9 +11941,7 @@
       <c r="D713">
         <v>0</v>
       </c>
-      <c r="E713" s="20">
-        <v>0</v>
-      </c>
+      <c r="E713" s="20"/>
       <c r="F713" s="11"/>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.25">
@@ -13387,9 +11957,7 @@
       <c r="D714" s="10">
         <v>0</v>
       </c>
-      <c r="E714" s="20">
-        <v>1</v>
-      </c>
+      <c r="E714" s="20"/>
       <c r="F714" s="11"/>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.25">
@@ -13405,9 +11973,7 @@
       <c r="D715" s="10">
         <v>0</v>
       </c>
-      <c r="E715" s="20">
-        <v>1</v>
-      </c>
+      <c r="E715" s="20"/>
       <c r="F715" s="11"/>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
@@ -13423,9 +11989,7 @@
       <c r="D716" s="10">
         <v>0</v>
       </c>
-      <c r="E716" s="20">
-        <v>1</v>
-      </c>
+      <c r="E716" s="20"/>
       <c r="F716" s="11"/>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.25">
@@ -13441,9 +12005,7 @@
       <c r="D717">
         <v>0</v>
       </c>
-      <c r="E717" s="20">
-        <v>0</v>
-      </c>
+      <c r="E717" s="20"/>
       <c r="F717" s="11"/>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.25">
@@ -13459,9 +12021,7 @@
       <c r="D718" s="10">
         <v>0</v>
       </c>
-      <c r="E718" s="20">
-        <v>1</v>
-      </c>
+      <c r="E718" s="20"/>
       <c r="F718" s="11"/>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.25">
@@ -13477,9 +12037,7 @@
       <c r="D719" s="10">
         <v>0</v>
       </c>
-      <c r="E719" s="20">
-        <v>1</v>
-      </c>
+      <c r="E719" s="20"/>
       <c r="F719" s="11"/>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.25">
@@ -13495,9 +12053,7 @@
       <c r="D720">
         <v>0</v>
       </c>
-      <c r="E720" s="20">
-        <v>0</v>
-      </c>
+      <c r="E720" s="20"/>
       <c r="F720" s="11"/>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.25">
@@ -13513,9 +12069,7 @@
       <c r="D721">
         <v>0</v>
       </c>
-      <c r="E721" s="20">
-        <v>0</v>
-      </c>
+      <c r="E721" s="20"/>
       <c r="F721" s="11"/>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.25">
@@ -13531,9 +12085,7 @@
       <c r="D722" s="10">
         <v>0</v>
       </c>
-      <c r="E722" s="20">
-        <v>1</v>
-      </c>
+      <c r="E722" s="20"/>
       <c r="F722" s="11"/>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.25">
@@ -13549,9 +12101,7 @@
       <c r="D723">
         <v>0</v>
       </c>
-      <c r="E723" s="20">
-        <v>0</v>
-      </c>
+      <c r="E723" s="20"/>
       <c r="F723" s="11"/>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.25">
@@ -13567,9 +12117,7 @@
       <c r="D724">
         <v>0</v>
       </c>
-      <c r="E724" s="20">
-        <v>0</v>
-      </c>
+      <c r="E724" s="20"/>
       <c r="F724" s="11"/>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.25">
@@ -13585,9 +12133,7 @@
       <c r="D725">
         <v>0</v>
       </c>
-      <c r="E725" s="20">
-        <v>0</v>
-      </c>
+      <c r="E725" s="20"/>
       <c r="F725" s="11"/>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.25">
@@ -13603,9 +12149,7 @@
       <c r="D726">
         <v>0</v>
       </c>
-      <c r="E726" s="20">
-        <v>0</v>
-      </c>
+      <c r="E726" s="20"/>
       <c r="F726" s="11"/>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
@@ -13621,9 +12165,7 @@
       <c r="D727" s="10">
         <v>0</v>
       </c>
-      <c r="E727" s="20">
-        <v>1</v>
-      </c>
+      <c r="E727" s="20"/>
       <c r="F727" s="11"/>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.25">
@@ -13639,9 +12181,7 @@
       <c r="D728" s="10">
         <v>0</v>
       </c>
-      <c r="E728" s="20">
-        <v>1</v>
-      </c>
+      <c r="E728" s="20"/>
       <c r="F728" s="11"/>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.25">
@@ -13657,9 +12197,7 @@
       <c r="D729" s="10">
         <v>0</v>
       </c>
-      <c r="E729" s="20">
-        <v>1</v>
-      </c>
+      <c r="E729" s="20"/>
       <c r="F729" s="11"/>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.25">
@@ -13675,9 +12213,7 @@
       <c r="D730" s="10">
         <v>0</v>
       </c>
-      <c r="E730" s="20">
-        <v>1</v>
-      </c>
+      <c r="E730" s="20"/>
       <c r="F730" s="11"/>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
@@ -13693,9 +12229,7 @@
       <c r="D731" s="10">
         <v>0</v>
       </c>
-      <c r="E731" s="20">
-        <v>1</v>
-      </c>
+      <c r="E731" s="20"/>
       <c r="F731" s="11"/>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.25">
@@ -13711,9 +12245,7 @@
       <c r="D732" s="10">
         <v>0</v>
       </c>
-      <c r="E732" s="20">
-        <v>1</v>
-      </c>
+      <c r="E732" s="20"/>
       <c r="F732" s="11"/>
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.25">
@@ -13729,9 +12261,7 @@
       <c r="D733">
         <v>0</v>
       </c>
-      <c r="E733" s="20">
-        <v>0</v>
-      </c>
+      <c r="E733" s="20"/>
       <c r="F733" s="11"/>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.25">
@@ -13747,9 +12277,7 @@
       <c r="D734">
         <v>0</v>
       </c>
-      <c r="E734" s="20">
-        <v>0</v>
-      </c>
+      <c r="E734" s="20"/>
       <c r="F734" s="11"/>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.25">
@@ -13765,9 +12293,7 @@
       <c r="D735">
         <v>0</v>
       </c>
-      <c r="E735" s="20">
-        <v>0</v>
-      </c>
+      <c r="E735" s="20"/>
       <c r="F735" s="11"/>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.25">
@@ -13783,9 +12309,7 @@
       <c r="D736">
         <v>0</v>
       </c>
-      <c r="E736" s="20">
-        <v>0</v>
-      </c>
+      <c r="E736" s="20"/>
       <c r="F736" s="11"/>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
@@ -13801,9 +12325,7 @@
       <c r="D737">
         <v>0</v>
       </c>
-      <c r="E737" s="20">
-        <v>0</v>
-      </c>
+      <c r="E737" s="20"/>
       <c r="F737" s="11"/>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
@@ -13819,9 +12341,7 @@
       <c r="D738" s="10">
         <v>0</v>
       </c>
-      <c r="E738" s="20">
-        <v>1</v>
-      </c>
+      <c r="E738" s="20"/>
       <c r="F738" s="11"/>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
@@ -13837,9 +12357,7 @@
       <c r="D739">
         <v>0</v>
       </c>
-      <c r="E739" s="20">
-        <v>0</v>
-      </c>
+      <c r="E739" s="20"/>
       <c r="F739" s="11"/>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
@@ -13855,9 +12373,7 @@
       <c r="D740" s="10">
         <v>0</v>
       </c>
-      <c r="E740" s="20">
-        <v>1</v>
-      </c>
+      <c r="E740" s="20"/>
       <c r="F740" s="11"/>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
@@ -13873,9 +12389,7 @@
       <c r="D741">
         <v>0</v>
       </c>
-      <c r="E741" s="20">
-        <v>0</v>
-      </c>
+      <c r="E741" s="20"/>
       <c r="F741" s="11"/>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
@@ -13891,9 +12405,7 @@
       <c r="D742" s="10">
         <v>0</v>
       </c>
-      <c r="E742" s="20">
-        <v>1</v>
-      </c>
+      <c r="E742" s="20"/>
       <c r="F742" s="11"/>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
@@ -13909,9 +12421,7 @@
       <c r="D743">
         <v>0</v>
       </c>
-      <c r="E743" s="20">
-        <v>0</v>
-      </c>
+      <c r="E743" s="20"/>
       <c r="F743" s="11"/>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
@@ -13927,9 +12437,7 @@
       <c r="D744" s="10">
         <v>0</v>
       </c>
-      <c r="E744" s="20">
-        <v>1</v>
-      </c>
+      <c r="E744" s="20"/>
       <c r="F744" s="11"/>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
@@ -13945,9 +12453,7 @@
       <c r="D745">
         <v>0</v>
       </c>
-      <c r="E745" s="20">
-        <v>0</v>
-      </c>
+      <c r="E745" s="20"/>
       <c r="F745" s="11"/>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
@@ -13963,9 +12469,7 @@
       <c r="D746">
         <v>0</v>
       </c>
-      <c r="E746" s="20">
-        <v>0</v>
-      </c>
+      <c r="E746" s="20"/>
       <c r="F746" s="11"/>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.25">
@@ -13981,9 +12485,7 @@
       <c r="D747" s="10">
         <v>0</v>
       </c>
-      <c r="E747" s="20">
-        <v>1</v>
-      </c>
+      <c r="E747" s="20"/>
       <c r="F747" s="11"/>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.25">
@@ -13999,9 +12501,7 @@
       <c r="D748">
         <v>0</v>
       </c>
-      <c r="E748" s="20">
-        <v>0</v>
-      </c>
+      <c r="E748" s="20"/>
       <c r="F748" s="11"/>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.25">
@@ -14017,9 +12517,7 @@
       <c r="D749">
         <v>0</v>
       </c>
-      <c r="E749" s="20">
-        <v>0</v>
-      </c>
+      <c r="E749" s="20"/>
       <c r="F749" s="11"/>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
@@ -14035,9 +12533,7 @@
       <c r="D750">
         <v>0</v>
       </c>
-      <c r="E750" s="20">
-        <v>0</v>
-      </c>
+      <c r="E750" s="20"/>
       <c r="F750" s="11"/>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
@@ -14053,9 +12549,7 @@
       <c r="D751">
         <v>0</v>
       </c>
-      <c r="E751" s="20">
-        <v>0</v>
-      </c>
+      <c r="E751" s="20"/>
       <c r="F751" s="11"/>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.25">
@@ -14071,9 +12565,7 @@
       <c r="D752" s="10">
         <v>0</v>
       </c>
-      <c r="E752" s="20">
-        <v>1</v>
-      </c>
+      <c r="E752" s="20"/>
       <c r="F752" s="11"/>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.25">
@@ -14089,9 +12581,7 @@
       <c r="D753">
         <v>0</v>
       </c>
-      <c r="E753" s="20">
-        <v>0</v>
-      </c>
+      <c r="E753" s="20"/>
       <c r="F753" s="11"/>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.25">
@@ -14107,9 +12597,7 @@
       <c r="D754" s="10">
         <v>0</v>
       </c>
-      <c r="E754" s="20">
-        <v>1</v>
-      </c>
+      <c r="E754" s="20"/>
       <c r="F754" s="11"/>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.25">
@@ -14125,9 +12613,7 @@
       <c r="D755" s="10">
         <v>0</v>
       </c>
-      <c r="E755" s="20">
-        <v>1</v>
-      </c>
+      <c r="E755" s="20"/>
       <c r="F755" s="11"/>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.25">
@@ -14143,9 +12629,7 @@
       <c r="D756">
         <v>0</v>
       </c>
-      <c r="E756" s="20">
-        <v>0</v>
-      </c>
+      <c r="E756" s="20"/>
       <c r="F756" s="11"/>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.25">
@@ -14161,9 +12645,7 @@
       <c r="D757">
         <v>0</v>
       </c>
-      <c r="E757" s="20">
-        <v>0</v>
-      </c>
+      <c r="E757" s="20"/>
       <c r="F757" s="11"/>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.25">
@@ -14179,9 +12661,7 @@
       <c r="D758">
         <v>0</v>
       </c>
-      <c r="E758" s="20">
-        <v>0</v>
-      </c>
+      <c r="E758" s="20"/>
       <c r="F758" s="11"/>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.25">
@@ -14197,9 +12677,7 @@
       <c r="D759">
         <v>0</v>
       </c>
-      <c r="E759" s="20">
-        <v>0</v>
-      </c>
+      <c r="E759" s="20"/>
       <c r="F759" s="11"/>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
@@ -14215,9 +12693,7 @@
       <c r="D760" s="10">
         <v>0</v>
       </c>
-      <c r="E760" s="20">
-        <v>1</v>
-      </c>
+      <c r="E760" s="20"/>
       <c r="F760" s="11"/>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.25">
@@ -14233,9 +12709,7 @@
       <c r="D761" s="10">
         <v>0</v>
       </c>
-      <c r="E761" s="20">
-        <v>1</v>
-      </c>
+      <c r="E761" s="20"/>
       <c r="F761" s="11"/>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.25">
@@ -14251,9 +12725,7 @@
       <c r="D762" s="10">
         <v>0</v>
       </c>
-      <c r="E762" s="20">
-        <v>1</v>
-      </c>
+      <c r="E762" s="20"/>
       <c r="F762" s="11"/>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.25">
@@ -14269,9 +12741,7 @@
       <c r="D763">
         <v>0</v>
       </c>
-      <c r="E763" s="20">
-        <v>0</v>
-      </c>
+      <c r="E763" s="20"/>
       <c r="F763" s="11"/>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
@@ -14287,9 +12757,7 @@
       <c r="D764" s="10">
         <v>0</v>
       </c>
-      <c r="E764" s="20">
-        <v>1</v>
-      </c>
+      <c r="E764" s="20"/>
       <c r="F764" s="11"/>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.25">
@@ -14305,9 +12773,7 @@
       <c r="D765" s="10">
         <v>0</v>
       </c>
-      <c r="E765" s="20">
-        <v>1</v>
-      </c>
+      <c r="E765" s="20"/>
       <c r="F765" s="11"/>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.25">
@@ -14323,9 +12789,7 @@
       <c r="D766">
         <v>0</v>
       </c>
-      <c r="E766" s="20">
-        <v>0</v>
-      </c>
+      <c r="E766" s="20"/>
       <c r="F766" s="11"/>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
@@ -14341,9 +12805,7 @@
       <c r="D767" s="10">
         <v>0</v>
       </c>
-      <c r="E767" s="20">
-        <v>1</v>
-      </c>
+      <c r="E767" s="20"/>
       <c r="F767" s="11"/>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.25">
@@ -14359,9 +12821,7 @@
       <c r="D768" s="10">
         <v>0</v>
       </c>
-      <c r="E768" s="20">
-        <v>1</v>
-      </c>
+      <c r="E768" s="20"/>
       <c r="F768" s="11"/>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.25">
@@ -14377,9 +12837,7 @@
       <c r="D769" s="10">
         <v>0</v>
       </c>
-      <c r="E769" s="20">
-        <v>1</v>
-      </c>
+      <c r="E769" s="20"/>
       <c r="F769" s="11"/>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.25">
@@ -14395,9 +12853,7 @@
       <c r="D770" s="10">
         <v>0</v>
       </c>
-      <c r="E770" s="20">
-        <v>1</v>
-      </c>
+      <c r="E770" s="20"/>
       <c r="F770" s="11"/>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
@@ -14413,9 +12869,7 @@
       <c r="D771" s="10">
         <v>0</v>
       </c>
-      <c r="E771" s="20">
-        <v>1</v>
-      </c>
+      <c r="E771" s="20"/>
       <c r="F771" s="11"/>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
@@ -14431,9 +12885,7 @@
       <c r="D772">
         <v>0</v>
       </c>
-      <c r="E772" s="20">
-        <v>0</v>
-      </c>
+      <c r="E772" s="20"/>
       <c r="F772" s="11"/>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
@@ -14449,9 +12901,7 @@
       <c r="D773">
         <v>0</v>
       </c>
-      <c r="E773" s="20">
-        <v>0</v>
-      </c>
+      <c r="E773" s="20"/>
       <c r="F773" s="11"/>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
@@ -14467,9 +12917,7 @@
       <c r="D774">
         <v>0</v>
       </c>
-      <c r="E774" s="20">
-        <v>0</v>
-      </c>
+      <c r="E774" s="20"/>
       <c r="F774" s="11"/>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
@@ -14485,9 +12933,7 @@
       <c r="D775">
         <v>0</v>
       </c>
-      <c r="E775" s="20">
-        <v>0</v>
-      </c>
+      <c r="E775" s="20"/>
       <c r="F775" s="11"/>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
@@ -14503,9 +12949,7 @@
       <c r="D776" s="10">
         <v>0</v>
       </c>
-      <c r="E776" s="20">
-        <v>1</v>
-      </c>
+      <c r="E776" s="20"/>
       <c r="F776" s="11"/>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
@@ -14521,9 +12965,7 @@
       <c r="D777" s="10">
         <v>0</v>
       </c>
-      <c r="E777" s="20">
-        <v>1</v>
-      </c>
+      <c r="E777" s="20"/>
       <c r="F777" s="11"/>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.25">
@@ -14539,9 +12981,7 @@
       <c r="D778" s="10">
         <v>0</v>
       </c>
-      <c r="E778" s="20">
-        <v>1</v>
-      </c>
+      <c r="E778" s="20"/>
       <c r="F778" s="11"/>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.25">
@@ -14557,9 +12997,7 @@
       <c r="D779" s="10">
         <v>0</v>
       </c>
-      <c r="E779" s="20">
-        <v>1</v>
-      </c>
+      <c r="E779" s="20"/>
       <c r="F779" s="11"/>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
@@ -14575,9 +13013,7 @@
       <c r="D780" s="10">
         <v>0</v>
       </c>
-      <c r="E780" s="20">
-        <v>1</v>
-      </c>
+      <c r="E780" s="20"/>
       <c r="F780" s="11"/>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
@@ -14593,9 +13029,7 @@
       <c r="D781" s="10">
         <v>0</v>
       </c>
-      <c r="E781" s="20">
-        <v>1</v>
-      </c>
+      <c r="E781" s="20"/>
       <c r="F781" s="11"/>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
@@ -14611,9 +13045,7 @@
       <c r="D782">
         <v>0</v>
       </c>
-      <c r="E782" s="20">
-        <v>0</v>
-      </c>
+      <c r="E782" s="20"/>
       <c r="F782" s="11"/>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
@@ -14629,9 +13061,7 @@
       <c r="D783" s="10">
         <v>0</v>
       </c>
-      <c r="E783" s="20">
-        <v>1</v>
-      </c>
+      <c r="E783" s="20"/>
       <c r="F783" s="11"/>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.25">
@@ -14647,9 +13077,7 @@
       <c r="D784" s="10">
         <v>0</v>
       </c>
-      <c r="E784" s="20">
-        <v>1</v>
-      </c>
+      <c r="E784" s="20"/>
       <c r="F784" s="11"/>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
@@ -14665,9 +13093,7 @@
       <c r="D785" s="10">
         <v>0</v>
       </c>
-      <c r="E785" s="20">
-        <v>1</v>
-      </c>
+      <c r="E785" s="20"/>
       <c r="F785" s="11"/>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
@@ -14683,9 +13109,7 @@
       <c r="D786">
         <v>0</v>
       </c>
-      <c r="E786" s="20">
-        <v>0</v>
-      </c>
+      <c r="E786" s="20"/>
       <c r="F786" s="11"/>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.25">
@@ -14701,9 +13125,7 @@
       <c r="D787" s="10">
         <v>0</v>
       </c>
-      <c r="E787" s="20">
-        <v>1</v>
-      </c>
+      <c r="E787" s="20"/>
       <c r="F787" s="11"/>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.25">
@@ -14719,9 +13141,7 @@
       <c r="D788" s="10">
         <v>0</v>
       </c>
-      <c r="E788" s="20">
-        <v>1</v>
-      </c>
+      <c r="E788" s="20"/>
       <c r="F788" s="11"/>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
@@ -14737,9 +13157,7 @@
       <c r="D789" s="10">
         <v>0</v>
       </c>
-      <c r="E789" s="20">
-        <v>1</v>
-      </c>
+      <c r="E789" s="20"/>
       <c r="F789" s="11"/>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
@@ -14755,9 +13173,7 @@
       <c r="D790">
         <v>0</v>
       </c>
-      <c r="E790" s="20">
-        <v>0</v>
-      </c>
+      <c r="E790" s="20"/>
       <c r="F790" s="11"/>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
@@ -14773,9 +13189,7 @@
       <c r="D791" s="10">
         <v>0</v>
       </c>
-      <c r="E791" s="20">
-        <v>1</v>
-      </c>
+      <c r="E791" s="20"/>
       <c r="F791" s="11"/>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
@@ -14791,9 +13205,7 @@
       <c r="D792" s="10">
         <v>0</v>
       </c>
-      <c r="E792" s="20">
-        <v>1</v>
-      </c>
+      <c r="E792" s="20"/>
       <c r="F792" s="11"/>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
@@ -14809,9 +13221,7 @@
       <c r="D793" s="10">
         <v>0</v>
       </c>
-      <c r="E793" s="20">
-        <v>1</v>
-      </c>
+      <c r="E793" s="20"/>
       <c r="F793" s="11"/>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
@@ -14827,9 +13237,7 @@
       <c r="D794">
         <v>0</v>
       </c>
-      <c r="E794" s="20">
-        <v>0</v>
-      </c>
+      <c r="E794" s="20"/>
       <c r="F794" s="11"/>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
@@ -14845,9 +13253,7 @@
       <c r="D795" s="10">
         <v>0</v>
       </c>
-      <c r="E795" s="20">
-        <v>1</v>
-      </c>
+      <c r="E795" s="20"/>
       <c r="F795" s="11"/>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
@@ -14863,9 +13269,7 @@
       <c r="D796">
         <v>0</v>
       </c>
-      <c r="E796" s="20">
-        <v>0</v>
-      </c>
+      <c r="E796" s="20"/>
       <c r="F796" s="11"/>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
@@ -14881,9 +13285,7 @@
       <c r="D797">
         <v>0</v>
       </c>
-      <c r="E797" s="20">
-        <v>0</v>
-      </c>
+      <c r="E797" s="20"/>
       <c r="F797" s="11"/>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
@@ -14899,9 +13301,7 @@
       <c r="D798" s="10">
         <v>0</v>
       </c>
-      <c r="E798" s="20">
-        <v>1</v>
-      </c>
+      <c r="E798" s="20"/>
       <c r="F798" s="11"/>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.25">
@@ -14917,9 +13317,7 @@
       <c r="D799" s="10">
         <v>0</v>
       </c>
-      <c r="E799" s="20">
-        <v>1</v>
-      </c>
+      <c r="E799" s="20"/>
       <c r="F799" s="11"/>
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.25">
@@ -14935,9 +13333,7 @@
       <c r="D800">
         <v>0</v>
       </c>
-      <c r="E800" s="20">
-        <v>0</v>
-      </c>
+      <c r="E800" s="20"/>
       <c r="F800" s="11"/>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.25">
@@ -14953,9 +13349,7 @@
       <c r="D801">
         <v>0</v>
       </c>
-      <c r="E801" s="20">
-        <v>0</v>
-      </c>
+      <c r="E801" s="20"/>
       <c r="F801" s="11"/>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.25">
@@ -14971,9 +13365,7 @@
       <c r="D802">
         <v>0</v>
       </c>
-      <c r="E802" s="20">
-        <v>0</v>
-      </c>
+      <c r="E802" s="20"/>
       <c r="F802" s="11"/>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.25">
@@ -14989,9 +13381,7 @@
       <c r="D803">
         <v>0</v>
       </c>
-      <c r="E803" s="20">
-        <v>0</v>
-      </c>
+      <c r="E803" s="20"/>
       <c r="F803" s="11"/>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.25">
@@ -15007,9 +13397,7 @@
       <c r="D804" s="10">
         <v>0</v>
       </c>
-      <c r="E804" s="20">
-        <v>1</v>
-      </c>
+      <c r="E804" s="20"/>
       <c r="F804" s="11"/>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.25">
@@ -15025,9 +13413,7 @@
       <c r="D805" s="10">
         <v>0</v>
       </c>
-      <c r="E805" s="20">
-        <v>1</v>
-      </c>
+      <c r="E805" s="20"/>
       <c r="F805" s="11"/>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.25">
@@ -15043,9 +13429,7 @@
       <c r="D806">
         <v>0</v>
       </c>
-      <c r="E806" s="20">
-        <v>0</v>
-      </c>
+      <c r="E806" s="20"/>
       <c r="F806" s="11"/>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.25">
@@ -15061,9 +13445,7 @@
       <c r="D807">
         <v>0</v>
       </c>
-      <c r="E807" s="20">
-        <v>0</v>
-      </c>
+      <c r="E807" s="20"/>
       <c r="F807" s="11"/>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.25">
@@ -15079,9 +13461,7 @@
       <c r="D808">
         <v>0</v>
       </c>
-      <c r="E808" s="20">
-        <v>0</v>
-      </c>
+      <c r="E808" s="20"/>
       <c r="F808" s="11"/>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.25">
@@ -15097,9 +13477,7 @@
       <c r="D809" s="10">
         <v>0</v>
       </c>
-      <c r="E809" s="20">
-        <v>1</v>
-      </c>
+      <c r="E809" s="20"/>
       <c r="F809" s="11"/>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.25">
@@ -15115,9 +13493,7 @@
       <c r="D810" s="10">
         <v>0</v>
       </c>
-      <c r="E810" s="20">
-        <v>1</v>
-      </c>
+      <c r="E810" s="20"/>
       <c r="F810" s="11"/>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.25">
@@ -15133,9 +13509,7 @@
       <c r="D811" s="10">
         <v>0</v>
       </c>
-      <c r="E811" s="20">
-        <v>1</v>
-      </c>
+      <c r="E811" s="20"/>
       <c r="F811" s="11"/>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.25">
@@ -15151,9 +13525,7 @@
       <c r="D812" s="10">
         <v>0</v>
       </c>
-      <c r="E812" s="20">
-        <v>1</v>
-      </c>
+      <c r="E812" s="20"/>
       <c r="F812" s="11"/>
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.25">
@@ -15169,9 +13541,7 @@
       <c r="D813" s="10">
         <v>0</v>
       </c>
-      <c r="E813" s="20">
-        <v>1</v>
-      </c>
+      <c r="E813" s="20"/>
       <c r="F813" s="11"/>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.25">
@@ -15187,9 +13557,7 @@
       <c r="D814" s="10">
         <v>0</v>
       </c>
-      <c r="E814" s="20">
-        <v>1</v>
-      </c>
+      <c r="E814" s="20"/>
       <c r="F814" s="11"/>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.25">
@@ -15205,9 +13573,7 @@
       <c r="D815" s="10">
         <v>0</v>
       </c>
-      <c r="E815" s="20">
-        <v>1</v>
-      </c>
+      <c r="E815" s="20"/>
       <c r="F815" s="11"/>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.25">
@@ -15223,9 +13589,7 @@
       <c r="D816">
         <v>0</v>
       </c>
-      <c r="E816" s="20">
-        <v>0</v>
-      </c>
+      <c r="E816" s="20"/>
       <c r="F816" s="11"/>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.25">
@@ -15241,9 +13605,7 @@
       <c r="D817" s="10">
         <v>0</v>
       </c>
-      <c r="E817" s="20">
-        <v>1</v>
-      </c>
+      <c r="E817" s="20"/>
       <c r="F817" s="11"/>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.25">
@@ -15259,9 +13621,7 @@
       <c r="D818" s="10">
         <v>0</v>
       </c>
-      <c r="E818" s="20">
-        <v>1</v>
-      </c>
+      <c r="E818" s="20"/>
       <c r="F818" s="11"/>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.25">
@@ -15277,9 +13637,7 @@
       <c r="D819">
         <v>0</v>
       </c>
-      <c r="E819" s="20">
-        <v>0</v>
-      </c>
+      <c r="E819" s="20"/>
       <c r="F819" s="11"/>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.25">
@@ -15295,9 +13653,7 @@
       <c r="D820" s="10">
         <v>0</v>
       </c>
-      <c r="E820" s="20">
-        <v>1</v>
-      </c>
+      <c r="E820" s="20"/>
       <c r="F820" s="11"/>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.25">
@@ -15313,9 +13669,7 @@
       <c r="D821" s="10">
         <v>0</v>
       </c>
-      <c r="E821" s="20">
-        <v>1</v>
-      </c>
+      <c r="E821" s="20"/>
       <c r="F821" s="11"/>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.25">
@@ -15331,9 +13685,7 @@
       <c r="D822" s="10">
         <v>0</v>
       </c>
-      <c r="E822" s="20">
-        <v>1</v>
-      </c>
+      <c r="E822" s="20"/>
       <c r="F822" s="11"/>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.25">
@@ -15349,9 +13701,7 @@
       <c r="D823" s="10">
         <v>0</v>
       </c>
-      <c r="E823" s="20">
-        <v>1</v>
-      </c>
+      <c r="E823" s="20"/>
       <c r="F823" s="11"/>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.25">
@@ -15367,9 +13717,7 @@
       <c r="D824">
         <v>0</v>
       </c>
-      <c r="E824" s="20">
-        <v>0</v>
-      </c>
+      <c r="E824" s="20"/>
       <c r="F824" s="11"/>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
@@ -15385,9 +13733,7 @@
       <c r="D825">
         <v>0</v>
       </c>
-      <c r="E825" s="20">
-        <v>0</v>
-      </c>
+      <c r="E825" s="20"/>
       <c r="F825" s="11"/>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
@@ -15403,9 +13749,7 @@
       <c r="D826">
         <v>0</v>
       </c>
-      <c r="E826" s="20">
-        <v>0</v>
-      </c>
+      <c r="E826" s="20"/>
       <c r="F826" s="11"/>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.25">
@@ -15421,9 +13765,7 @@
       <c r="D827">
         <v>0</v>
       </c>
-      <c r="E827" s="20">
-        <v>0</v>
-      </c>
+      <c r="E827" s="20"/>
       <c r="F827" s="11"/>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.25">
@@ -15439,9 +13781,7 @@
       <c r="D828" s="10">
         <v>0</v>
       </c>
-      <c r="E828" s="20">
-        <v>1</v>
-      </c>
+      <c r="E828" s="20"/>
       <c r="F828" s="11"/>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.25">
@@ -15457,9 +13797,7 @@
       <c r="D829">
         <v>0</v>
       </c>
-      <c r="E829" s="20">
-        <v>0</v>
-      </c>
+      <c r="E829" s="20"/>
       <c r="F829" s="11"/>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.25">
@@ -15475,9 +13813,7 @@
       <c r="D830">
         <v>0</v>
       </c>
-      <c r="E830" s="20">
-        <v>0</v>
-      </c>
+      <c r="E830" s="20"/>
       <c r="F830" s="11"/>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.25">
@@ -15493,9 +13829,7 @@
       <c r="D831" s="10">
         <v>0</v>
       </c>
-      <c r="E831" s="20">
-        <v>1</v>
-      </c>
+      <c r="E831" s="20"/>
       <c r="F831" s="11"/>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.25">
@@ -15511,9 +13845,7 @@
       <c r="D832" s="10">
         <v>0</v>
       </c>
-      <c r="E832" s="20">
-        <v>1</v>
-      </c>
+      <c r="E832" s="20"/>
       <c r="F832" s="11"/>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.25">
@@ -15529,9 +13861,7 @@
       <c r="D833" s="10">
         <v>0</v>
       </c>
-      <c r="E833" s="20">
-        <v>1</v>
-      </c>
+      <c r="E833" s="20"/>
       <c r="F833" s="11"/>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.25">
@@ -15547,9 +13877,7 @@
       <c r="D834" s="10">
         <v>0</v>
       </c>
-      <c r="E834" s="20">
-        <v>1</v>
-      </c>
+      <c r="E834" s="20"/>
       <c r="F834" s="11"/>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.25">
@@ -15565,9 +13893,7 @@
       <c r="D835">
         <v>0</v>
       </c>
-      <c r="E835" s="20">
-        <v>0</v>
-      </c>
+      <c r="E835" s="20"/>
       <c r="F835" s="11"/>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
@@ -15583,9 +13909,7 @@
       <c r="D836" s="10">
         <v>0</v>
       </c>
-      <c r="E836" s="20">
-        <v>1</v>
-      </c>
+      <c r="E836" s="20"/>
       <c r="F836" s="11"/>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
@@ -15601,9 +13925,7 @@
       <c r="D837" s="10">
         <v>0</v>
       </c>
-      <c r="E837" s="20">
-        <v>1</v>
-      </c>
+      <c r="E837" s="20"/>
       <c r="F837" s="11"/>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.25">
@@ -15619,9 +13941,7 @@
       <c r="D838" s="10">
         <v>0</v>
       </c>
-      <c r="E838" s="20">
-        <v>1</v>
-      </c>
+      <c r="E838" s="20"/>
       <c r="F838" s="11"/>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.25">
@@ -15637,9 +13957,7 @@
       <c r="D839">
         <v>0</v>
       </c>
-      <c r="E839" s="20">
-        <v>0</v>
-      </c>
+      <c r="E839" s="20"/>
       <c r="F839" s="11"/>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.25">
@@ -15655,9 +13973,7 @@
       <c r="D840" s="10">
         <v>0</v>
       </c>
-      <c r="E840" s="20">
-        <v>1</v>
-      </c>
+      <c r="E840" s="20"/>
       <c r="F840" s="11"/>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
@@ -15673,9 +13989,7 @@
       <c r="D841">
         <v>0</v>
       </c>
-      <c r="E841" s="20">
-        <v>0</v>
-      </c>
+      <c r="E841" s="20"/>
       <c r="F841" s="11"/>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.25">
@@ -15691,9 +14005,7 @@
       <c r="D842" s="10">
         <v>0</v>
       </c>
-      <c r="E842" s="20">
-        <v>1</v>
-      </c>
+      <c r="E842" s="20"/>
       <c r="F842" s="11"/>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.25">
@@ -15709,9 +14021,7 @@
       <c r="D843" s="10">
         <v>0</v>
       </c>
-      <c r="E843" s="20">
-        <v>1</v>
-      </c>
+      <c r="E843" s="20"/>
       <c r="F843" s="11"/>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.25">
@@ -15727,9 +14037,7 @@
       <c r="D844" s="10">
         <v>0</v>
       </c>
-      <c r="E844" s="20">
-        <v>1</v>
-      </c>
+      <c r="E844" s="20"/>
       <c r="F844" s="11"/>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.25">
@@ -15745,9 +14053,7 @@
       <c r="D845" s="10">
         <v>0</v>
       </c>
-      <c r="E845" s="20">
-        <v>1</v>
-      </c>
+      <c r="E845" s="20"/>
       <c r="F845" s="11"/>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
@@ -15763,14 +14069,12 @@
       <c r="D846">
         <v>0</v>
       </c>
-      <c r="E846" s="20">
-        <v>0</v>
-      </c>
+      <c r="E846" s="20"/>
       <c r="F846" s="11"/>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B847">
         <v>87.691121455293143</v>
@@ -15781,13 +14085,11 @@
       <c r="D847">
         <v>0</v>
       </c>
-      <c r="E847" s="20">
-        <v>1</v>
-      </c>
+      <c r="E847" s="20"/>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B848">
         <v>5.3282445858488447</v>
@@ -15798,13 +14100,11 @@
       <c r="D848">
         <v>0.5263050667898107</v>
       </c>
-      <c r="E848" s="20">
-        <v>0</v>
-      </c>
+      <c r="E848" s="20"/>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B849">
         <v>30.041190165528182</v>
@@ -15815,13 +14115,11 @@
       <c r="D849">
         <v>0</v>
       </c>
-      <c r="E849" s="20">
-        <v>1</v>
-      </c>
+      <c r="E849" s="20"/>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B850">
         <v>48.174188882879491</v>
@@ -15832,13 +14130,11 @@
       <c r="D850">
         <v>0</v>
       </c>
-      <c r="E850" s="20">
-        <v>1</v>
-      </c>
+      <c r="E850" s="20"/>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B851">
         <v>77.9481206542102</v>
@@ -15849,13 +14145,11 @@
       <c r="D851">
         <v>0</v>
       </c>
-      <c r="E851" s="20">
-        <v>0</v>
-      </c>
+      <c r="E851" s="20"/>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B852">
         <v>43.075751153375968</v>
@@ -15866,13 +14160,11 @@
       <c r="D852">
         <v>0</v>
       </c>
-      <c r="E852" s="20">
-        <v>1</v>
-      </c>
+      <c r="E852" s="20"/>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B853">
         <v>68.570096983954372</v>
@@ -15883,13 +14175,11 @@
       <c r="D853">
         <v>0</v>
       </c>
-      <c r="E853" s="20">
-        <v>0</v>
-      </c>
+      <c r="E853" s="20"/>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B854">
         <v>32.325546431460708</v>
@@ -15900,13 +14190,11 @@
       <c r="D854">
         <v>0</v>
       </c>
-      <c r="E854" s="20">
-        <v>0</v>
-      </c>
+      <c r="E854" s="20"/>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B855">
         <v>0</v>
@@ -15917,13 +14205,11 @@
       <c r="D855">
         <v>0</v>
       </c>
-      <c r="E855" s="20">
-        <v>0</v>
-      </c>
+      <c r="E855" s="20"/>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B856">
         <v>1.6889663620088571</v>
@@ -15934,13 +14220,11 @@
       <c r="D856">
         <v>0</v>
       </c>
-      <c r="E856" s="20">
-        <v>0</v>
-      </c>
+      <c r="E856" s="20"/>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B857">
         <v>23.027339969874703</v>
@@ -15951,13 +14235,11 @@
       <c r="D857">
         <v>0</v>
       </c>
-      <c r="E857" s="20">
-        <v>0</v>
-      </c>
+      <c r="E857" s="20"/>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B858">
         <v>0</v>
@@ -15968,13 +14250,11 @@
       <c r="D858">
         <v>58.144822409835257</v>
       </c>
-      <c r="E858" s="20">
-        <v>0</v>
-      </c>
+      <c r="E858" s="20"/>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B859">
         <v>47.014314545102373</v>
@@ -15985,13 +14265,11 @@
       <c r="D859">
         <v>0</v>
       </c>
-      <c r="E859" s="20">
-        <v>1</v>
-      </c>
+      <c r="E859" s="20"/>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B860">
         <v>69.65139207407249</v>
@@ -16002,13 +14280,11 @@
       <c r="D860">
         <v>0</v>
       </c>
-      <c r="E860" s="20">
-        <v>0</v>
-      </c>
+      <c r="E860" s="20"/>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B861">
         <v>83.122731687369011</v>
@@ -16019,13 +14295,11 @@
       <c r="D861">
         <v>0</v>
       </c>
-      <c r="E861" s="20">
-        <v>1</v>
-      </c>
+      <c r="E861" s="20"/>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B862">
         <v>41.304337294531997</v>
@@ -16036,13 +14310,11 @@
       <c r="D862">
         <v>0</v>
       </c>
-      <c r="E862" s="20">
-        <v>1</v>
-      </c>
+      <c r="E862" s="20"/>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B863">
         <v>27.157694818683602</v>
@@ -16053,13 +14325,11 @@
       <c r="D863">
         <v>0</v>
       </c>
-      <c r="E863" s="20">
-        <v>1</v>
-      </c>
+      <c r="E863" s="20"/>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B864">
         <v>2.7619700063080357</v>
@@ -16070,13 +14340,11 @@
       <c r="D864">
         <v>0</v>
       </c>
-      <c r="E864" s="20">
-        <v>0</v>
-      </c>
+      <c r="E864" s="20"/>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B865">
         <v>29.903487085061705</v>
@@ -16087,13 +14355,11 @@
       <c r="D865">
         <v>0</v>
       </c>
-      <c r="E865" s="20">
-        <v>1</v>
-      </c>
+      <c r="E865" s="20"/>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B866">
         <v>43.540763617266435</v>
@@ -16104,13 +14370,11 @@
       <c r="D866">
         <v>0</v>
       </c>
-      <c r="E866" s="20">
-        <v>0</v>
-      </c>
+      <c r="E866" s="20"/>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B867">
         <v>97.050279103017147</v>
@@ -16121,13 +14385,11 @@
       <c r="D867">
         <v>0</v>
       </c>
-      <c r="E867" s="20">
-        <v>1</v>
-      </c>
+      <c r="E867" s="20"/>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B868">
         <v>49.618627057406663</v>
@@ -16138,13 +14400,11 @@
       <c r="D868">
         <v>0</v>
       </c>
-      <c r="E868" s="20">
-        <v>1</v>
-      </c>
+      <c r="E868" s="20"/>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B869">
         <v>75.764881340225585</v>
@@ -16155,13 +14415,11 @@
       <c r="D869">
         <v>0</v>
       </c>
-      <c r="E869" s="20">
-        <v>0</v>
-      </c>
+      <c r="E869" s="20"/>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B870">
         <v>31.310833781993502</v>
@@ -16172,13 +14430,11 @@
       <c r="D870">
         <v>0</v>
       </c>
-      <c r="E870" s="20">
-        <v>1</v>
-      </c>
+      <c r="E870" s="20"/>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B871">
         <v>80.190975124932663</v>
@@ -16189,9 +14445,7 @@
       <c r="D871">
         <v>0</v>
       </c>
-      <c r="E871" s="20">
-        <v>1</v>
-      </c>
+      <c r="E871" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
